--- a/larazon.xlsx
+++ b/larazon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B174"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,10 +448,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://www.larazon.es/gente/famosos/madre-marta-riesco-cuenta-rocio-flores-echo-calle-noche-ruptura_2023042164424df6fc273000015047ed.html</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Todavía no han pasado ni 24 horas desde que Marta Riesco anunció a través de sus redes sociales que su relación con Antonio David Flores había llegado a su fin y ya se van conociendo muchos más detalles sobre lo que ocurrió esa terrible noche en la casa de Málaga en la que la pareja vivía. Por las palabras de la periodista ya se podía intuir que Rocío Flores jugó un papel fundamental en el episodio que desencadenó la ruptura, y ahora su madre ha confirmado la versión de su hija.
+A través de YouTube, a modo de comentario en un vídeo en el que se analizaba lo sucedido, Camila intenta defender a su hija y asegura que tanto Antonio David como Rocío Flores expulsaron de su vivienda malagueña a Marta Riesco en plena noche, justo cuando una tormenta descargaba sobre la ciudad andaluza. "La echaron a la calle hasta las tres de la mañana", cuenta la madre de Riesco. La razón de este agrio final, según su versión, no podría ser más baladí: al parecer les molestó que la exreportera grabara un vídeo y por eso la dejaron en la calle.
+Marta Riesco en la Fashion Week 2023 Gtres
+Además, como es natural, la madre de Marta Riesco saca las garras por ella y asegura que "no ha matado a nadie", a la vez que pregunta a quienes la critican: "¿Cómo que no tiene perdón de Dios?".
+Se debe destacar que, a pesar de lo publicado en diferentes medios, Marta Riesco asegura que alguien se ha hecho pasar por su madre y que esta nunca se ha pronunciado.
+Mientras, Antonio David parece ajeno a toda la polémica y ha reaparecido en sus redes sociales, presumiendo de vistas al Mar Mediterráneo desde el balcón de la casa en la que ocurrió todo. Otro escenario, como la vivienda de Valdelagua de Rocío Carrasco, marcado por un violento episodio.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>https://www.larazon.es/economia/mejores-neumaticos-que-mas-duran-segun-ocu_2023042164425b417adfa80001c50816.html</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>El mantenimiento de un vehículo no sólo es fundamental para su buen funcionamiento, sino también para garantizar la seguridad de quien va al volante y del resto de conductores con los que se comparte carretera. De hecho, los vehículos deben pasar la ITV precisamente para comprobar que cumplen los requisitos de seguridad básica para circular sin ser un peligro para la seguridad vial. Uno de los elementos clave en materia de seguridad y consumo son los neumático. Para ayudar a los conductores a elegir el mejor neumático que presente la mejor combinación entre agarre, duración y precio, la Organización de Consumidores y Usuarios (OCU) hace test comparativos. Su último análisis, realizado entre 49 neumáticos de la categoría 205/55 R16 V, una talla muy habitual en coches compactos y en berlinas, revela importantes diferencias de precio y calidad.
 El dato más llamativo del estudio, publicado en la revista OCU Compra Maestra de abril, son las enormes diferencias de duración entre neumáticos de la misma categoría: entre 24.000 y 65.700 km de vida útil; o lo que es lo mismo, hasta 42.700 km más de rodadura. Un dato que merece la pena valorar, dado que el coste medio de algunos neumáticos supera los 100 euros la unidad. Por tanto, si adquiere un neumático barato, pero que tiene que cambiarlo con tres veces más frecuencia que otro, el ahorro se esfuma.
@@ -462,13 +479,13 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>https://www.larazon.es/internacional/buque-uss-cleveland-choca-remolcador-ser-botado-plena-ceremonia-oficial_202304216442313050432b000163a97a.html</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>En plena ceremonia de inauguración, el buque de guerra USS Cleveland tuvo un percance nada más ser botado por las autoridades de la Marina de Estados Unidos cuando chocó contra un remolcador delante de 3.000 personas. El barco LCS (buque de combate litoral) clase Freedom se encontraba en el astillero Fincantieri Marinette Marine, en Wisconsin.
 La Marina ha emitido un comunicado en el que explica porqué el nuevo barco sufrió este contratiempo. En la nota se dice que para la botadura se utilizó un método antiguo llamado “botadura lateral”, que consiste en emplear un remolcador pequeño para tirar del barco más grande hacia el agua -en el río Menominee- aprovechando la gravedad.
@@ -480,21 +497,21 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/economia/seguridad-social-hace-tres-cambios-gestion-citas-previas-solventar-colapso_20230421644242a77adfa80001c4d913.html</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>https://www.larazon.es/economia/seguridad-social-hace-tres-cambios-gestion-citas-previas-solventar-colapso_20230421644242a77adfa80001c4d913.html</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>https://www.larazon.es/cataluna/nueva-burla-independentismo-radical-cajera-supermercado-hablar-catalan_20230421644266e6fc273000015072b8.html</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>La campaña “Mantinc el català”, impulsada por la ultraindependentista Plataforma per la Llengua, empieza a dar sus frutos, al menos en las redes sociales. La iniciativa tiene de objetivo mantener el idioma en cualquier conversación.
 Al respecto, se ha abierto un hilo en Twitter muy significativo. Un tuit de una usuaria reza, en catalán, que “en un pequeño pueblo de Osona, desde el pasado sábado hay una nueva cajera en el Condis. Le doy mi número de DNI para contabilizar la compra y me pide que le diga en castellano. Le digo ya cambio le propongo que haga un esfuerzo y aprenda catalán”.
@@ -502,13 +519,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>https://www.larazon.es/deportes/plan-aston-martin-que-descoloca-fernando-alonso-decision-esta-tomada_2023042164422ee67f1ecd000199b465.html</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>La historia de Fernando Alonso en la Fórmula 1 parece estar hecha de segundas partes y así lo demuestrael último plan de Aston Martin que no ha gustado nada al piloto asturiano.
 Hace días, ya adelantábamos que la escudería verde estudia cambiar a su proveedor de motores y Fernando Alonso teme revivir una pesadilla que viene de lejos. Y ahora, el plan parece confirmado. Aston Martin y Honda sellarán su alianza. De hecho, la apuesta de Aston Martin con Honda para la temporada 2026 ha provocado la reacción de Red Bull que ha acelerado su alianza con Ford para ese mismo año.
@@ -521,13 +538,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>https://www.larazon.es/internacional/desconcertante-postura-corea-sur-invasion-rusa_202304216441d52a7adfa80001c45110.html</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Las relaciones entre Corea del Sur y Rusia empeoran vertiginosamente hasta ensombrecer la diplomacia en el noreste asiático. Moscú ha respondido mordazmente a las declaraciones del presidente Yoon Suk Yeol, según las cuales Seúl podría proporcionar ayuda militar a Ucrania si se produce una situación que la comunidad internacional no pueda tolerar. Parece evidente que Yoon ha dado un giro a su política al considerar más beneficioso responder a los llamamientos de Washington y Europa para proporcionar ayuda militar a Kyiv que mantener unas relaciones armoniosas con Rusia.
 El presidente surcoreano insinuó el martes la posibilidad de que su país proporcionara ayuda militar a Ucrania. Se trata de la primera vez que este considera abiertamente la posibilidad de cambiar su política de no suministrar armas letales a Kyiv. Sin embargo, Rusia no tardó en arremeter, advirtiendo a Seúl de que esta opción equivaldría a intervenir en la contienda. No obstante, Seúl aclaró ayer que la decisión de enviar o no soporte militar «dependerá de las acciones de Rusia».
@@ -540,13 +557,374 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/espana/cuantos-militares-componen-fuerzas-armadas-espanolas-cuantos-tienen-nuestros-vecinos_2023042064417fbf7adfa80001c3e32f.html</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Los medios materiales son fundamentales a la hora de crear un ejército eficaz y la tecnología juega un papel cada vez más importante en el ámbito militar, tal y como está quedando de manifiesto en la guerra de Ucrania, donde la diferencia entre contar o no con el armamento más moderno está resultando clave en uno y otro bando.
+Sin embargo, no podemos perder de vista que, al final, el factor humano no solo no se puede dejar de lado sino que, a pesar del pasar de los siglos y de lo mucho que ha cambiado la táctica militar, sin "pisar" el terreno es prácticamente ganar una guerra por mucha que la superioridad aérea o naval sean necesarias. Por estos motivos, ningún ejército hoy en día puede descuidar contar con unas tropas adaptadas cuantitativa y cualitativamente a las necesidades del país, al tamaño de su territorio o a sus compromisos internacionales.
+En el caso de España, el personal al servicio de la Administración Militar asciende a 139.281 efectivos (125.579 en activo y 13.702 en la reserva).
+El Ejército de Tierra cuenta con cerca de 80 000 efectivos; 22.000 la Armada y otros 22.000 el Ejército del Aire y el Espacio. Los Cuerpos Comunes de las Fuerzas Armadas son cuerpos militares que conforman cuatro ámbitos: el de Intervención, el Jurídico Militar, el de Sanidad y el de Músicas Militares, que cuentan con. 9​ 2991 efectivos. La Guardia Real tiene unos 1.500 y la La Unidad Militar de Emergencias (UME), cuya labor es intervenir en caso de grave riesgo, catástrofe, calamidad pública u otras situaciones graves, tiene 3.500 efectivos.
+De estas cifras, según los datos oficiales de las Fuerzas Armadas, 52.285 del total de personal militar pertenecen a militares de carrera en activo, de los que 47.797 son hombres y el resto mujeres, con una edad media de 43,51. A esta cifra hay que sumarle otros 14.571 en la reserva, con lo que la cifra total sería de 69.826. De los militares de carrera en activo, 28.647 están en el Ejército de Tierra; 9.567 en la Armada; 11.245 en el Ejército del Aire y el Espacio y 2.826 en cuerpos comunes.
+12.397 oficiales
+En cuanto a la graduación, de los activos hay 12.937 oficiales de los que cuatro son General de Ejército, General del Aire o Almirante General; 26 tenientes generales o almirantes; 73 generales de división o vicealmirante; 188 generales de brigada o contraalmirante; 1.040 coroneles a capitanes de navío; 3.070 tenientes generales o capitanes de fragata; 2.645 comandantes o capitanes de corbeta; 3.622 capitanes o tenientes de navío, o 2.339 tenientes o alféreces de navío, por destacar solo los puestos más destacados. Además, hay 633 efectivos en la Escala Técnica; 26.111 efectivos en la Escala de Suboficiales (suboficial mayor, subteniente, brigada, sargento primero y sargento) y 11.413 en Escala de Tropa (cabo mayor, cabo primero, cabo y soldados o marineros).
+Militares temporales
+El resto de personal serían militares con un relación de carácter temporal con las Fuerzas Armadas, que pueden ser militares de complemento o personal de tropa y marinería, que establecen su relación de servicios profesionales mediante compromisos de carácter temporal y podrían acceder a la condición de militar de carrera conforme a lo que marca la ley. Con éstos existe el llamado compromiso inicial, renovable hasta completar un máximo de seis años; también está el llamado compromiso de larga duración, hasta los 45 años de edad, al que se accede desde el compromiso inicial, y la condición de permanente, la que se podrá acceder durante la vigencia del compromiso de larga duración.
+En comparación, Polonia, con menor población que España, tiene también unos 120.000 efectivos en sus fuerzas armadas, mientras que Israel, con apenas nueve millones de habitantes, tiene unos 173.000; Italia, con 61 millones de habitantes tiene unos 170.000; Francia, con una población de 68 millones dispone de 205.000 efectivos, y Reino Unido, con una población similar a sus vecinos galos (casi 68 millones) tiene 194.000. Como dato, los países mencionados, tienen unos efectivos que representan aproximadamente el 0,3% sobre el total, excepto Israel, que alcanza el 1,9%, dadas sus especiales características con un prolongado servicio militar obligatorio y una situación geopolítica que obliga al país en estar en permanente estado de alerta.
+Alemania, el país más poblado de Europa (a excepción de Rusia), tiene 84,3 millones de personas y 184.000 militares en activo, un 0,2% del total, por debajo de sus vecinos. Llama también la atención el caso de Grecia, que con 10,5 millones de habitantes tiene 130.000 militares, lo que supone el 1,2%, lo que cuadruplica a España, Francia, Italia o Reino Unido, fundamentalmente por su tensa relación con Turquía.
+Nuestro vecino del sur, y un posible enemigo si se complicasen las cosas en Ceuta y Melilla, por ejemplo, dispone de 200.000 militares activos, un 0,5% del total de su población, de 36,7 millones de personas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/gente/tv/susanna-griso-frena-colaborador-amistad-especial-rey-juan-carlos_20230420644146d050432b000162808b.html</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>El regreso del Rey Juan Carlos I a España ha reabierto la polémica sobre el supuesto veto que las altas esferas le habrían impuesto a la hora de volver definitivamente al país en el que ejerció durante más de 40 años como jefe de Estado. Muchos aseguran que a Casa Real no le sientan nada bien sus escapadas a Sanxenxo o cualquier punto de la geografía patria, y, en este sentido, Susanna Griso ha sacado las garras por él en “Espejo público”. La presentadora expone que “me da un poco de pena en lo humano que este país no pueda encajar con normalidad que él viaje a España cuando quiera o pueda, para participar en regatas o ver a su familia”, y recuerda que el emérito “no tiene ninguna causa con la Justicia”.
+Llegados a este punto, uno de los colaboradores del programa, el doctor Fuertes, ha dejado entrever que Susanna Griso defiende al Rey Juan Carlos por la “amistad especial” que mantiene con él, un término que no ha gustado nada a la periodista: “Oye, a mí no me hables de amistad especial porque no estamos para estos términos… Cualquier otra frase… pero no esa… Especial, no… hay que aclararlo”.
+Susanna Griso Atresmedia
+Poco después, Susanna Griso ha querido aclarar qué tipo de relación mantiene con Su Majestad, recalcando que ese vínculo no interfiere en su mirada crítica de periodista: “Que yo pueda haber hablado con él y comido con él no quita que pueda ser crítica. Sí que sé que, para él, ha sido doloroso salir de este país, que él hubiese deseado quedarse aquí, que la relación con su hijo, mal que bien, se mantiene; que a través de una persona había avisado que quería venir a regatear, que se le pidió que esperase a después de las elecciones y que él entendió que las elecciones eran en mayo y que podía venir ahora, que va a seguir viviendo y que quiere en la medida de lo posible llevar una relación de cierta normalidad con sus amigos…”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/espana/quinto-entierro-primo-rivera-urna-junto-hermana-pilar_202304216441ba0450432b000163217a.html</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Los restos mortales de José Antonio Primo de Rivera serán exhumados el próximo lunes del Valle de los Caídos, donde a las 5:30 de la mañana comenzará el proceso de retirada de su ubicación actual, junto al altar mayor de la basílica, su tumba desde 1959. Con el recinto de Cuelgamuros blindado por la Guardia Civil –y cerrado a las visitas ya el fin de semana–, las 80 personas autorizadas –miembros de su propia y numerosa familia– presenciarán a las 9 de la mañana la extracción del féretro, por lo que no habrá lugar a la tensa espera «con radiales y un ruido horrible» que describieron en el mismo lugar los Martínez Bordiú-Franco la mañana del 24 de octubre de 2019. Esta vez no asistirá ningún miembro del Gobierno, ni habrá medios de comunicación. A continuación, el prior Santiago Cantera rezará un responso. La operación coincidirá con el 120 aniversario del nacimiento del fundador de Falange y el recinto cerrado al público desde el sábado. Todo en absoluta intimidad, como ha sido deseo expreso de la familia desde un principio.
+El siguiente paso será el traslado al cementerio de San Isidro –también cerrado–, donde se procederá a la reducción de los restos de Primo de Rivera en su nueva sepultura. En un lateral del camposanto más antiguo de Madrid hay tres enterramientos con miembros de su familia, donde se hallan, entre otros, Miguel Primo de Rivera y Sáenz de Heredia, ministro de Franco y hermano de José Antonio; su tío Fernando Primo de Rivera, y Pilar Primo de Rivera, su hermana, aunque en principio serían depositados en una urna junto a la fundadora de la Sección Femenina de Falange, fallecida en 1991. La caja que ha albergado su cuerpo hasta la fecha será incinerada. En ningún caso permitirá la familia que pueda caer en manos no deseadas, según ha sabido LA RAZÓN.
+La tumba de José Antonio Primo de Rivera está situada en el altar mayor de la Basílica del Valle de los Caídos larazon
+El pasado mes de octubre, los deudos de José Antonio Primo de Rivera solicitaron la exhumación para proceder al entierro «en el lugar que su familia ha decidido», según hicieron saber a través de un comunicado, adelantándose a la intención del Gobierno de que se aplicara la Ley de Memoria Democrática, que le permitía seguir en Cuelgamuros, pero no en «lugar preeminente».
+Como víctima de la Guerra Civil, la norma contempla esta opción. Ya en 2011, la «Comisión de Expertos» creada por José Luis Rodríguez Zapatero determinó que para «dignificar» y «democratizar» Cuelgamuros había que sacar el cadáver de Franco de su tumba y «reubicar» a José Antonio. «Es un paso más en la resignificación del Valle», dijo ayer el ministro de la Presidencia, Relaciones con las Cortes y Memoria Democrática, Félix Bolaños.
+Parte de la familia estaba de acuerdo en mover sus restos a una de las capillas laterales, pero quería que se pusiera una placa en la pared con el nombre de «José Antonio». El Gobierno se negó en rotundo a marcar el lugar, aunque sí admitía el cambio, que se hubiera llevado a cabo en el osario de la Virgen de la Merced, que está vacío, junto a las otras 33.847 víctimas de la contienda. Finalmente ha prevalecido el deseo de inhumarle fuera antes de que el Valle sea de hecho cementerio civil y para cumplir la voluntad manifestada en el testamento del líder falangista: «Deseo ser enterrado conforme al rito de la religión Católica, Apostólica, Romana, que profeso, en tierra bendita y bajo el amparo de la Santa Cruz».
+El Ayuntamiento de San Lorenzo de El Escorial concedió el pasado 23 de febrero la licencia urbanística para la retirada de la losa de granito y la reposición por seis baldosas de mármol Negro Marquina –con un presupuesto de 8.630 euros– junto al altar mayor de la abadía benedictina; la Guardia Civil organizó el dispositivo de seguridad y, finalmente, fueron concedidos el permiso eclesiástico y el de la Dirección General de Salud Pública de la Comunidad de Madrid. Una vez culminados los trabajos, la basílica permanecerá cerrada al público menos de una semana.
+Primo de Rivera fue fusilado por la República en la cárcel de Alicante el 20 de noviembre de 1936, y después de tres inhumaciones –en Alicante (en una fosa común en 1936 y un nicho en 1938) y el monasterio de San Lorenzo de El Escorial (1939)– sus restos se llevaron en 1959 al Valle de los Caídos, tras la inauguración del recinto que mandó construir Francisco Franco. Su tumba es la única individual que queda en el mausoleo, ya que los demás enterrados de ambos bandos de la Guerra Civil que descansan en los columbarios están en emplazamientos colectivos.
+Más allá del cumplimiento de la Ley de Memoria Democrática en este aspecto, el Gobierno reanudó en diciembre los trabajos para exhumar los restos de 106 víctimas de la Guerra Civil, también a petición de sus familias, una vez superada la paralización de las labores impuesta cautelarmente por un juzgado de Madrid. Los familiares de otras 261 se oponen y reclaman «respeto» para el «descanso» de los suyos. Y lo harán de nuevo ante la Justicia si lo consideran necesario.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/andalucia/jaen/que-provincia-espanola-interior-fue-declarada-maritima_2023042064415b257adfa80001c3ae45.html</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>El Parque Natural de las Sierras de Cazorla, Segura y Las Villas fue declarado como tal en 1986. Más tarde, en 1983, llegó el reconocimiento de UNESCO con su designación como Reserva de la Biosfera. Entre los valores de este espacio, que agrupa a 23 municipios, se encuentra su exuberante masa forestal superior a las 200.000 hectáreas. No solo eso: este macizo montañoso supone un importante reservorio de recursos hídricos, tanto superficiales como subterráneos, constituyendo la cabecera de dos importantes cuencas hidrográficas: la del Guadalquivir y la del Segura.
+Madera y agua son claves para entender lo que ocurrió en el siglo XVIII. Los bosques se convirtieron en una fuente de materia prima para la construcción de grandes edificios y, sobre todo, de barcos, constituyéndose una peculiar entidad denominada Provincia Marítima de Segura de la Sierra. El dato histórico y jurídico que avala este nombramiento se produjo con la publicación de la Ordenanza de Montes de Marina de 31 de enero de 1748. De esta forma y gracias a estos dos grandes ríos, millones de troncos han sido conducidos por sus aguas a lo largo de los siglos.
+El poderío naval español le debe mucho a este Parque Natural. Y uno de los que mejor ha estudiado este fenómeno ha sido el investigador Vicente Ruiz, que recoge en su riguroso estudio "La Provincia Marítima de Segura y la Marina de la Ilustración" todo este fenómeno. Igualmente, edificios tan conocidos como la catedral de Jaén o la actual Universidad de Sevilla, antigua Fábrica de Tabacos, se han abastecido de la madera de los árboles de las Sierras de Cazorla, Segura y las Villas.
+Esta trascendencia histórica del Parque ha motivado también la presencia de distintos modelos de ocupación humana, como queda constatado en sus 99 elementos culturales inventariados en el Sistema de Información del Patrimonio Histórico de Andalucía, de los cuales 43 están declarados como Bien de Interés Cultural (BIC). Igualmente significativo es su alta diversidad en fauna y flora: hay catalogadas 2.200 especies florísticas. En cuanto a la fauna, la zona sirve de hábitat a unas 200 especies de vertebrados.
+El ámbito de este Parque Natural, que convirtió a un "Paraíso Interior" como Jaén en provincia marítima agrupa total o parcialmente a los siguientes municipios: Beas de Segura, Benatae, Cazorla, Chilluévar, Génave, Hinojares, Hornos de Segura, Huesa, La Iruela, Iznatoraf, Orcera, Peal del Becerro, Pozo Alcón, Puerta de Segura, Quesada, Santiago Pontones, Santo Tomé, Segura de la Sierra, Siles, Sorihuela de Guadalimar, Torres de Albánchez, Villacarrillo y Villanueva del Arzobispo. Benatae, Hornos y Santiago Pontones tienen la totalidad de sus términos municipales dentro del espacio protegido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/espana/cinco-meses-respuesta-gobierno-donana_202304216441aca27f1ecd00019915cc.html</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>La fotografía que el presidente del Gobierno, Pedro Sánchez, se hizo ayer en Doñana, para cargar electoralmente contra la Junta de Andalucía y su política con el Parque Nacional, mientras en el Congreso, por cierto, el PSOE necesitaba los votos del PP para corregir la ley del «sí es sí», tiene detrás cinco meses de SOS de la Junta al Ejecutivo de Sánchez para activar una comisión técnica con urgencia que analice la situación y busque soluciones consensuadas entre las dos administraciones a los daños de la sequía. Cuatro cartas, varias reuniones de trámite y ninguna concreción desde Madrid al problema del que el líder socialista quiso ayer subrayar lo mucho que le ocupa y preocupa.
+Desde Doñana, en una intervención sin preguntas, Sánchez defendió la importancia del «tesoro» que supone Doñana, y advirtió de que «no hay excusa ninguna» para seguir adelante con la proposición de ley aprobada en el Parlamento andaluz. Esta iniciativa reordena la situación que el PSOE dejó en herencia en 2014, con centenares de familias atrapadas en un marco de alegalidad. Desde la Junta llevan semanas contestando a las críticas de la izquierda que «la iniciativa afecta a un territorio que no está en el parque, ni en el preparque, sino en la corona al norte del condado de Huelva, a 40 km de Doñana». Y que la reordenación salva, además, los acuíferos, de acuerdo con la primera ley que aprobó Sánchez en 2018 para hacer un trasvase del río Tinto y el Piedra, para llevar agua de superficie. Esta infraestructura comprometida por el Gobierno de Sánchez está aún sin hacer.
+En la zona hay más votos que agua, y a todos los partidos les aprieta el contexto electoral, pero en su declaración institucional, como presidente del Gobierno, aunque sonase más a candidato, Sánchez obvió que el 4 del pasado mes de noviembre llegó al Ministerio para la Transición Ecológica y el Reto Demográfico una primera carta de la Consejería andaluza de Sostenibilidad, Medio Ambiente y Economía Azul, en la que se planteaba a Madrid la necesidad de «alcanzar un gran pacto por Doñana, que logre fijar la hoja de ruta adecuada para afrontar los riesgos y amenazas que el cambio climático va a generar en este valioso entorno natural». En la misiva, el consejero, Ramón Fernández-Pacheco, recordaba los pronunciamientos europeos y la sentencia del Tribunal de Justicia de la UE, de 24 de junio de 2021, sobre el incumplimiento de la Directiva Marco de Aguas y de la Directiva sobre los hábitats del Reino de España, lo que hace más necesario, «si cabe, ir de la mano para afrontar el cumplimiento de la misma».
+La respuesta protocolaria llegó el 30 de noviembre, con el ofrecimiento de celebrar una reunión entre el 12 y el 19 de diciembre, que finalmente se ejecutó vía telemática el 28. Tras aquella conversación, el Ministerio se comprometió a convocar una comisión de seguimiento técnica que no se concretó. El consejero envió mensajes al secretario de Estado, llamadas…, sin consecuencias. Por eso, el 23 de febrero se enviaba otra comunicación desde Sevilla al Ministerio en la que el consejero expresaba su «profunda decepción» al no recibir comunicación alguna para la reunión acordada «en el encuentro telemático mantenido el pasado 28 de diciembre de 2022». «Casi dos meses después, a la Consejería de Sostenibilidad, Medio Ambiente y Economía Azul que dirijo no ha llegado convocatoria alguna […]. Ante la incomprensible ausencia de noticias, me siento en la obligación de recordarle su compromiso de convocar una reunión para continuar perfilando mejoras para Doñana y también para el nuevo Parque Nacional Sierra de las Nieves de Málaga, y de urgirle a convocar ese encuentro que dijo que se celebraría en semanas». Textualmente, el consejero recordó que entre los compromisos adquiridos en la reunión telemática, e incumplidos, «estaba el de la constitución de un grupo de trabajo, o comisión bilateral técnica, en el que analizar, de manera conjunta, el Marco de Actuaciones de Doñana que ha liderado su Ministerio». «En cualquier caso, le informo de que desde la Junta de Andalucía se han realizado aportaciones al Plan de Actuaciones de Doñana, presentado por el Ministerio para la Transición Ecológica, en el plazo previsto y como cualquier interesado más». La respuesta del Ministerio fue una llamada y otra convocatoria, para reiterar el compromiso a poner en marcha comisiones técnicas, que siguen sin materializarse.
+Fragmentos de alguna de las cartas enviadas desde la Junta al Ministerio y la única respuesta de este departamento del pasado 30 de Noviembre Documentos La Razón
+Los alcaldes socialistas y el PSOE andaluz mantienen este tema una posición con muchos más matices que la que enarbola el Gobierno de Sánchez. El 12 de abril, día que se aprobó la proposición de ley en el Parlamento andaluz, Sánchez proclamó: «Doñana no se toca». Pero en 2022 se autorizaron por parte del Ministerio extracciones de aguas subterráneas y se regularizaron pozos (reflejado en el Boletín Oficial de Huelva). La otra decisión fue la inversión de 335.000 euros para reformar el Palacio en el que veranean los presidentes del Gobierno.
+El 12 de abril, el presidente de la Junta, Juan Manuel Moreno, se dirigió a la vicepresidenta tercera y ministra para la Transición Ecológica, Teresa Ribera, para explicarle el contenido de la proposición de ley y subrayar por escrito que «el acuífero de Doñana no se toca ni afecta, simplemente se establece una clarificación de terrenos como agrícolas regables, siempre con agua superficial y siempre que llegue a estar disponible en el futuro». «No supone ninguna amenaza al cumplimiento de la sentencia europea». Moreno concluye proponiéndole crear una delegación entre el Ministerio y la Junta para ir a explicar la proposición de ley a la Comisión Europea.
+Pero todo sigue igual y, ayer, el consejero andaluz remitió una nueva carta al Ministerio pidiendo que convoque, «hoy mismo», «la reunión que desde hace más de cinco meses llevamos solicitando».
+[[H3:Feijóo pide al Gobierno «no manosear»
+►El presidente del PP, Alberto Núñez Feijóo, pidió ayer al jefe del Ejecutivo, Pedro Sánchez, «no manosear» el parque nacional de Doñana, mientras que se comprometió, si llega al Palacio de la Moncloa, a ejecutar por el procedimiento de emergencia todas las obras que el actual Gobierno incluyó en la Ley del Trasvase de 2018 para garantizar agua en la zona del condado de Huelva y que no se han puesto en marcha. Feijóo se refirió a la visita que Pedro Sánchez hizo ayer: «No es coherente venir en Falcon a defender Doñana cuando Doñana se defiende ejecutando las infraestructuras» que se comprometieron. En su opinión, el presidente decidió visitar el parque para no tener que votar en el Congreso de los Diputados la reforma de la Ley del «sólo sí es sí». “Estoy de acuerdo con que Doñana no se toca”, sentenció el presidente del PP, quien pidió a Sánchez y sus ministros que dejen de “manosear” Doñana para echar “la culpa a los andaluces del problema del agua en España”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/sociedad/agua-que-esquilma-matalascanas-alerta-union-europea_202304216441d2f289b71c00016f8ec3.html</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>El Gobierno de España ha trazado una estrategia electoral para deteriorar a la Junta de Andalucía y la imagen de la figura más sólida en la actualidad del Partido Popular, Juanma Moreno. Para ello no le importa criminalizar al agricultor onubense, al que responsabiliza en exclusiva de secar el acuífero de Doñana. El argumentario ideado por responsables políticos socialistas está repleto de falsedades y titulares alarmantes destinados a confundir a la ciudadanía. Mensajes fraguados en la Comisión Europea por integrantes de la propia formación socialista como el hijo de Luis Planas –asesor de la directora general de Medio Ambiente, Florika Fink-Hooijer–, encuentros programados con responsables de la UE a los que solo falta pedir que sancionen a España para sacar tajada política y, ayer mismo, la visita del propio Pedro Sánchez al Parque Nacional para señalar unidireccionalmente al sector de los frutos rojos. «La multa la vamos a tener que pagar todos los españoles», dijo.
+Todo el discurso está construido en una mentira. La regularización del territorio no significa dar vía libre a que los dueños de 800 hectáreas usen el agua del acuífero de Doñana. Todo lo contrario. La proposición de ley que PP y Vox respaldan en el Parlamento andaluz supone «el inicio incluso del fin de la extracción de agua subterránea legal, sustituida por superficial», como afirma Julio Díaz, portavoz de la Plataforma en Defensa de los Regadíos del Condado. Esto quiere decir que el recurso hídrico utilizable llegaría de las infraestructuras que el propio Gobierno socialista se comprometió a ejecutar en 2018 y que hoy, cinco años después, son solo proyectos metidos en un cajón. Mientras tanto, sin estas obras, nada cambiaría porque la Confederación Hidrográfica del Guadalquivir mantiene cerrado el grifo por la sequía que padece el territorio.
+El cumplimiento de la ley del trasvase supone la transferencia de 19,99 hectómetros cúbicos anuales desde la Demarcación Hidrográfica de los ríos Tinto, Odiel y Piedras a la Demarcación Hidrográfica del Guadalquivir. Y un detalle para nada menor: ese trasvase permitiría que la playa de Matalascañas dejase de utilizar el agua de los acuíferos. Se calcula que el macrocomplejo turístico, cuya población en verano llega a superar los 160.000 habitantes, consume 2,75 hm3 al año y 2,2 de ellos salen de uno de estos acuíferos del Parque Nacional. Los recursos hídricos que requerirían las 800 hectáreas que el Gobierno andaluz pretende regularizar ascienden a 3,5 hm3 como máximo, con un matiz importante: sería agua en superficie en su totalidad y nada extraída del acuífero.
+La playa de Matalascañas pertenece al término municipal de Almonte (25.000 habitantes según el censo de 2022), feudo histórico del PSOE-A que ahora gobierna en coalición con el grupo independiente «Mesa de Convergencia». Es un pueblo rico –en el contexto andaluz– que disfruta del turismo de playa, del acontecimiento mundial que supone la romería de El Rocío y, por supuesto, de la inyección que reportan las explotaciones de frutos rojos en el mismo cogollo de Doñana, frente a otros municipios de la Corona Norte que se hallan incluso a 30 o 40 kilómetros de la zona de protección del parque a los que pertenecen el grueso de los agricultores injustamente excluidos en 2014.
+Durante décadas, ni gobiernos socialistas de la Junta ni del propio Ayuntamiento han hecho nada para atender las advertencias de los grupos ecologistas sobre la sobreexplotación de los acuíferos por parte de Matalascañas.
+También es mentira que el Gobierno no haya concedido más concesiones. «En febrero de 2020 le dieron a un puñado de agricultores agua del acuífero y luego, el 24 de agosto, lo declararon sobreexplotado a sabiendas para que se salieran de la plataforma. A partir de ahí es cuando dice que no hay agua para todos y que se está engañando a la gente», recuerda el portavoz de la plataforma.
+El Gobierno de Pedro Sánchez se niega a constituir la comisión técnica del trasvase. De hecho, la plataforma recuerda que otra opción es reutilizar los «40 hm3 ociosos en las depuradoras del entorno», aguas regeneradas que se puedan incluir en el sistema de riego. «Hay alternativas al agua del acuífero», dicen los agricultores, que insisten en que la Ley estipula que no se ampliarán los regadíos sino que se evaluarán uno a uno los casos de las explotaciones que se quedaron en 2014 fuera «por un error» (quieren pensar).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/espana/jose-antonio-primo-rivera-sera-exhumado-lunes-valle-caidos_20230420644147cbfc273000014ededc.html</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Los restos mortales de José Antonio Primo de Rivera serán exhumados el próximo lunes del Valle de los Caídos. Es una decisión tomada hace solo unos días por los miembros de su familia, que en las últimas semanas habían discutido si permanecía en una cripta de Cuelgamuros o era inhumado fuera, como así sucederá, en el madrileño cementerio de San Isidro, según ha sabido LA RAZÓN.
+La operación se llevará a cabo en la mañana del lunes, coincidiendo con la fecha del nacimiento del fundador de la Falange y el recinto del Valle de los Caídos cerrado al público. Todo en la más absoluta intimidad, como ha sido el deseo expresado siempre por la familia.
+El pasado mes de octubre, los Primo de Rivera solicitaron la exhumación de los restos mortales de José Antonio para proceder al entierro “en el lugar que su familia ha decidido”, según un comunicado remitido a los medios, adelantándose a la intención del Gobierno de que se llevara a cabo el traslado según la normativa de la recién aprobada Ley de Memoria Democrática, que le permitía seguir en Cuelgamuros, aunque no en un "lugar preeminente".
+Como víctima de la Guerra Civil, la Ley de Memoria Democrática (LMD) contempla esta opción. Ya en 2011, la «Comisión de Expertos» creada por José Luis Rodríguez Zapatero determinó que para «dignificar» y «democratizar» la basílica católica había que sacar el cadáver de Franco de su tumba –cosa que se hizo el 24 de octubre de 2019– y «reubicar» dentro del templo los restos mortales de José Antonio.
+Con la exhumación, los Primo de Rivera quieren cumplir “la voluntad manifestada en su testamento” por José Antonio Primo de Rivera, en cuya cláusula primera establece: “Deseo ser enterrado conforme al rito de la Religión Católica, Apostólica, Romana que profeso, en tierra bendita y bajo el amparo de la Santa Cruz.” Dado que el artículo 54.3 de la citada Ley de Memoria Democrática establece que “las criptas adyacentes a la Basílica y los enterramientos existentes en la misma tienen el carácter de cementerio civil”, la familia “se considera obligada a cumplir la voluntad de nuestro tío y llevar a cabo la exhumación y correspondiente inhumación de sus restos mortales en un cementerio sagrado de acuerdo con el rito católico”.
+El lugar elegido sería el Sacramental de San Isidro, el camposanto más antiguo de Madrid, en una sepultura junto a Pilar Primo de Rivera, hermana del líder falangista, y otros miembros de la familia.
+Hasta este momento, todo ha seguido el plan previsto. El Ayuntamiento de San Lorenzo de El Escorial concedió el pasado 23 de febrero la licencia urbanística para la retirada de la losa de granito y la reposición por seis baldosas de mármol Negro Marquina –con un presupuesto de 8.630 euros– junto al Altar Mayor; la Guardia Civil se ha reunido para preparar el dispositivo de seguridad; han visitado el lugar técnicos de Patrimonio Nacional y también personal de la funeraria encargada del proceso. Todo en paralelo a las grandes medidas de protección dispuestas desde hace meses en el complejo ante las obras previstas para las exhumaciones que han pedido 106 familias, a las que se opone la Asociación para la Defensa del Valle de los Caídos (ADVC), que representa los intereses de otras 218 que piden «respeto» para el «descanso» de los suyos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/espana/estrategia-pablo-iglesias-desgastar-yolanda-diaz-funciona-segun-cis_202304216441d3eafc273000014f9f4a.html</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>El último barómetro del Centro de Investigaciones Sociológicas (CIS) llegó con pocas sorpresas ayer. Y es que pese a la denuncia de Podemos contra el presidente del instituto demoscópico, José Félix Tezanos, al que acusó de «cocinar» los datos, la formación morada sigue en caída libre, más si cabe tras la reciente puesta de largo de Yolanda Díaz al frente de Sumar.
+La irrupción de Sumar, lejos de tender puentes entre los principales actores de izquierda, ha tensado la situación entre los de Ione Belarra y los de Yolanda Díaz. Los datos, a día de hoy, impulsan a la vicepresidenta a ocho meses de las elecciones generales, mientras que arrinconan a Podemos. Si las encuestas siguen a favor de Díaz, una ruptura entre ambas partes podría sobrevolar como opción en algunos sectores si no llegan a un acuerdo antes. Los de Yolanda Díaz obtendrían, según barómetro, el 10, 6% de los apoyos y se alzarían con la cuarta plaza política, muy por delante de Podemos, que se queda en quinto lugar y bastante lejos de Sumar, con el 6,7%.
+En las «tripas» del CIS, los datos acaban confirmando que la estrategia de Pablo Iglesias de desgastar a Díaz con sus continuos ataques, es en vano, es decir que no funciona. El ex secretario general comenzó el pasado mes de octubre desplegando su maquinaria política contra la vicepresidenta. En la «uni de otoño» de Podemos, la exigió «respetar» a los morados, cuando todavía no habían comenzado las conversaciones para la configuración de la confluencia de izquierdas y poco después acabó insultándola por no defender a Irene Montero en la crisis por el «solo sí es sí». Durante este tiempo la ha ido acechando sin pausa, acusándola incluso de no buscar la unidad en la izquierda y de parecerse más a Más País que a Podemos, entre otras arremetidas. Según los datos cruzados por variables políticas del mes de octubre, entre un 48,1 y un 52,3% de los votantes de Unidas Podemos apostaban por la vicepresidenta Yolanda Díaz cuando se les preguntaba por quién prefería como presidente del Gobierno. Un dato que prácticamente no ha variado en el último barómetro, pues ahora los votantes de Unidas Podemos siguen confiando en ella, con casi el mismo porcentaje, entre un 49,3 y un 55,6. Es decir, la vicepresidenta no ha salido, de momento, desgastada en la batalla entre Podemos y Sumar por el poder en la izquierda. Los votantes de Unidas Podemos siguen apoyando a la vicepresidenta, a pesar de los ataques del exlíder. La tensión entre ambos espacios ha escalado en la última semana, sobre todo tras la entrevista de Díaz en La Sexta, donde cargaba duramente contra el exvicepresidente, lo cuál tenía su consecuente respuesta en el partido morado. Otro dato, el liderazgo de la también ministra ha crecido incluso, cosechando mejores resultados entre votantes de otros partidos. En ese mes de octubre, solo un 7,3 del electorado socialista señalaba a la vicepresidenta como futura presidenta. En el actual, un 14,5% ya muestra su afinidad.
+En medio de la guerra entre Podemos y Sumar, hay más datos a analizar. Díaz gana a los morados en casi todas las horquillas de edad. A partir de los 45 años, la vicepresidenta logra los mejores resultados, duplicando los del partido morado. En la primera franja, Sumar se queda con el 10,3%, mientras que Podemos se queda en el 4,7. Entre los colectivos más jóvenes también gana la nueva formación, aunque la diferencia es menos notoria.
+Díaz sigue siendo, además, la líder política mejor valorada por los españoles. Si bien no aprueba, logra un 4,87. Por detrás se encuentra Pedro Sánchez, con un 4,43. El líder del PP, Alberto Núñez Feijóo, y el de Más País, Íñigo Errejón, se colocan a la par con 4,07 y 4,03 puntos, respectivamente. Y ya muy por detrás se sitúan la presidenta de Ciudadanos, Inés Arrimadas (3,39), y el de Vox, Santiago Abascal (2,73).</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/espana/nueva-reprimenda-carmen-calvo-estupideces-podemos-feminismo_2023042064417c4e7adfa80001c3deca.html</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>La exvicepresidenta del Gobierno y actual diputada del PSOE Carmen Calvo ha vuelto a salir a reprender a Podemos a cuenta del feminismo. En esta ocasión ha sido poco después de que la reforma de la ley de Libertad Sexual (conocida como "sí es sí") haya salido adelante con el apoyo del PSOE y el rechazo de Podemos en el Congreso de los Diputados. En un tuit, Calvo ha reprochado las "estupideces dichas en nombre del feminismo" por parte de la formación morada, aunque sin citar explícitamente a los de Ione Belarra e Irene Montero.
+"El Feminismo que tiene los pies en la tierra y se duele con el dolor de las mujeres, hoy desde los escaños socialistas, rectifica y está en el lugar que tiene que estar. Donde se protege la libertad sexual de las mujeres. El antifeminismo es no verlo", ha señalado. "Solo sí es sí y más con la reforma aprobada hoy. A pesar de tantas estupideces dichas en nombre del Feminismo, sobre todo por parte de las que no estuvieron nunca y ahora pretenden hacerlo falsamente suyo", ha agregado a través de las redes sociales.
+Calvo ha mantenido siempre una postura muy crítica con el Ministerio de Igualdad de Montero y han tenido más de un choque a lo largo de toda la legislatura. De hecho, la exvicepresidenta llegó a desvelar que tanto ella como el anterior ministro de Justicia Juan Carlos Campo hicieron observaciones en el Consejo de Ministros alertando de que el "sí es sí" podía dejar en la calle a violadores, tal y como ha acabado ocurriendo. Montero ignoró las advertencias y Calvo y Campo aceptaron el proyecto de ley impulsado por Igualdad como gesto de respeto.
+También la exvicepresidenta fue crítica con la Ley Trans, impulsada también por el ministerio de Igualdad y que permite la autodeterminación de género a partir de los 14 años y sin ningún tipo de autorización desde los 16 años. En ese caso, la exvicepresidenta, al no compartir el texto legal, en la votación de la ley en el Congreso rompió la disciplina de voto y se abstuvo, en lugar de votar a favor, tal y como hizo el PSOE.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/madrid/aznar-rajoy-unen-campana-ayuso-mitines-alcala-alcobendas-san-sebastian-reyes_20230421644267f6fc273000015074f3.html</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Las elecciones del 28-M son una cita clave para el PP, convencido de que una mayoría absoluta para Díaz Ayuso, como vaticinan las encuestas, es decisiva para continuar con el principio del cambio que ya visualizan los populares en su camino hacia las generales.
+Ya es habitual que los expresidentes colaboren en la campaña del partido y, esta vez, está previsto que la presidenta autonómica y candidata popular a la Comunidad de Madrid tire de los dos expresidentes del Gobierno de España y del Partido Popular, José María Aznar y Mariano Rajoy, que la acompañarán en su campaña.
+Sus intervenciones tendrán lugar en dos actos de campaña en municipios de la Comunidad de Madrid en el mes de mayo, según ha confirmado el partido. Así, está previsto que el expresidente Mariano Rajoy ofrezca un mitin junto a la presidenta regional el 20 de mayo en la localidad de Alcalá de Henares.
+Por otro lado, el exmandatario José María Aznar, participará el 22 de mayo, junto a Isabel Díaz Ayuso, en un acto organizado en una zona ubicada entre los municipios de Alcobendas y San Sebastián de los Reyes. Además, está previsto que el actual presidente del PP nacional, Alberto Núñez Feijóo participe en el acto de clausura de la campaña.
+No es la primera vez que José María Aznar interviene en un acto con Isabel Díaz Ayuso. El pasado mes de marzo, el expresidente intervino con Ayuso en un foro en el Círculo de Bellas del Instituto de Estudios Atlánticos en el que se sentía identificado con las medidas aplicadas por la presidenta regional. «Su trabajo y su ayuda son indispensables para que el cambio que deseamos en España se produzca y Alberto Nuñez Feijóo sea un buen presidente del Gobierno de España», llegó a decir. Aznar también invitó a la presidenta regional a una sesión de su Aula de Liderazgo en 2020, cuando se producía la desescalada del coronavirus. Todo fueron alabanzas para la gestión de la candidata popular. «No sabes lo que te envidio porque los hijos de Chávez te insulten todos los días», llegó a decir entonces.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/madrid/edil-podemos-mostoles-aparta-lista-municipal-escandalo-caso-itv_20230421644249497f1ecd000199e58d.html</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>La edil de Podemos Móstoles Nati Gómez, actual concejal de Educación y Juventud en Móstoles y una de las investigadas en el llamado 'Caso ITV', ha decidido no ir en las listas de la candidatura conjunta de Podemos-IU para las elecciones municipales del 28 de mayo.
+Gómez, junto a la alcaldesa Noelia Posse (PSOE) y otros seis concejales socialistas, formaba parte de la Junta de Gobierno Local que aprobó la condonación de una deuda a la empresa ITV Móstoles S.L., causa que en un principio se archivó pero que la Audiencia Provincial ha ordenado reabrir hace unas semanas.
+De esta manera, la edil de Podemos, que en las primarias celebradas hace unas semanas había sido elegida como 'número dos' de la lista, ha optado por apartarse de la candidatura por "responsabilidad política", han confirmado a Efe fuentes de la formación.
+En una carta remitida a sus compañeros de Podemos, Gómez asegura que aunque está convencida de que la Justicia le acabará dando la razón, es "consciente" de que los procesos judiciales "tienen unos tiempos que, en ocasiones, entran en contradicción con los plazos electorales".
+"Primero el proyecto y no las personas", ha añadido en su misiva, en la que insiste en que da un paso al lado "orgullosa del gran trabajo" realizado al frente de la Concejalía de Educación y Juventud, donde "se ha demostrado lo que hacemos en Podemos cuando gobernamos".
+La renuncia de Gómez se produce además día después de que Podemos e Izquierda Unida alcanzaran un acuerdo 'in extremis' para concurrir juntos a las elecciones municipales en Móstoles, después de que hace unas semanas rompieran las negociaciones que mantenían para ello desde hace meses.
+Izquierda Unida citaba la situación judicial de la entonces 'número dos' de Podemos y edil de Educación y Juventud, Nati Gómez, como uno de los motivos que habían impedido llevar a término la negociación, aunque finalmente logró salir adelante y ambas formaciones concurrirán juntas el 28M.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/internacional/aparatoso-accidente-tanque-leopard-pilotos-ucranianos-polonia-chocar-otro-carro_202304216442427250432b000163c9d2.html</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>El Comando General de las Ramas de las Fuerzas Armadas de Polonia ha ofrecido detalles del aparatoso incidente en el que se vieron envueltos dos ¿Qué impacto tendrán los tanques alemanes Leopard 2 en la contraofensiva de Ucrania? durante unos ejercicios de entrenamiento con pilotos ucranianos en el campo militar de Świętoszów. Al parecer, los dos carros de combate chocaron y uno de ellos estuvo a punto de perder la torreta, tal y como se observa en las fotos publicadas en las redes sociales.
+El accidente entre dos Leopard 2A4 se produjo el 14 de abril en el centro de entrenamiento de la 10ª Brigada de Caballería Blindada de Polonia. A partir de las fotos disponibles, analistas militares que como consecuencia de la colisión, la parte trasera del casco de uno de los tanques se estrelló contra la parte delantera del segundo carro, al que golpeó con fuerza en la torreta. Como consecuencia de la colisión, la pesada torreta de uno de los carros se desencajó casi por completo del anillo giratorio del casco del vehículo.
+Las autoridades polacas aseguraron que ninguno de los pilotos ucranianos que iban dentro de los tanques resultó herido.
+El medio Defense 24 asegura que el tanque se encuentra actualmente bajo un proceso de reparación, y será objeto de inspección, verificación y evaluación. Es muy probable -dicen los expertos del citado medio- que el vehículo sea reacondicionado y entre de nuevo en servicio para convertirse posiblemente en un Leopard modernizado 2PL.
+La difusión de estas imágenes en internet hacen temer tanto a las autoridades polacas como ucranianas que serán utilizadas por Rusia para hacer propaganda contra la calidad de los tanques de fabricación alemana Leopard y contra la impericia de los soldados ucranianos.
+Los accidentes durante entrenamientos con vehículos de combate no son raros. En esta ocasión se podría haber producido debido a la inusual rapidez de los plazos de adiestramiento de los soldados ucranianos para que puedan utilizar cuanto antes los Leopard contra los rusos en el campo de batalla. Incluso entre ejércitos profesionales se producen de vez en cuando este tipo de accidentes. A principios de años, dos vehículos de combate de infantería Puma IFV chocaron en el campo de pruebas de Sajonia-Anhalt, Alemania, en un incidente que se saldó con doce soldados heridos, dos de ellos de gravedad.
+Según el Ministerio de Defensa de Polonia, los tanques que sufrieron la colisión fueron entregados a Ucrania en marzo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/internacional/prigozhin-exige-enjuiciar-exmercenarios-que-denunciaron-crimenes-wagner_202304216441b9ddfc273000014f82a1.html</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>El jefe del grupo de mercenarios rusos Wagner, Yevgueni Prigozhin, exigió hoy a la Justicia rusa abrir causas penales contra dos exmercenarios que le acusaron a él y a esta fuerza paramilitar de asesinar civiles en Ucrania.
+"La Liga de Defensa de los intereses de los veteranos de guerra (...) presentó una demanda para incoar causas penales en contra de Azamat Uldarov y Alexéi Savichev" por difamar al Ejército ruso, afirmó en su canal de Telegram.
+Además, la organización creada por Prigozhin llamó a abrir una causa penal "por chantaje" en contra de Vladímir Osechkin, el exiliado fundador de Gulagu.net, una ONG que defiende los derechos de los presos rusos.
+El jefe de Wagner calificó a los dos exmercenarios como personas "en estado de profunda embriaguez".
+Según Prigozhin, ambos ingresaron en Wagner procedentes de prisiones rusas, donde habían sido "sometidos", en referencia a humillaciones de carácter sexual que los hubieran lanzado al fondo de la jerarquía penitenciaria de haber sido públicas.
+"Dieron una entrevista al recurso extranjero enemigo Gulagu.net, al que soltaron un montón de delirios paranoicos. Ninguna de sus declaraciones tiene nada en común con la realidad. Es un disparate y un invento total", afirmó.
+El escándalo en torno a Wagner se desató a principios de semana, cuando Osechkin publicó en el canal de YouTube de Gulagu.net una entrevista a los dos exwagneritas, en la que estos afirmaban haber participado en asesinatos masivos de civiles, entre ellos menores de edad, en las ciudades ucranianas Bajmut y Soledar.
+Posteriormente, los dos exmercenarios declararon que habían sido obligados y la víspera uno de ellos volvió a dar una entrevista a Osechkin, en la que aseguró haber sido objeto de amenazas de muerte por parte de Wagner.
+Prigozhin, por su parte, insistió en acusar al fundador de Gulagu.net, actualmente exiliado, de estar vinculado a un grupo "que podría estar integrado por empleados de las penitenciarías rusas, que recopila materiales comprometedores contra personas que cumplen penas, para posteriormente obligarlos a cometer acciones ilegales".
+Según Prigózhin, durante su condena Uldárov fue "violado por un grupo de personas", un material que fue publicado posteriormente por Gulagu.net.
+"Uldarov ocultaba a toda costa este hecho, considerado una violación total de la ética carcelaria y que es castigado con la muerte en el ambiente penal", indicó el jefe de Wagner, quien también señaló que Sávichev fue a su vez violado en la cárcel "Beli Lébed" (Cisne Blanco), hecho que también buscaba ocultar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/internacional/caza-ruso-su34-averiado-desploma-ciudad-ruso-deja-varios-heridos_20230421644225bafc273000015001fe.html</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Un nuevo percance de la aviación rusa ha conmocionado a los habitantes de la ciudad rusa de Belgorod, donde munición de un avión de guerra Su-34 se precipitó por error por la noche debido a un fallo durante el vuelo provocando una fuerte explosión en la citada localidad, cerca de la frontera con Ucrania, que se ha saldado con al menos dos personas heridas y un cráter de unos veinte metros en la calzada.
+Según la prensa local se escuchó un silbido unos segundos antes de la explosión. Otros testigos citados aseguraron que primero hubo una explosión y una sacudida, luego un resplandor finalmente una fuerte explosión.
+En una grabación de una de las cámaras se puede escuchar un sonido muy fuerte, que suena como un avión volando a baja altura. Unos 15 segundos después, primero se escucha una explosión más pequeña, seguida inmediatamente por una segunda más poderosa.
+Pese a que en un principio se dijo que fue un ataque de las tropas ucranianas, la fuerza militar rusa reconoció que fue un fallo del aparato ruso. "El 20 de abril de 2023, alrededor de las 22:15 hora de Moscú, durante el vuelo del avión Su-34 de las Fuerzas Aeroespaciales sobre la ciudad de Belgorod, se produjo un descenso anormal de municiones de aviación", ha explicado el Ministerio de Defensa ruso.
+La cartera ministerial, que ha indicado que hay daños en edificios residenciales pero sin notificar víctimas, ha señalado que ya hay una investigación en marcha.
+Por su parte, el gobernador de Belgorod, Vyacheslav Gladkov, ha explicado que la explosión ha dejado un agujero con un radio de 20 metros en una calle principal de la ciudad y ha dañado cuatro apartamentos de un edificio y cuatro vehículos.
+Gladkov, a su vez, ha indicado que según los datos preliminares hay dos heridos, una de ellas ha sido trasladada al hospital en estado grave, mientras que la segunda persona ha recibido atención médica en el lugar del incidente, informa Europa Press.
+Los edificios residenciales y los automóviles cercanos resultaron dañados. Presuntamente se encontraron fragmentos de bala en uno de los apartamentos. Los residentes de la casa fueron evacuados. Además, uno de los autos como resultado de la onda expansiva iba a ser arrojado al techo de la tienda.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/internacional/china-advierte-cualquiera-que-juegue-fuego-taiwan-puede-quemarse_202304216442523efc27300001504dff.html</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>El ministro de Exteriores de China, Qin Gang, ha recalcado este viernes que "ambos lados del estrecho de Taiwán pertenecen a China" y ha tildado de "absurdas" las críticas contra Pekín por "defender su soberanía nacional", al tiempo que ha advertido de que este tipo de pronunciamientos pueden derivar en "consecuencias peligrosas".
+"Hemos escuchado a menudo declaraciones extrañas que apuntan a que China 'desafía el orden internacional basado en normas', 'intenta cambiar unilateralmente el 'statu quo' en el estrecho de Taiwán por la fuerza o la coacción' y 'socava la paz y la estabilidad en el estrecho de Taiwán'. Estas declaraciones violan el sentido común y la justicia histórica. Su lógica es absurda y sus consecuencias son peligrosas", ha dicho.
+"Queremos decir a las fuerzas que usan la bandera del orden internacional y socavan la justicia internacional que el asunto de Taiwán está en el centro de los principales intereses de China y somos absolutamente claros ante cualquiera que quiera discutir el principio de 'una sola china'. No daremos marcha atrás si entramos en acción. Cualquiera que juegue con fuego en el asunto de Taiwán puede quemarse", ha advertido.
+Así, ha destacado que "Taiwán ha sido parte inalienable del territorio chino desde tiempos antiguos" y que "ambos lados del estrecho de Taiwán pertenecen a China". "Esa es la historia de Taiwán y su situación actual. El retorno de Taiwán a China es parte integral del orden internacional tras la Segunda Guerra Mundial y está negro sobre blanco en la Declaración de El Cairo y claramente impreso en la Proclamación de Postdam", ha argumentado.
+"No es China la que socava las normas internacionales, cambia unilateralmente el 'statu quo' y socava la estabilidad en el estrecho de Taiwán, sino que son las fuerzas separatistas por la independencia de Taiwán y los pocos países que intentan usar la independencia de Taiwán los que lo hacen", ha manifestado Qin, según un comunicado publicado por el Ministerio de Exteriores chino a través de su página web.
+Por último, ha aseverado que estas fuerzas buscan "subvertir el orden posterior a la Segunda Guerra Mundial y pisotear la soberanía de China". "Los 1.400 millones de chinos no están de acuerdo. Una vez el territorio de China sea recuperado, no volverá a ser perdido", ha manifestado, antes de insistir en que "salvaguardar la soberanía nacional y la integridad territorial está justificado".</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/tecnologia/francia-demuestra-poderio-militar-lanzamiento-submarino-nuclear-misil-balistico-capacidad-atomica_20230420644134cc7f1ecd0001986787.html</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>El Ministerio de Defensa francés ha anunciado el lanzamiento ayer, desde el submarino nuclear "Le Terrible", de un misil balístico estratégico capaz de llevar armamento nuclear, aunque en este caso sin carga. El misil, un M51, sirvió para validar la capacidad operativa del sistema de armas disuasorias del SSBN "Le Terrible" de cara a su inminente regreso al ciclo operativo. "Es también una demostración de la credibilidad y excelencia de nuestra base industrial y tecnológica de defensa", dijo el ministro, Sébastien Lecornu.
+El ensayo, sin carga militar, es el decimoprimero de este tipo de cohetes y "materializa la credibilidad y la robustez de nuestra disuasión nuclear", añadió.
+El M51, un misil que puede llevar hasta diez ojivas, equipa a la flota de submarinos estratégicos franceses.
+El M51 es un misil balístico francés desarrollado para ser lanzado desde plataformas marítimas capaz de llevar varias cabezas termonucleares. Entró en servicio por primera vez hace casi 13 años, en 2010. El desarrollador y fabricante del cohete es Ariane Group, que es una empresa conjunta entre Airbus y Safran. Tiene 12 metros de altura y un diámetro de 2,3 metros. La ojiva estándar es equivalente a 6 a 10 TN 75 MIRV 110 kilotones [kt] [420 TJ], con ayudas de penetración. En 2015, sin embargo, Francia desarrolló otra ojiva para el mismo misil, que utiliza el nuevo Tête nucléaire océanique 100 kt / CEP 150–200 m.
+El misil balístico intercontinental está propulsado por un motor cohete de combustible sólido de tres etapas. La velocidad máxima de vuelo es Mach 2,5 y es capaz de alcanzar un objetivo entre 8.000 km y 10.000 km de distancia. El sistema de guía es una guía astro-inercial, pero París planea desarrollar una versión con un sistema de guía Galileo. Francia es el único operador de este misil.
+En cuanto al submarino "Le Terrible" (S619) es de la clase Triomphant, tiene 138 metros de eslora, 12,5 de manga y un peso de 14.200 toneladas bajo el agua. Puede hacer inmersión de hasta 300 metros. Lanzó por primera vez un M51 el 27 de enero de 2010. Puede viajar a una velocidad máxima de más de 25 nudos (46 km/h).
+El sumergible tiene un sistema integrado de guerra electrónica y señuelos. Puede transportar 16 misiles balísticos nucleares M45 o M51. Tiene capacidad de ataque antibuque a través de cuatro tubos de 533 mm para torpedos F17. El submarino también está armado con el misil de crucero antibuque Exocet SM39.
+Para mantener la disponibilidad requerida, los SSBN están tripulados por dos tripulaciones, identificadas por colores, azul y rojo, compuestas por 110 hombres cada una. Mientras que los SSBN alternan períodos de mantenimiento y capacitación, patrullajes y permisos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/economia/podria-espana-vender-canada-12-submarinos-como-s81-isaac-peral-navantia-posiciona-contrato-historico_20230421644269a7fc273000015078b1.html</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>La pasada semana se sabía que la "pacífica" Canadá ha decidido reemplazar los cuatro submarinos de fabricación británica que adquirió en 1999 y estaría barajando aumentar su flota con hasta 12 sumergibles nuevos a un costo de al menos 60.000 millones de dólares, una cifra que podría llegar a los 100.000 millones.
+Los sumergibles ingleses que prestaban servicio eran antiguos y, para muchas situaciones, prácticamente inservibles. De hecho, Reino Unido se los vendió por 750 millones de dólares después de que fueran rechazados por Pakistán, Portugal y Chile. Tan mal estaban que han pasado más tiempo en dique seco que en el agua. Ottawa se ha visto obligada a invertir miles de millones de dólares en la flota durante más de dos décadas para abordar varios problemas e incidentes, como incendios y soldaduras defectuosas. También ocurrieron varios accidentes durante operaciones militares y pruebas en el mar.
+Ya en el año 1987, el Libro Blanco sobre Defensa del Gobierno canadiense recomendaban la compra de 12 submarinos de propulsión nuclear capaces de navegar bajo el hielo y defender su soberanía en la región ártica. Sin embargo, la propuesta fue abandonada debido a una importante oposición tanto de la opinión pública como de los medios comunicación, pues rechazaban la opción nuclear y el enorme gasto que supondría.
+Ahora, cansados de gastar dinero en reparar, mantener y tratar de modernizar sus viejos submarinos, habría vuelto a tomar cuerpo la idea de comprar 12 nuevos pero no de propulsión nuclear, sino convencionales. El objetivo es contribuir a las "operaciones de alto nivel de la OTAN", argumentaba un informe del Gobierno de 2017, que abogaba por implementar un procedimiento de adquisición similar al de Australia, que acababa de seleccionar a Naval Group para proporcionar a la Royal Australian Navy 12 Shortfin Barracuda, con transferencias industriales y tecnológicas a la llave.
+La Royal Canadian Navy tiene la intención de aprovechar la revisión en curso de la política de defensa de Canadá para al menos reemplazar sus cuatro submarinos de clase Victoria en un momento en que China está invirtiendo fuertemente en sus capacidades submarinas, así como Rusia, cuyos sumergibles vienen realizando cada vez más patrullas en el Atlántico Norte y el Océano Ártico.
+En julio de 2021, el gobierno canadiense también inició un incipiente programa llamado "Proyecto de submarino de patrulla canadiense" (CPSP, por sus siglas en inglés), para analizar las opciones disponibles y determinar sus necesidades específicas a fondo. La Marina insta al Gobierno a incluir la adquisición de submarinos en su política de defensa revisada. En una conferencia de defensa en Ottawa el mes pasado, el Jefe del Estado Mayor de Defensa, el General Wayne Eyre, declaró que defendería los submarinos en nombre de la Armada.
+Aunque se barajó la posibilidad de desarrollar estos buques con tecnología propia, implementar tal estrategia podría tomar hasta quince años y la decisión de lanzar dicho programa debe tomarse lo más rápido posible.
+Es en este punto donde entraría en escena Navantia, pues los submarinos de la clase S-80 que está construyendo para la Armada encajarían perfectamente con los deseos de Canadá. Un informe reciente realizado por el Instituto Español de Estudios Estratégicos (IEEE) analizaba la situación de este mercado y llegaba a la conclusión de que solo siete empresas en todo el mundo tenía posibilidades de ofertar submarinos convencionales. Mediante un proceso de evaluación multicriterio, comparaba el sumergible español con el resto y llegaba a la conclusión de que "las características del S-80, la colaboración de Navantia con Electric Boat y el empleo de los sistemas más modernos en el S-80 hacen de él un buen candidato para la exportación. Navantia ha hecho los deberes, tiene posibilidades de volver con fuerza a este exclusivo mercado. Pero no nos engañemos, no se deben confiar. La venta de armamento muchas veces está ligada a la política y sus competidores harán lo imposible por llevarse los contratos".
+Los mimbres que se utilizan en el diseño del S-80, dice este informe, son los mismos que se han empleado en muchos submarinos nucleares franceses, británicos y norteamericanos. Las capacidades del S-80, el novedoso sistema AIP y el cuidado de la firma acústica, han hecho de él un buen producto, pero hace falta que termine todas las pruebas y entre en servicio para que sea una realidad y no solo un proyecto.
+Los principales competidores de Navantia serían la alemana Thyssen Krupp Marine Systems GmbH (TKMS), que ha vendido sus submarinos a las armadas de 13 países. Las otras seis empresas son la francesa Naval Group —antigua DCNS—, la rusa Rubin Central Design Bureau for Marine Engineering de San Petersburgo, la china State Shipbuilding Corporation de Jiangnan, el consorcio japonés Mitsubishi y Kawasaki Heavy Industries, la sueca Saab-Kockums, y, por último, la española Navantia con sus astilleros de Cartagena.
+De estos siete fabricantes, habría que descartar a las empresas rusa y china, por razones obvias, con lo que España tendrá que competir con la clase Souryu japonesa, que no ha conseguido aún venderla a ningún cliente; el A-26 sueco, cuya primera unidad será entregada en 2027 a la Armada sueca, con lo cual juega con desventaja respecto a Navantia, cuyo primer sumergible, el S-81 Isaac Peral entrará en servicio este mismo año; y luego están los franceses Scorpene, ya en servicio y vendidos a numerosos países, y los Barracuda, con dos versiones, una nuclear y otra convencional, inicialmente pensada para la Marina australiana cuya vente finalmente no prosperó. La entrega de la primera unidad convencional a Australia estaba prevista para 2025 pero al fracasar el proyecto no se sabe el futuro del submarino.
+Y, por último, está el modelo alemán de Thyssen Krupp Marine Systems, que ha vendido en la última década más de 20 submarinos a varios países. "Los submarinos alemanes se adaptan a las necesidades de cualquier Armada y su sistema AIP es un referente.
+Según el mencionado informe del IEEE, y analizando una serie de expertos distintos factores, el S-80 se colocaría en primera posición respecto del resto de competidores, seguido de cerca por el U-212 alemán (segundo) y el Souryu japonés y el Shortfin Barracuda francés, ambos en tercer lugar.
+Foro con participación industrial española
+Según informa Infodefensa.com, el medio especializado en defensa naval canadiense Vanguard organizó en noviembre encuentro sectorial, denominado Deep Blue Forum, enfocado en este proyecto CPSP, en el que contó con la participación de expertos internacionales de Australia, Chile, Alemania, España, Suecia y Estados Unidos. Entre las ponencias se incluyeron presentaciones de expertos de la compañía estadounidense Lockheed Martin, cuya intervención se centró en la necesidad crítica de una estrecha relación de trabajo entre el integrador de sistemas de plataforma y el integrador de sistemas de combate; de la española Navantia, centrada en el la tecnología sigilosa de bioetanol concebida para el submarino S80, denominada BEST, y acerca de la flexibilidad que goza este buque para incorporar sistemas de armas de la Marina de Estados Unidos; de la firma sueca Saab Kockhums, que apuntó en la necesidad de flexibilidad y diseño en el diseño de submarinos; de la alemana TKMS, que mostró su diseño tipo 212CD como base para un futuro buque de este tipo canadiense; de la filial local de la británica Babcock, que se refirió a la modularidad en la construcción de este tipo de naves; de la también alemana Rheinmetll, que versó sobre simulación en el entrenamiento de las tripulaciones y la automatización de los sistemas de los submarinos, y finalmente de la compañía local Seaspan, que se refirió a la experiencia en proyectos de adquisición de submarinos.
+El foro concluyó que Canadá avanza en la sustitución de los submarinos de la clase Victoria, antes del final de su vida útil en la década de 2030, con una clase de buques de propulsión diésel-eléctrica, en el que además se insta a minimizar los cambios y modificaciones del diseño original, para reducir riesgos y contribuir a que la industria cumpla con el cronograma que se establezca. Los detalles concretos sobre el programa se irán conociendo durante los próximos años.
+Como indica la propia Navantia, "El S-80 es un producto preparado para la exportación, adaptándose a los requisitos de cada cliente y a las exigencias de participación de la industria local en cada país, como Navantia ya ha hecho para la oferta de la India", donde trata de hacerse con un contrato de seis unidades que forma del proyecto P75(I), utilizando como diseño de referencia el S-80, "el único submarino AIP de 3000 Tn actualmente en construcción en todo el mundo", dice el astillero español.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/internacional/duras-criticas-lopez-obrador-vender-avion-presidencial-tayikistan-pais-pobre-dictatorial-mucho-menos-que-costo_20230421644273d67f1ecd00019a2f63.html</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>El presidente de México, Andrés Manuel López Obrador, ha informado de que el polémico avión presidencial, que su Gobierno ofertaba desde el inicio de su administración en diciembre de 2018, fue vendido al Gobierno de Tayikistán, que hizo un depósito de 1.658 millones de pesos (unos 82 millones de euros).
+"Informo al pueblo de México que hoy se celebró el contrato de compra-venta del avión presidencial", escribió López Obrador en un mensaje en redes sociales que acompaño de un video donde se mostraba la aeronave y se le ve ocupando un asiento.
+"El gobierno de Tayikistán depositó 1.658 millones, de conformidad con el avalúo oficial, a la cuenta del Instituto para Devolver al Pueblo lo Robado", añadió.
+Además el mandatario ratificó que el dinero obtenido se invertirá en dos hospitales, en Tlapa, Guerrero y en Tuxtepec, Oaxaca, sur de México, que serán construidos por los ingenieros militares e inaugurados antes de terminar su mandato, en septiembre de 2024.
+Sin embargo, las críticas no se han esperar. En primer lugar, porque el presidente mexicano había dicho en varias ocasiones que no lo vendería por menos de 110 millones de dólares, el valor del primer avalúo, porque era malbaratarlo, pero al final no recibió esa cantidad. Se habría vendido, según medios mexicano, por casi un 60% menos de lo que costó, 218 millones de dólares.
+Pero, además, también ha recibido duras críticas por tratarse Tayikistán de una dictadura, un país que, tras proclamar su independencia de la Unión Soviética en 1991 solo ha conocido un presidente, Emomali Rahmon, que lidera el país desde 1994 tras una guerra civil. Es la economía 104 del mundo, dependiente totalmente de Rusia y, como recuerda el medio Latinus, "un ciudadano de Tayikistán es en promedio 11 veces más pobre que un mexicano". Apoya además la invasión de Ucrania y según el Índice de Democracia que elabora la Unidad de Inteligencia de The Economist, ocupa el puesto 156 de 167 países. De ahí los reproches al mandatario mexicano, pues estaría vendiendo el avión presidencial, que él considera un gasto excesivo, a un país dictatorial y pobre, generándole así un gasto añadido.
+Desde que asumió la Presidencia en diciembre de 2018, López Obrador intentó vender el Boeing 787 adquirido por el presidente Felipe Calderón (2006-2012) por un controvertido precio de 218,7 millones de dólares, pero que llegó a México en 2016 durante la presidencia de Enrique Peña Nieto (2012-2018)
+López Obrador, quien incluso intentó rifar el vehículo en la Lotería Nacional en 2020, ha alegado en diversas ocasiones que la aeronave es "muy lujosa" y "muy extravagante", por lo que su Gobierno no ha podido venderla, aunque fue una de las principales promesas de su campaña.
+"Lo del avión se está viendo, hay la posibilidad de que se venda, no puedo decir más", expuso a la prensa al tiempo que avanzó la idea de que el dinero fuera para la construcción de los citados hospitales.
+La última vez que habló sobre un posible comprador fue en junio pasado, cuando afirmó que el Gobierno de Argentina estaba interesado en la aeronave.
+El mandatario, quien promueve una imagen de austeridad en el Gobierno, ha optado por no usar el avión y viajar en vuelos comerciales, además de prohibir a funcionarios públicos que lo utilicen.
+La aeronave está en manos del Ejército mexicano, que la almacena en la base militar área de Santa Lucía, al norte de Ciudad de México, donde el Gobierno ha ofrecido alquilarlo para bodas, cumpleaños y eventos corporativos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/espana/fiscalia-pide-seis-meses-prision-atropello-patinete-electrico_2023042164426a597adfa80001c522e9.html</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Un hombre que atropelló con su patinete eléctrico a un peatón en Badalona (Barcelona) tras haber consumido cannabis se enfrenta a una posible condena de seis meses de prisión, la pena que reclama para él la Fiscalía por dos delitos contra la seguridad vial y otro de lesiones por imprudencia grave.
+El Ministerio Público solicita además que se le prive del derecho a conducir vehículos a motor y ciclomotores durante tres años y que se le condene a pagar una multa de 4.500 euros.
+Asimismo, reclama que indemnice a la víctima con 33.210 euros, al tiempo que establece la responsabilidad civil directa al respecto del Consorcio de Compensación de Seguros.
+Los hechos se produjeron el 14 de septiembre de 2021 cuando el acusado, R. M. S., circulaba por la avenida Martí Pujol de Badalona con su patinete "con sus facultades disminuidas a consecuencia de una previa ingestión de cannabis", lo que según señala la Fiscalía Provincial de Barcelona en su escrito de acusación, suponía un "riesgo para la seguridad vial".
+La víctima cruzaba un paso de peatones
+En el cruce con la calle de Enric Borrás, "haciendo caso omiso a las señales verticales de circulación", atropelló con su patinete (que puede alcanzar una velocidad máxima de 31,2 km/h) a J.B. que se encontraba cruzando correctamente el paso de peatones.
+El patinete eléctrico que conducía el acusado, catalogado como Lle-B, tiene la consideración de ciclomotor, por lo que -recuerda la Fiscalía en su escrito- tiene la consideración de ciclomotor y requiere de un permiso de conducir del que R. M. S. carecía "por no haberlo obtenido nunca".
+A consecuencia del siniestro, la víctima sufrió diversas lesiones (hemorragias, hematomas, contusiones e incluso una fractura) de las que tardó 276 días en recuperarse. Además, el accidente le ocasionó un síndrome postconmocional y un trastorno cognitivo leve.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>https://www.larazon.es/salud/bienestar/sopa-quemagrasas-que-permite-adelgazar-8-kilos-semana_20230421644252b77adfa80001c4f741.html</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Siempre que intentemos perder peso, lo ideal sería consultar con un nutricionista para que nos haga un estudio y nos recomiende cuales son los alimentos que mejor nos van a ayudar en nuestro objetivo de adelgazar. Pero no sólo los alimentos, sino que nos dará una serie de pautas que son necesarias para lograr el éxito. De todas formas, deberás tener en cuenta que para adelgazar será necesario hacer deporte, una buena hidratación, dormir bien y suprimir de la dieta algunos tipos de grasas, los productos ultraprocesados y los azúcares.
 Lo más importante siempre que tratemos de ponernos a dieta es elegir una dieta equilibrada, hipocalórica, pero que nos aporte los nutrientes necesarios y no pongan en riesgo nuestra salud. Deberá estar basada en la ingesta de verduras y frutas, que estarán presentes en todas las comidas "fuertes" y deberán ser acompañadas de pescado, carnes magras (siempre a la plancha) y legumbres una vez por semana.
@@ -566,402 +944,13 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/espana/cuantos-militares-componen-fuerzas-armadas-espanolas-cuantos-tienen-nuestros-vecinos_2023042064417fbf7adfa80001c3e32f.html</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Los medios materiales son fundamentales a la hora de crear un ejército eficaz y la tecnología juega un papel cada vez más importante en el ámbito militar, tal y como está quedando de manifiesto en la guerra de Ucrania, donde la diferencia entre contar o no con el armamento más moderno está resultando clave en uno y otro bando.
-Sin embargo, no podemos perder de vista que, al final, el factor humano no solo no se puede dejar de lado sino que, a pesar del pasar de los siglos y de lo mucho que ha cambiado la táctica militar, sin "pisar" el terreno es prácticamente ganar una guerra por mucha que la superioridad aérea o naval sean necesarias. Por estos motivos, ningún ejército hoy en día puede descuidar contar con unas tropas adaptadas cuantitativa y cualitativamente a las necesidades del país, al tamaño de su territorio o a sus compromisos internacionales.
-En el caso de España, el personal al servicio de la Administración Militar asciende a 139.281 efectivos (125.579 en activo y 13.702 en la reserva).
-El Ejército de Tierra cuenta con cerca de 80 000 efectivos; 22.000 la Armada y otros 22.000 el Ejército del Aire y el Espacio. Los Cuerpos Comunes de las Fuerzas Armadas son cuerpos militares que conforman cuatro ámbitos: el de Intervención, el Jurídico Militar, el de Sanidad y el de Músicas Militares, que cuentan con. 9​ 2991 efectivos. La Guardia Real tiene unos 1.500 y la La Unidad Militar de Emergencias (UME), cuya labor es intervenir en caso de grave riesgo, catástrofe, calamidad pública u otras situaciones graves, tiene 3.500 efectivos.
-De estas cifras, según los datos oficiales de las Fuerzas Armadas, 52.285 del total de personal militar pertenecen a militares de carrera en activo, de los que 47.797 son hombres y el resto mujeres, con una edad media de 43,51. A esta cifra hay que sumarle otros 14.571 en la reserva, con lo que la cifra total sería de 69.826. De los militares de carrera en activo, 28.647 están en el Ejército de Tierra; 9.567 en la Armada; 11.245 en el Ejército del Aire y el Espacio y 2.826 en cuerpos comunes.
-12.397 oficiales
-En cuanto a la graduación, de los activos hay 12.937 oficiales de los que cuatro son General de Ejército, General del Aire o Almirante General; 26 tenientes generales o almirantes; 73 generales de división o vicealmirante; 188 generales de brigada o contraalmirante; 1.040 coroneles a capitanes de navío; 3.070 tenientes generales o capitanes de fragata; 2.645 comandantes o capitanes de corbeta; 3.622 capitanes o tenientes de navío, o 2.339 tenientes o alféreces de navío, por destacar solo los puestos más destacados. Además, hay 633 efectivos en la Escala Técnica; 26.111 efectivos en la Escala de Suboficiales (suboficial mayor, subteniente, brigada, sargento primero y sargento) y 11.413 en Escala de Tropa (cabo mayor, cabo primero, cabo y soldados o marineros).
-Militares temporales
-El resto de personal serían militares con un relación de carácter temporal con las Fuerzas Armadas, que pueden ser militares de complemento o personal de tropa y marinería, que establecen su relación de servicios profesionales mediante compromisos de carácter temporal y podrían acceder a la condición de militar de carrera conforme a lo que marca la ley. Con éstos existe el llamado compromiso inicial, renovable hasta completar un máximo de seis años; también está el llamado compromiso de larga duración, hasta los 45 años de edad, al que se accede desde el compromiso inicial, y la condición de permanente, la que se podrá acceder durante la vigencia del compromiso de larga duración.
-En comparación, Polonia, con menor población que España, tiene también unos 120.000 efectivos en sus fuerzas armadas, mientras que Israel, con apenas nueve millones de habitantes, tiene unos 173.000; Italia, con 61 millones de habitantes tiene unos 170.000; Francia, con una población de 68 millones dispone de 205.000 efectivos, y Reino Unido, con una población similar a sus vecinos galos (casi 68 millones) tiene 194.000. Como dato, los países mencionados, tienen unos efectivos que representan aproximadamente el 0,3% sobre el total, excepto Israel, que alcanza el 1,9%, dadas sus especiales características con un prolongado servicio militar obligatorio y una situación geopolítica que obliga al país en estar en permanente estado de alerta.
-Alemania, el país más poblado de Europa (a excepción de Rusia), tiene 84,3 millones de personas y 184.000 militares en activo, un 0,2% del total, por debajo de sus vecinos. Llama también la atención el caso de Grecia, que con 10,5 millones de habitantes tiene 130.000 militares, lo que supone el 1,2%, lo que cuadruplica a España, Francia, Italia o Reino Unido, fundamentalmente por su tensa relación con Turquía.
-Nuestro vecino del sur, y un posible enemigo si se complicasen las cosas en Ceuta y Melilla, por ejemplo, dispone de 200.000 militares activos, un 0,5% del total de su población, de 36,7 millones de personas.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/gente/tv/susanna-griso-frena-colaborador-amistad-especial-rey-juan-carlos_20230420644146d050432b000162808b.html</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>El regreso del Rey Juan Carlos I a España ha reabierto la polémica sobre el supuesto veto que las altas esferas le habrían impuesto a la hora de volver definitivamente al país en el que ejerció durante más de 40 años como jefe de Estado. Muchos aseguran que a Casa Real no le sientan nada bien sus escapadas a Sanxenxo o cualquier punto de la geografía patria, y, en este sentido, Susanna Griso ha sacado las garras por él en “Espejo público”. La presentadora expone que “me da un poco de pena en lo humano que este país no pueda encajar con normalidad que él viaje a España cuando quiera o pueda, para participar en regatas o ver a su familia”, y recuerda que el emérito “no tiene ninguna causa con la Justicia”.
-Llegados a este punto, uno de los colaboradores del programa, el doctor Fuertes, ha dejado entrever que Susanna Griso defiende al Rey Juan Carlos por la “amistad especial” que mantiene con él, un término que no ha gustado nada a la periodista: “Oye, a mí no me hables de amistad especial porque no estamos para estos términos… Cualquier otra frase… pero no esa… Especial, no… hay que aclararlo”.
-Susanna Griso Atresmedia
-Poco después, Susanna Griso ha querido aclarar qué tipo de relación mantiene con Su Majestad, recalcando que ese vínculo no interfiere en su mirada crítica de periodista: “Que yo pueda haber hablado con él y comido con él no quita que pueda ser crítica. Sí que sé que, para él, ha sido doloroso salir de este país, que él hubiese deseado quedarse aquí, que la relación con su hijo, mal que bien, se mantiene; que a través de una persona había avisado que quería venir a regatear, que se le pidió que esperase a después de las elecciones y que él entendió que las elecciones eran en mayo y que podía venir ahora, que va a seguir viviendo y que quiere en la medida de lo posible llevar una relación de cierta normalidad con sus amigos…”.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/espana/quinto-entierro-primo-rivera-urna-junto-hermana-pilar_202304216441ba0450432b000163217a.html</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Los restos mortales de José Antonio Primo de Rivera serán exhumados el próximo lunes del Valle de los Caídos, donde a las 5:30 de la mañana comenzará el proceso de retirada de su ubicación actual, junto al altar mayor de la basílica, su tumba desde 1959. Con el recinto de Cuelgamuros blindado por la Guardia Civil –y cerrado a las visitas ya el fin de semana–, las 80 personas autorizadas –miembros de su propia y numerosa familia– presenciarán a las 9 de la mañana la extracción del féretro, por lo que no habrá lugar a la tensa espera «con radiales y un ruido horrible» que describieron en el mismo lugar los Martínez Bordiú-Franco la mañana del 24 de octubre de 2019. Esta vez no asistirá ningún miembro del Gobierno, ni habrá medios de comunicación. A continuación, el prior Santiago Cantera rezará un responso. La operación coincidirá con el 120 aniversario del nacimiento del fundador de Falange y el recinto cerrado al público desde el sábado. Todo en absoluta intimidad, como ha sido deseo expreso de la familia desde un principio.
-El siguiente paso será el traslado al cementerio de San Isidro –también cerrado–, donde se procederá a la reducción de los restos de Primo de Rivera en su nueva sepultura. En un lateral del camposanto más antiguo de Madrid hay tres enterramientos con miembros de su familia, donde se hallan, entre otros, Miguel Primo de Rivera y Sáenz de Heredia, ministro de Franco y hermano de José Antonio; su tío Fernando Primo de Rivera, y Pilar Primo de Rivera, su hermana, aunque en principio serían depositados en una urna junto a la fundadora de la Sección Femenina de Falange, fallecida en 1991. La caja que ha albergado su cuerpo hasta la fecha será incinerada. En ningún caso permitirá la familia que pueda caer en manos no deseadas, según ha sabido LA RAZÓN.
-La tumba de José Antonio Primo de Rivera está situada en el altar mayor de la Basílica del Valle de los Caídos larazon
-El pasado mes de octubre, los deudos de José Antonio Primo de Rivera solicitaron la exhumación para proceder al entierro «en el lugar que su familia ha decidido», según hicieron saber a través de un comunicado, adelantándose a la intención del Gobierno de que se aplicara la Ley de Memoria Democrática, que le permitía seguir en Cuelgamuros, pero no en «lugar preeminente».
-Como víctima de la Guerra Civil, la norma contempla esta opción. Ya en 2011, la «Comisión de Expertos» creada por José Luis Rodríguez Zapatero determinó que para «dignificar» y «democratizar» Cuelgamuros había que sacar el cadáver de Franco de su tumba y «reubicar» a José Antonio. «Es un paso más en la resignificación del Valle», dijo ayer el ministro de la Presidencia, Relaciones con las Cortes y Memoria Democrática, Félix Bolaños.
-Parte de la familia estaba de acuerdo en mover sus restos a una de las capillas laterales, pero quería que se pusiera una placa en la pared con el nombre de «José Antonio». El Gobierno se negó en rotundo a marcar el lugar, aunque sí admitía el cambio, que se hubiera llevado a cabo en el osario de la Virgen de la Merced, que está vacío, junto a las otras 33.847 víctimas de la contienda. Finalmente ha prevalecido el deseo de inhumarle fuera antes de que el Valle sea de hecho cementerio civil y para cumplir la voluntad manifestada en el testamento del líder falangista: «Deseo ser enterrado conforme al rito de la religión Católica, Apostólica, Romana, que profeso, en tierra bendita y bajo el amparo de la Santa Cruz».
-El Ayuntamiento de San Lorenzo de El Escorial concedió el pasado 23 de febrero la licencia urbanística para la retirada de la losa de granito y la reposición por seis baldosas de mármol Negro Marquina –con un presupuesto de 8.630 euros– junto al altar mayor de la abadía benedictina; la Guardia Civil organizó el dispositivo de seguridad y, finalmente, fueron concedidos el permiso eclesiástico y el de la Dirección General de Salud Pública de la Comunidad de Madrid. Una vez culminados los trabajos, la basílica permanecerá cerrada al público menos de una semana.
-Primo de Rivera fue fusilado por la República en la cárcel de Alicante el 20 de noviembre de 1936, y después de tres inhumaciones –en Alicante (en una fosa común en 1936 y un nicho en 1938) y el monasterio de San Lorenzo de El Escorial (1939)– sus restos se llevaron en 1959 al Valle de los Caídos, tras la inauguración del recinto que mandó construir Francisco Franco. Su tumba es la única individual que queda en el mausoleo, ya que los demás enterrados de ambos bandos de la Guerra Civil que descansan en los columbarios están en emplazamientos colectivos.
-Más allá del cumplimiento de la Ley de Memoria Democrática en este aspecto, el Gobierno reanudó en diciembre los trabajos para exhumar los restos de 106 víctimas de la Guerra Civil, también a petición de sus familias, una vez superada la paralización de las labores impuesta cautelarmente por un juzgado de Madrid. Los familiares de otras 261 se oponen y reclaman «respeto» para el «descanso» de los suyos. Y lo harán de nuevo ante la Justicia si lo consideran necesario.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/andalucia/jaen/que-provincia-espanola-interior-fue-declarada-maritima_2023042064415b257adfa80001c3ae45.html</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>El Parque Natural de las Sierras de Cazorla, Segura y Las Villas fue declarado como tal en 1986. Más tarde, en 1983, llegó el reconocimiento de UNESCO con su designación como Reserva de la Biosfera. Entre los valores de este espacio, que agrupa a 23 municipios, se encuentra su exuberante masa forestal superior a las 200.000 hectáreas. No solo eso: este macizo montañoso supone un importante reservorio de recursos hídricos, tanto superficiales como subterráneos, constituyendo la cabecera de dos importantes cuencas hidrográficas: la del Guadalquivir y la del Segura.
-Madera y agua son claves para entender lo que ocurrió en el siglo XVIII. Los bosques se convirtieron en una fuente de materia prima para la construcción de grandes edificios y, sobre todo, de barcos, constituyéndose una peculiar entidad denominada Provincia Marítima de Segura de la Sierra. El dato histórico y jurídico que avala este nombramiento se produjo con la publicación de la Ordenanza de Montes de Marina de 31 de enero de 1748. De esta forma y gracias a estos dos grandes ríos, millones de troncos han sido conducidos por sus aguas a lo largo de los siglos.
-El poderío naval español le debe mucho a este Parque Natural. Y uno de los que mejor ha estudiado este fenómeno ha sido el investigador Vicente Ruiz, que recoge en su riguroso estudio "La Provincia Marítima de Segura y la Marina de la Ilustración" todo este fenómeno. Igualmente, edificios tan conocidos como la catedral de Jaén o la actual Universidad de Sevilla, antigua Fábrica de Tabacos, se han abastecido de la madera de los árboles de las Sierras de Cazorla, Segura y las Villas.
-Esta trascendencia histórica del Parque ha motivado también la presencia de distintos modelos de ocupación humana, como queda constatado en sus 99 elementos culturales inventariados en el Sistema de Información del Patrimonio Histórico de Andalucía, de los cuales 43 están declarados como Bien de Interés Cultural (BIC). Igualmente significativo es su alta diversidad en fauna y flora: hay catalogadas 2.200 especies florísticas. En cuanto a la fauna, la zona sirve de hábitat a unas 200 especies de vertebrados.
-El ámbito de este Parque Natural, que convirtió a un "Paraíso Interior" como Jaén en provincia marítima agrupa total o parcialmente a los siguientes municipios: Beas de Segura, Benatae, Cazorla, Chilluévar, Génave, Hinojares, Hornos de Segura, Huesa, La Iruela, Iznatoraf, Orcera, Peal del Becerro, Pozo Alcón, Puerta de Segura, Quesada, Santiago Pontones, Santo Tomé, Segura de la Sierra, Siles, Sorihuela de Guadalimar, Torres de Albánchez, Villacarrillo y Villanueva del Arzobispo. Benatae, Hornos y Santiago Pontones tienen la totalidad de sus términos municipales dentro del espacio protegido.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/espana/cinco-meses-respuesta-gobierno-donana_202304216441aca27f1ecd00019915cc.html</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>La fotografía que el presidente del Gobierno, Pedro Sánchez, se hizo ayer en Doñana, para cargar electoralmente contra la Junta de Andalucía y su política con el Parque Nacional, mientras en el Congreso, por cierto, el PSOE necesitaba los votos del PP para corregir la ley del «sí es sí», tiene detrás cinco meses de SOS de la Junta al Ejecutivo de Sánchez para activar una comisión técnica con urgencia que analice la situación y busque soluciones consensuadas entre las dos administraciones a los daños de la sequía. Cuatro cartas, varias reuniones de trámite y ninguna concreción desde Madrid al problema del que el líder socialista quiso ayer subrayar lo mucho que le ocupa y preocupa.
-Desde Doñana, en una intervención sin preguntas, Sánchez defendió la importancia del «tesoro» que supone Doñana, y advirtió de que «no hay excusa ninguna» para seguir adelante con la proposición de ley aprobada en el Parlamento andaluz. Esta iniciativa reordena la situación que el PSOE dejó en herencia en 2014, con centenares de familias atrapadas en un marco de alegalidad. Desde la Junta llevan semanas contestando a las críticas de la izquierda que «la iniciativa afecta a un territorio que no está en el parque, ni en el preparque, sino en la corona al norte del condado de Huelva, a 40 km de Doñana». Y que la reordenación salva, además, los acuíferos, de acuerdo con la primera ley que aprobó Sánchez en 2018 para hacer un trasvase del río Tinto y el Piedra, para llevar agua de superficie. Esta infraestructura comprometida por el Gobierno de Sánchez está aún sin hacer.
-En la zona hay más votos que agua, y a todos los partidos les aprieta el contexto electoral, pero en su declaración institucional, como presidente del Gobierno, aunque sonase más a candidato, Sánchez obvió que el 4 del pasado mes de noviembre llegó al Ministerio para la Transición Ecológica y el Reto Demográfico una primera carta de la Consejería andaluza de Sostenibilidad, Medio Ambiente y Economía Azul, en la que se planteaba a Madrid la necesidad de «alcanzar un gran pacto por Doñana, que logre fijar la hoja de ruta adecuada para afrontar los riesgos y amenazas que el cambio climático va a generar en este valioso entorno natural». En la misiva, el consejero, Ramón Fernández-Pacheco, recordaba los pronunciamientos europeos y la sentencia del Tribunal de Justicia de la UE, de 24 de junio de 2021, sobre el incumplimiento de la Directiva Marco de Aguas y de la Directiva sobre los hábitats del Reino de España, lo que hace más necesario, «si cabe, ir de la mano para afrontar el cumplimiento de la misma».
-La respuesta protocolaria llegó el 30 de noviembre, con el ofrecimiento de celebrar una reunión entre el 12 y el 19 de diciembre, que finalmente se ejecutó vía telemática el 28. Tras aquella conversación, el Ministerio se comprometió a convocar una comisión de seguimiento técnica que no se concretó. El consejero envió mensajes al secretario de Estado, llamadas…, sin consecuencias. Por eso, el 23 de febrero se enviaba otra comunicación desde Sevilla al Ministerio en la que el consejero expresaba su «profunda decepción» al no recibir comunicación alguna para la reunión acordada «en el encuentro telemático mantenido el pasado 28 de diciembre de 2022». «Casi dos meses después, a la Consejería de Sostenibilidad, Medio Ambiente y Economía Azul que dirijo no ha llegado convocatoria alguna […]. Ante la incomprensible ausencia de noticias, me siento en la obligación de recordarle su compromiso de convocar una reunión para continuar perfilando mejoras para Doñana y también para el nuevo Parque Nacional Sierra de las Nieves de Málaga, y de urgirle a convocar ese encuentro que dijo que se celebraría en semanas». Textualmente, el consejero recordó que entre los compromisos adquiridos en la reunión telemática, e incumplidos, «estaba el de la constitución de un grupo de trabajo, o comisión bilateral técnica, en el que analizar, de manera conjunta, el Marco de Actuaciones de Doñana que ha liderado su Ministerio». «En cualquier caso, le informo de que desde la Junta de Andalucía se han realizado aportaciones al Plan de Actuaciones de Doñana, presentado por el Ministerio para la Transición Ecológica, en el plazo previsto y como cualquier interesado más». La respuesta del Ministerio fue una llamada y otra convocatoria, para reiterar el compromiso a poner en marcha comisiones técnicas, que siguen sin materializarse.
-Fragmentos de alguna de las cartas enviadas desde la Junta al Ministerio y la única respuesta de este departamento del pasado 30 de Noviembre Documentos La Razón
-Los alcaldes socialistas y el PSOE andaluz mantienen este tema una posición con muchos más matices que la que enarbola el Gobierno de Sánchez. El 12 de abril, día que se aprobó la proposición de ley en el Parlamento andaluz, Sánchez proclamó: «Doñana no se toca». Pero en 2022 se autorizaron por parte del Ministerio extracciones de aguas subterráneas y se regularizaron pozos (reflejado en el Boletín Oficial de Huelva). La otra decisión fue la inversión de 335.000 euros para reformar el Palacio en el que veranean los presidentes del Gobierno.
-El 12 de abril, el presidente de la Junta, Juan Manuel Moreno, se dirigió a la vicepresidenta tercera y ministra para la Transición Ecológica, Teresa Ribera, para explicarle el contenido de la proposición de ley y subrayar por escrito que «el acuífero de Doñana no se toca ni afecta, simplemente se establece una clarificación de terrenos como agrícolas regables, siempre con agua superficial y siempre que llegue a estar disponible en el futuro». «No supone ninguna amenaza al cumplimiento de la sentencia europea». Moreno concluye proponiéndole crear una delegación entre el Ministerio y la Junta para ir a explicar la proposición de ley a la Comisión Europea.
-Pero todo sigue igual y, ayer, el consejero andaluz remitió una nueva carta al Ministerio pidiendo que convoque, «hoy mismo», «la reunión que desde hace más de cinco meses llevamos solicitando».
-[[H3:Feijóo pide al Gobierno «no manosear»
-►El presidente del PP, Alberto Núñez Feijóo, pidió ayer al jefe del Ejecutivo, Pedro Sánchez, «no manosear» el parque nacional de Doñana, mientras que se comprometió, si llega al Palacio de la Moncloa, a ejecutar por el procedimiento de emergencia todas las obras que el actual Gobierno incluyó en la Ley del Trasvase de 2018 para garantizar agua en la zona del condado de Huelva y que no se han puesto en marcha. Feijóo se refirió a la visita que Pedro Sánchez hizo ayer: «No es coherente venir en Falcon a defender Doñana cuando Doñana se defiende ejecutando las infraestructuras» que se comprometieron. En su opinión, el presidente decidió visitar el parque para no tener que votar en el Congreso de los Diputados la reforma de la Ley del «sólo sí es sí». “Estoy de acuerdo con que Doñana no se toca”, sentenció el presidente del PP, quien pidió a Sánchez y sus ministros que dejen de “manosear” Doñana para echar “la culpa a los andaluces del problema del agua en España”.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/sociedad/agua-que-esquilma-matalascanas-alerta-union-europea_202304216441d2f289b71c00016f8ec3.html</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>El Gobierno de España ha trazado una estrategia electoral para deteriorar a la Junta de Andalucía y la imagen de la figura más sólida en la actualidad del Partido Popular, Juanma Moreno. Para ello no le importa criminalizar al agricultor onubense, al que responsabiliza en exclusiva de secar el acuífero de Doñana. El argumentario ideado por responsables políticos socialistas está repleto de falsedades y titulares alarmantes destinados a confundir a la ciudadanía. Mensajes fraguados en la Comisión Europea por integrantes de la propia formación socialista como el hijo de Luis Planas –asesor de la directora general de Medio Ambiente, Florika Fink-Hooijer–, encuentros programados con responsables de la UE a los que solo falta pedir que sancionen a España para sacar tajada política y, ayer mismo, la visita del propio Pedro Sánchez al Parque Nacional para señalar unidireccionalmente al sector de los frutos rojos. «La multa la vamos a tener que pagar todos los españoles», dijo.
-Todo el discurso está construido en una mentira. La regularización del territorio no significa dar vía libre a que los dueños de 800 hectáreas usen el agua del acuífero de Doñana. Todo lo contrario. La proposición de ley que PP y Vox respaldan en el Parlamento andaluz supone «el inicio incluso del fin de la extracción de agua subterránea legal, sustituida por superficial», como afirma Julio Díaz, portavoz de la Plataforma en Defensa de los Regadíos del Condado. Esto quiere decir que el recurso hídrico utilizable llegaría de las infraestructuras que el propio Gobierno socialista se comprometió a ejecutar en 2018 y que hoy, cinco años después, son solo proyectos metidos en un cajón. Mientras tanto, sin estas obras, nada cambiaría porque la Confederación Hidrográfica del Guadalquivir mantiene cerrado el grifo por la sequía que padece el territorio.
-El cumplimiento de la ley del trasvase supone la transferencia de 19,99 hectómetros cúbicos anuales desde la Demarcación Hidrográfica de los ríos Tinto, Odiel y Piedras a la Demarcación Hidrográfica del Guadalquivir. Y un detalle para nada menor: ese trasvase permitiría que la playa de Matalascañas dejase de utilizar el agua de los acuíferos. Se calcula que el macrocomplejo turístico, cuya población en verano llega a superar los 160.000 habitantes, consume 2,75 hm3 al año y 2,2 de ellos salen de uno de estos acuíferos del Parque Nacional. Los recursos hídricos que requerirían las 800 hectáreas que el Gobierno andaluz pretende regularizar ascienden a 3,5 hm3 como máximo, con un matiz importante: sería agua en superficie en su totalidad y nada extraída del acuífero.
-La playa de Matalascañas pertenece al término municipal de Almonte (25.000 habitantes según el censo de 2022), feudo histórico del PSOE-A que ahora gobierna en coalición con el grupo independiente «Mesa de Convergencia». Es un pueblo rico –en el contexto andaluz– que disfruta del turismo de playa, del acontecimiento mundial que supone la romería de El Rocío y, por supuesto, de la inyección que reportan las explotaciones de frutos rojos en el mismo cogollo de Doñana, frente a otros municipios de la Corona Norte que se hallan incluso a 30 o 40 kilómetros de la zona de protección del parque a los que pertenecen el grueso de los agricultores injustamente excluidos en 2014.
-Durante décadas, ni gobiernos socialistas de la Junta ni del propio Ayuntamiento han hecho nada para atender las advertencias de los grupos ecologistas sobre la sobreexplotación de los acuíferos por parte de Matalascañas.
-También es mentira que el Gobierno no haya concedido más concesiones. «En febrero de 2020 le dieron a un puñado de agricultores agua del acuífero y luego, el 24 de agosto, lo declararon sobreexplotado a sabiendas para que se salieran de la plataforma. A partir de ahí es cuando dice que no hay agua para todos y que se está engañando a la gente», recuerda el portavoz de la plataforma.
-El Gobierno de Pedro Sánchez se niega a constituir la comisión técnica del trasvase. De hecho, la plataforma recuerda que otra opción es reutilizar los «40 hm3 ociosos en las depuradoras del entorno», aguas regeneradas que se puedan incluir en el sistema de riego. «Hay alternativas al agua del acuífero», dicen los agricultores, que insisten en que la Ley estipula que no se ampliarán los regadíos sino que se evaluarán uno a uno los casos de las explotaciones que se quedaron en 2014 fuera «por un error» (quieren pensar).</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/espana/jose-antonio-primo-rivera-sera-exhumado-lunes-valle-caidos_20230420644147cbfc273000014ededc.html</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Los restos mortales de José Antonio Primo de Rivera serán exhumados el próximo lunes del Valle de los Caídos. Es una decisión tomada hace solo unos días por los miembros de su familia, que en las últimas semanas habían discutido si permanecía en una cripta de Cuelgamuros o era inhumado fuera, como así sucederá, en el madrileño cementerio de San Isidro, según ha sabido LA RAZÓN.
-La operación se llevará a cabo en la mañana del lunes, coincidiendo con la fecha del nacimiento del fundador de la Falange y el recinto del Valle de los Caídos cerrado al público. Todo en la más absoluta intimidad, como ha sido el deseo expresado siempre por la familia.
-El pasado mes de octubre, los Primo de Rivera solicitaron la exhumación de los restos mortales de José Antonio para proceder al entierro “en el lugar que su familia ha decidido”, según un comunicado remitido a los medios, adelantándose a la intención del Gobierno de que se llevara a cabo el traslado según la normativa de la recién aprobada Ley de Memoria Democrática, que le permitía seguir en Cuelgamuros, aunque no en un "lugar preeminente".
-Como víctima de la Guerra Civil, la Ley de Memoria Democrática (LMD) contempla esta opción. Ya en 2011, la «Comisión de Expertos» creada por José Luis Rodríguez Zapatero determinó que para «dignificar» y «democratizar» la basílica católica había que sacar el cadáver de Franco de su tumba –cosa que se hizo el 24 de octubre de 2019– y «reubicar» dentro del templo los restos mortales de José Antonio.
-Con la exhumación, los Primo de Rivera quieren cumplir “la voluntad manifestada en su testamento” por José Antonio Primo de Rivera, en cuya cláusula primera establece: “Deseo ser enterrado conforme al rito de la Religión Católica, Apostólica, Romana que profeso, en tierra bendita y bajo el amparo de la Santa Cruz.” Dado que el artículo 54.3 de la citada Ley de Memoria Democrática establece que “las criptas adyacentes a la Basílica y los enterramientos existentes en la misma tienen el carácter de cementerio civil”, la familia “se considera obligada a cumplir la voluntad de nuestro tío y llevar a cabo la exhumación y correspondiente inhumación de sus restos mortales en un cementerio sagrado de acuerdo con el rito católico”.
-El lugar elegido sería el Sacramental de San Isidro, el camposanto más antiguo de Madrid, en una sepultura junto a Pilar Primo de Rivera, hermana del líder falangista, y otros miembros de la familia.
-Hasta este momento, todo ha seguido el plan previsto. El Ayuntamiento de San Lorenzo de El Escorial concedió el pasado 23 de febrero la licencia urbanística para la retirada de la losa de granito y la reposición por seis baldosas de mármol Negro Marquina –con un presupuesto de 8.630 euros– junto al Altar Mayor; la Guardia Civil se ha reunido para preparar el dispositivo de seguridad; han visitado el lugar técnicos de Patrimonio Nacional y también personal de la funeraria encargada del proceso. Todo en paralelo a las grandes medidas de protección dispuestas desde hace meses en el complejo ante las obras previstas para las exhumaciones que han pedido 106 familias, a las que se opone la Asociación para la Defensa del Valle de los Caídos (ADVC), que representa los intereses de otras 218 que piden «respeto» para el «descanso» de los suyos.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/espana/estrategia-pablo-iglesias-desgastar-yolanda-diaz-funciona-segun-cis_202304216441d3eafc273000014f9f4a.html</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>El último barómetro del Centro de Investigaciones Sociológicas (CIS) llegó con pocas sorpresas ayer. Y es que pese a la denuncia de Podemos contra el presidente del instituto demoscópico, José Félix Tezanos, al que acusó de «cocinar» los datos, la formación morada sigue en caída libre, más si cabe tras la reciente puesta de largo de Yolanda Díaz al frente de Sumar.
-La irrupción de Sumar, lejos de tender puentes entre los principales actores de izquierda, ha tensado la situación entre los de Ione Belarra y los de Yolanda Díaz. Los datos, a día de hoy, impulsan a la vicepresidenta a ocho meses de las elecciones generales, mientras que arrinconan a Podemos. Si las encuestas siguen a favor de Díaz, una ruptura entre ambas partes podría sobrevolar como opción en algunos sectores si no llegan a un acuerdo antes. Los de Yolanda Díaz obtendrían, según barómetro, el 10, 6% de los apoyos y se alzarían con la cuarta plaza política, muy por delante de Podemos, que se queda en quinto lugar y bastante lejos de Sumar, con el 6,7%.
-En las «tripas» del CIS, los datos acaban confirmando que la estrategia de Pablo Iglesias de desgastar a Díaz con sus continuos ataques, es en vano, es decir que no funciona. El ex secretario general comenzó el pasado mes de octubre desplegando su maquinaria política contra la vicepresidenta. En la «uni de otoño» de Podemos, la exigió «respetar» a los morados, cuando todaví</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/espana/nueva-reprimenda-carmen-calvo-estupideces-podemos-feminismo_2023042064417c4e7adfa80001c3deca.html</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>La exvicepresidenta del Gobierno y actual diputada del PSOE Carmen Calvo ha vuelto a salir a reprender a Podemos a cuenta del feminismo. En esta ocasión ha sido poco después de que la reforma de la ley de Libertad Sexual (conocida como "sí es sí") haya salido adelante con el apoyo del PSOE y el rechazo de Podemos en el Congreso de los Diputados. En un tuit, Calvo ha reprochado las "estupideces dichas en nombre del feminismo" por parte de la formación morada, aunque sin citar explícitamente a los de Ione Belarra e Irene Montero.
-"El Feminismo que tiene los pies en la tierra y se duele con el dolor de las mujeres, hoy desde los escaños socialistas, rectifica y está en el lugar que tiene que estar. Donde se protege la libertad sexual de las mujeres. El antifeminismo es no verlo", ha señalado. "Solo sí es sí y más con la reforma aprobada hoy. A pesar de tantas estupideces dichas en nombre del Feminismo, sobre todo por parte de las que no estuvieron nunca y ahora pretenden hacerlo falsamente suyo", ha agregado a través de las redes sociales.
-Calvo ha mantenido siempre una postura muy crítica con el Ministerio de Igualdad de Montero y han tenido más de un choque a lo largo de toda la legislatura. De hecho, la exvicepresidenta llegó a desvelar que tanto ella como el anterior ministro de Justicia Juan Carlos Campo hicieron observaciones en el Consejo de Ministros alertando de que el "sí es sí" podía dejar en la calle a violadores, tal y como ha acabado ocurriendo. Montero ignoró las advertencias y Calvo y Campo aceptaron el proyecto de ley impulsado por Igualdad como gesto de respeto.
-También la exvicepresidenta fue crítica con la Ley Trans, impulsada también por el ministerio de Igualdad y que permite la autodeterminación de género a partir de los 14 años y sin ningún tipo de autorización desde los 16 años. En ese caso, la exvicepresidenta, al no compartir el texto legal, en la votación de la ley en el Congreso rompió la disciplina de voto y se abstuvo, en lugar de votar a favor, tal y como hizo el PSOE.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/madrid/aznar-rajoy-unen-campana-ayuso-mitines-alcala-alcobendas-san-sebastian-reyes_20230421644267f6fc273000015074f3.html</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Las elecciones del 28-M son una cita clave para el PP, convencido de que una mayoría absoluta para Díaz Ayuso, como vaticinan las encuestas, es decisiva para continuar con el principio del cambio que ya visualizan los populares en su camino hacia las generales.
-Ya es habitual que los expresidentes colaboren en la campaña del partido y, esta vez, está previsto que la presidenta autonómica y candidata popular a la Comunidad de Madrid tire de los dos expresidentes del Gobierno de España y del Partido Popular, José María Aznar y Mariano Rajoy, que la acompañarán en su campaña.
-Sus intervenciones tendrán lugar en dos actos de campaña en municipios de la Comunidad de Madrid en el mes de mayo, según ha confirmado el partido. Así, está previsto que el expresidente Mariano Rajoy ofrezca un mitin junto a la presidenta regional el 20 de mayo en la localidad de Alcalá de Henares.
-Por otro lado, el exmandatario José María Aznar, participará el 22 de mayo, junto a Isabel Díaz Ayuso, en un acto organizado en una zona ubicada entre los municipios de Alcobendas y San Sebastián de los Reyes. Además, está previsto que el actual presidente del PP nacional, Alberto Núñez Feijóo participe en el acto de clausura de la campaña.
-No es la primera vez que José María Aznar interviene en un acto con Isabel Díaz Ayuso. El pasado mes de marzo, el expresidente intervino con Ayuso en un foro en el Círculo de Bellas del Instituto de Estudios Atlánticos en el que se sentía identificado con las medidas aplicadas por la presidenta regional. «Su trabajo y su ayuda son indispensables para que el cambio que deseamos en España se produzca y Alberto Nuñez Feijóo sea un buen presidente del Gobierno de España», llegó a decir. Aznar también invitó a la presidenta regional a una sesión de su Aula de Liderazgo en 2020, cuando se producía la desescalada del coronavirus. Todo fueron alabanzas para la gestión de la candidata popular. «No sabes lo que te envidio porque los hijos de Chávez te insulten todos los días», llegó a decir entonces.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/madrid/edil-podemos-mostoles-aparta-lista-municipal-escandalo-caso-itv_20230421644249497f1ecd000199e58d.html</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>La edil de Podemos Móstoles Nati Gómez, actual concejal de Educación y Juventud en Móstoles y una de las investigadas en el llamado 'Caso ITV', ha decidido no ir en las listas de la candidatura conjunta de Podemos-IU para las elecciones municipales del 28 de mayo.
-Gómez, junto a la alcaldesa Noelia Posse (PSOE) y otros seis concejales socialistas, formaba parte de la Junta de Gobierno Local que aprobó la condonación de una deuda a la empresa ITV Móstoles S.L., causa que en un principio se archivó pero que la Audiencia Provincial ha ordenado reabrir hace unas semanas.
-De esta manera, la edil de Podemos, que en las primarias celebradas hace unas semanas había sido elegida como 'número dos' de la lista, ha optado por apartarse de la candidatura por "responsabilidad política", han confirmado a Efe fuentes de la formación.
-En una carta remitida a sus compañeros de Podemos, Gómez asegura que aunque está convencida de que la Justicia le acabará dando la razón, es "consciente" de que los procesos judiciales "tienen unos tiempos que, en ocasiones, entran en contradicción con los plazos electorales".
-"Primero el proyecto y no las personas", ha añadido en su misiva, en la que insiste en que da un paso al lado "orgullosa del gran trabajo" realizado al frente de la Concejalía de Educación y Juventud, donde "se ha demostrado lo que hacemos en Podemos cuando gobernamos".
-La renuncia de Gómez se produce además día después de que Podemos e Izquierda Unida alcanzaran un acuerdo 'in extremis' para concurrir juntos a las elecciones municipales en Móstoles, después de que hace unas semanas rompieran las negociaciones que mantenían para ello desde hace meses.
-Izquierda Unida citaba la situación judicial de la entonces 'número dos' de Podemos y edil de Educación y Juventud, Nati Gómez, como uno de los motivos que habían impedido llevar a término la negociación, aunque finalmente logró salir adelante y ambas formaciones concurrirán juntas el 28M.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/internacional/aparatoso-accidente-tanque-leopard-pilotos-ucranianos-polonia-chocar-otro-carro_202304216442427250432b000163c9d2.html</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>El Comando General de las Ramas de las Fuerzas Armadas de Polonia ha ofrecido detalles del aparatoso incidente en el que se vieron envueltos dos ¿Qué impacto tendrán los tanques alemanes Leopard 2 en la contraofensiva de Ucrania? durante unos ejercicios de entrenamiento con pilotos ucranianos en el campo militar de Świętoszów. Al parecer, los dos carros de combate chocaron y uno de ellos estuvo a punto de perder la torreta, tal y como se observa en las fotos publicadas en las redes sociales.
-El accidente entre dos Leopard 2A4 se produjo el 14 de abril en el centro de entrenamiento de la 10ª Brigada de Caballería Blindada de Polonia. A partir de las fotos disponibles, analistas militares que como consecuencia de la colisión, la parte trasera del casco de uno de los tanques se estrelló contra la parte delantera del segundo carro, al que golpeó con fuerza en la torreta. Como consecuencia de la colisión, la pesada torreta de uno de los carros se desencajó casi por completo del anillo giratorio del casco del vehículo.
-Las autoridades polacas aseguraron que ninguno de los pilotos ucranianos que iban dentro de los tanques resultó herido.
-El medio Defense 24 asegura que el tanque se encuentra actualmente bajo un proceso de reparación, y será objeto de inspección, verificación y evaluación. Es muy probable -dicen los expertos del citado medio- que el vehículo sea reacondicionado y entre de nuevo en servicio para convertirse posiblemente en un Leopard modernizado 2PL.
-La difusión de estas imágenes en internet hacen temer tanto a las autoridades polacas como ucranianas que serán utilizadas por Rusia para hacer propaganda contra la calidad de los tanques de fabricación alemana Leopard y contra la impericia de los soldados ucranianos.
-Los accidentes durante entrenamientos con vehículos de combate no son raros. En esta ocasión se podría haber producido debido a la inusual rapidez de los plazos de adiestramiento de los soldados ucranianos para que puedan utilizar cuanto antes los Leopard contra los rusos en el campo de batalla. Incluso entre ejércitos profesionales se producen de vez en cuando este tipo de accidentes. A principios de años, dos vehículos de combate de infantería Puma IFV chocaron en el campo de pruebas de Sajonia-Anhalt, Alemania, en un incidente que se saldó con doce soldados heridos, dos de ellos de gravedad.
-Según el Ministerio de Defensa de Polonia, los tanques que sufrieron la colisión fueron entregados a Ucrania en marzo.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/internacional/prigozhin-exige-enjuiciar-exmercenarios-que-denunciaron-crimenes-wagner_202304216441b9ddfc273000014f82a1.html</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>El jefe del grupo de mercenarios rusos Wagner, Yevgueni Prigozhin, exigió hoy a la Justicia rusa abrir causas penales contra dos exmercenarios que le acusaron a él y a esta fuerza paramilitar de asesinar civiles en Ucrania.
-"La Liga de Defensa de los intereses de los veteranos de guerra (...) presentó una demanda para incoar causas penales en contra de Azamat Uldarov y Alexéi Savichev" por difamar al Ejército ruso, afirmó en su canal de Telegram.
-Además, la organización creada por Prigozhin llamó a abrir una causa penal "por chantaje" en contra de Vladímir Osechkin, el exiliado fundador de Gulagu.net, una ONG que defiende los derechos de los presos rusos.
-El jefe de Wagner calificó a los dos exmercenarios como personas "en estado de profunda embriaguez".
-Según Prigozhin, ambos ingresaron en Wagner procedentes de prisiones rusas, donde habían sido "sometidos", en referencia a humillaciones de carácter sexual que los hubieran lanzado al fondo de la jerarquía penitenciaria de haber sido públicas.
-"Dieron una entrevista al recurso extranjero enemigo Gulagu.net, al que soltaron un montón de delirios paranoicos. Ninguna de sus declaraciones tiene nada en común con la realidad. Es un disparate y un invento total", afirmó.
-El escándalo en torno a Wagner se desató a principios de semana, cuando Osechkin publicó en el canal de YouTube de Gulagu.net una entrevista a los dos exwagneritas, en la que estos afirmaban haber participado en asesinatos masivos de civiles, entre ellos menores de edad, en las ciudades ucranianas Bajmut y Soledar.
-Posteriormente, los dos exmercenarios declararon que habían sido obligados y la víspera uno de ellos volvió a dar una entrevista a Osechkin, en la que aseguró haber sido objeto de amenazas de muerte por parte de Wagner.
-Prigozhin, por su parte, insistió en acusar al fundador de Gulagu.net, actualmente exiliado, de estar vinculado a un grupo "que podría estar integrado por empleados de las penitenciarías rusas, que recopila materiales comprometedores contra personas que cumplen penas, para posteriormente obligarlos a cometer acciones ilegales".
-Según Prigózhin, durante su condena Uldárov fue "violado por un grupo de personas", un material que fue publicado posteriormente por Gulagu.net.
-"Uldarov ocultaba a toda costa este hecho, considerado una violación total de la ética carcelaria y que es castigado con la muerte en el ambiente penal", indicó el jefe de Wagner, quien también señaló que Sávichev fue a su vez violado en la cárcel "Beli Lébed" (Cisne Blanco), hecho que también buscaba ocultar.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/internacional/caza-ruso-su34-averiado-desploma-ciudad-ruso-deja-varios-heridos_20230421644225bafc273000015001fe.html</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Un nuevo percance de la aviación rusa ha conmocionado a los habitantes de la ciudad rusa de Belgorod, donde munición de un avión de guerra Su-34 se precipitó por error por la noche debido a un fallo durante el vuelo provocando una fuerte explosión en la citada localidad, cerca de la frontera con Ucrania, que se ha saldado con al menos dos personas heridas y un cráter de unos veinte metros en la calzada.
-Según la prensa local se escuchó un silbido unos segundos antes de la explosión. Otros testigos citados aseguraron que primero hubo una explosión y una sacudida, luego un resplandor finalmente una fuerte explosión.
-En una grabación de una de las cámaras se puede escuchar un sonido muy fuerte, que suena como un avión volando a baja altura. Unos 15 segundos después, primero se escucha una explosión más pequeña, seguida inmediatamente por una segunda más poderosa.
-Pese a que en un principio se dijo que fue un ataque de las tropas ucranianas, la fuerza militar rusa reconoció que fue un fallo del aparato ruso. "El 20 de abril de 2023, alrededor de las 22:15 hora de Moscú, durante el vuelo del avión Su-34 de las Fuerzas Aeroespaciales sobre la ciudad de Belgorod, se produjo un descenso anormal de municiones de aviación", ha explicado el Ministerio de Defensa ruso.
-La cartera ministerial, que ha indicado que hay daños en edificios residenciales pero sin notificar víctimas, ha señalado que ya hay una investigación en marcha.
-Por su parte, el gobernador de Belgorod, Vyacheslav Gladkov, ha explicado que la explosión ha dejado un agujero con un radio de 20 metros en una calle principal de la ciudad y ha dañado cuatro apartamentos de un edificio y cuatro vehículos.
-Gladkov, a su vez, ha indicado que según los datos preliminares hay dos heridos, una de ellas ha sido trasladada al hospital en estado grave, mientras que la segunda persona ha recibido atención médica en el lugar del incidente, informa Europa Press.
-Los edificios residenciales y los automóviles cercanos resultaron dañados. Presuntamente se encontraron fragmentos de bala en uno de los apartamentos. Los residentes de la casa fueron evacuados. Además, uno de los autos como resultado de la onda expansiva iba a ser arrojado al techo de la tienda.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/internacional/china-advierte-cualquiera-que-juegue-fuego-taiwan-puede-quemarse_202304216442523efc27300001504dff.html</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>El ministro de Exteriores de China, Qin Gang, ha recalcado este viernes que "ambos lados del estrecho de Taiwán pertenecen a China" y ha tildado de "absurdas" las críticas contra Pekín por "defender su soberanía nacional", al tiempo que ha advertido de que este tipo de pronunciamientos pueden derivar en "consecuencias peligrosas".
-"Hemos escuchado a menudo declaraciones extrañas que apuntan a que China 'desafía el orden internacional basado en normas', 'intenta cambiar unilateralmente el 'statu quo' en el estrecho de Taiwán por la fuerza o la coacción' y 'socava la paz y la estabilidad en el estrecho de Taiwán'. Estas declaraciones violan el sentido común y la justicia histórica. Su lógica es absurda y sus consecuencias son peligrosas", ha dicho.
-"Queremos decir a las fuerzas que usan la bandera del orden internacional y socavan la justicia internacional que el asunto de Taiwán está en el centro de los principales intereses de China y somos absolutamente claros ante cualquiera que quiera discutir el principio de 'una sola china'. No daremos marcha atrás si entramos en acción. Cualquiera que juegue con fuego en el asunto de Taiwán puede quemarse", ha advertido.
-Así, ha destacado que "Taiwán ha sido parte inalienable del territorio chino desde tiempos antiguos" y que "ambos lados del estrecho de Taiwán pertenecen a China". "Esa es la historia de Taiwán y su situación actual. El retorno de Taiwán a China es parte integral del orden internacional tras la Segunda Guerra Mundial y está negro sobre blanco en la Declaración de El Cairo y claramente impreso en la Proclamación de Postdam", ha argumentado.
-"No es China la que socava las normas internacionales, cambia unilateralmente el 'statu quo' y socava la estabilidad en el estrecho de Taiwán, sino que son las fuerzas separatistas por la independencia de Taiwán y los pocos países que intentan usar la independencia de Taiwán los que lo hacen", ha manifestado Qin, según un comunicado publicado por el Ministerio de Exteriores chino a través de su página web.
-Por último, ha aseverado que estas fuerzas buscan "subvertir el orden posterior a la Segunda Guerra Mundial y pisotear la soberanía de China". "Los 1.400 millones de chinos no están de acuerdo. Una vez el territorio de China sea recuperado, no volverá a ser perdido", ha manifestado, antes de insistir en que "salvaguardar la soberanía nacional y la integridad territorial está justificado".</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/tecnologia/francia-demuestra-poderio-militar-lanzamiento-submarino-nuclear-misil-balistico-capacidad-atomica_20230420644134cc7f1ecd0001986787.html</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>El Ministerio de Defensa francés ha anunciado el lanzamiento ayer, desde el submarino nuclear "Le Terrible", de un misil balístico estratégico capaz de llevar armamento nuclear, aunque en este caso sin carga. El misil, un M51, sirvió para validar la capacidad operativa del sistema de armas disuasorias del SSBN "Le Terrible" de cara a su inminente regreso al ciclo operativo. "Es también una demostración de la credibilidad y excelencia de nuestra base industrial y tecnológica de defensa", dijo el ministro, Sébastien Lecornu.
-El ensayo, sin carga militar, es el decimoprimero de este tipo de cohetes y "materializa la credibilidad y la robustez de nuestra disuasión nuclear", añadió.
-El M51, un misil que puede llevar hasta diez ojivas, equipa a la flota de submarinos estratégicos franceses.
-El M51 es un misil balístico francés desarrollado para ser lanzado desde plataformas marítimas capaz de llevar varias cabezas termonucleares. Entró en servicio por primera vez hace casi 13 años, en 2010. El desarrollador y fabricante del cohete es Ariane Group, que es una empresa conjunta entre Airbus y Safran. Tiene 12 metros de altura y un diámetro de 2,3 metros. La ojiva estándar es equivalente a 6 a 10 TN 75 MIRV 110 kilotones [kt] [420 TJ], con ayudas de penetración. En 2015, sin embargo, Francia desarrolló otra ojiva para el mismo misil, que utiliza el nuevo Tête nucléaire océanique 100 kt / CEP 150–200 m.
-El misil balístico intercontinental está propulsado por un motor cohete de combustible sólido de tres etapas. La velocidad máxima de vuelo es Mach 2,5 y es capaz de alcanzar un objetivo entre 8.000 km y 10.000 km de distancia. El sistema de guía es una guía astro-inercial, pero París planea desarrollar una versión con un sistema de guía Galileo. Francia es el único operador de este misil.
-En cuanto al submarino "Le Terrible" (S619) es de la clase Triomphant, tiene 138 metros de eslora, 12,5 de manga y un peso de 14.200 toneladas bajo el agua. Puede hacer inmersión de hasta 300 metros. Lanzó por primera vez un M51 el 27 de enero de 2010. Puede viajar a una velocidad máxima de más de 25 nudos (46 km/h).
-El sumergible tiene un sistema integrado de guerra electrónica y señuelos. Puede transportar 16 misiles balísticos nucleares M45 o M51. Tiene capacidad de ataque antibuque a través de cuatro tubos de 533 mm para torpedos F17. El submarino también está armado con el misil de crucero antibuque Exocet SM39.
-Para mantener la disponibilidad requerida, los SSBN están tripulados por dos tripulaciones, identificadas por colores, azul y rojo, compuestas por 110 hombres cada una. Mientras que los SSBN alternan períodos de mantenimiento y capacitación, patrullajes y permisos.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/economia/podria-espana-vender-canada-12-submarinos-como-s81-isaac-peral-navantia-posiciona-contrato-historico_20230421644269a7fc273000015078b1.html</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>La pasada semana se sabía que la "pacífica" Canadá ha decidido reemplazar los cuatro submarinos de fabricación británica que adquirió en 1999 y estaría barajando aumentar su flota con hasta 12 sumergibles nuevos a un costo de al menos 60.000 millones de dólares, una cifra que podría llegar a los 100.000 millones.
-Los sumergibles ingleses que prestaban servicio eran antiguos y, para muchas situaciones, prácticamente inservibles. De hecho, Reino Unido se los vendió por 750 millones de dólares después de que fueran rechazados por Pakistán, Portugal y Chile. Tan mal estaban que han pasado más tiempo en dique seco que en el agua. Ottawa se ha visto obligada a invertir miles de millones de dólares en la flota durante más de dos décadas para abordar varios problemas e incidentes, como incendios y soldaduras defectuosas. También ocurrieron varios accidentes durante operaciones militares y pruebas en el mar.
-Ya en el año 1987, el Libro Blanco sobre Defensa del Gobierno canadiense recomendaban la compra de 12 submarinos de propulsión nuclear capaces de navegar bajo el hielo y defender su soberanía en la región ártica. Sin embargo, la propuesta fue abandonada debido a una importante oposición tanto de la opinión pública como de los medios comunicación, pues rechazaban la opción nuclear y el enorme gasto que supondría.
-Ahora, cansados de gastar dinero en reparar, mantener y tratar de modernizar sus viejos submarinos, habría vuelto a tomar cuerpo la idea de comprar 12 nuevos pero no de propulsión nuclear, sino convencionales. El objetivo es contribuir a las "operaciones de alto nivel de la OTAN", argumentaba un informe del Gobierno de 2017, que abogaba por implementar un procedimiento de adquisición similar al de Australia, que acababa de seleccionar a Naval Group para proporcionar a la Royal Australian Navy 12 Shortfin Barracuda, con transferencias industriales y tecnológicas a la llave.
-La Royal Canadian Navy tiene la intención de aprovechar la revisión en curso de la política de defensa de Canadá para al menos reemplazar sus cuatro submarinos de clase Victoria en un momento en que China está invirtiendo fuertemente en sus capacidades submarinas, así como Rusia, cuyos sumergibles vienen realizando cada vez más patrullas en el Atlántico Norte y el Océano Ártico.
-En julio de 2021, el gobierno canadiense también inició un incipiente programa llamado "Proyecto de submarino de patrulla canadiense" (CPSP, por sus siglas en inglés), para analizar las opciones disponibles y determinar sus necesidades específicas a fondo. La Marina insta al Gobierno a incluir la adquisición de submarinos en su política de defensa revisada. En una conferencia de defensa en Ottawa el mes pasado, el Jefe del Estado Mayor de Defensa, el General Wayne Eyre, declaró</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/ciencia/ultimo-desastre-3000-millones-dolares-elon-musk_2023042164423395fc27300001501278.html</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Los años pasan factura para todos y, cuando nos dedicamos aprometer el oro y el moro, es cuestión de tiempo que la realidad haga mella en nuestra imagen. Hace unos años, Elon Musk era el magnate que salvaría al planeta. Muchos le veían como un genio inspirador que revolucionaría a la humanidad, salvaría la Tierra y nos llevaría a otros mundos. La culpa es nuestra por mitificar mortales y en eso tenemos experiencia. Poco a poco, las promesas incumplidas y los retrasos que ya se han vuelto firma de la casa Musk han ido mutando su imagen y, ahora, el multimillonario sudafricano ya no goza de tan buena prensa. Y por supuesto que a sus espaldas cuenta con una gran cantidad de logros, pero la opinión pública es dura y no está dispuesta a perdonar una. Ahora se enfrenta a un nuevo “fracaso”, la explosión del cohete Starship cuyo desarrollo ha costado 3.000 millones de dólares.
-¿Qué supone esto para la empresa? ¿Cómo afectará este fracaso a Musk? Pues depende. Depende de lo que la opinión pública quiera leer y de cómo esa confianza en sus empresas se refleje en la bolsa. No podemos predecir el futuro, y menos cuando entra en juego el mercado, pero hay que reconocer que Musk (y sus equipos) tiene una especial habilidad para salir airoso de estos baches empresariales. Pero, ahora bien, si lo que nos preguntamos es cómo afectará la explosión del Starship desde un punto de vista científico, la respuesta es sencilla: de ningún modo. En todo caso, si hay un impacto económico en Space X, puede que eso limite el progreso de las misiones, pero lo que ha ocurrido, a pesar de lo aparatoso que parece, es relativamente normal.
-De hecho, no debemos caer en el error de pensar que Musk ha perdido esos 3.000 millones de dólares. Eso es el coste de desarrollar el cohete, no solo de construirlo y lanzarlo. Por otro lado, Algunos medios indicaban que Musk y su equipo se sorprendieron al ver que Starship perdía el control, pero ¿realmente lo hicieron? Desde luego que no quedaron indiferentes, pero que fracasara un lanzamiento de prueba de una tecnología tan puntera como esta no debería sorprender a ningún ingeniero que se precie. Es una opción, no la más probable, pero desde luego tampoco una demasiado remota. Las misiones se retrasan y, algunas, sobre todo en fases iniciales, se tuercen. Space X está corriendo una maratón, no una carrera velocidad y es normal que se encuentre baches por el camino. Para llevar humanos a Marte, que es lo que se propone este proyecto Starship, hará falta mucho tiempo y muchos ensayos.
-Es casi inconcebible que, con una meta tan ambiciosa como esa, cada paso fuera un éxito inmediato. Pero claro, recordemos que parte de la estrategia publicitaria de Elon Musk consiste en prometerle a la prensa plazos irrealmente cortos para alcanzar sus objetivos. Eso ha proyectado unas expectativas inalcanzables en la conciencia colectiva y nos hemos vuelto menos tolerantes a lo que, en realidad, es un proceso relativamente normal en el sector de la astronáutica. Así que tendremos que esperar para todo. Un poco para descubrir cómo le afectará esta noticia a Musk y sus empresas y, desde luego, muchísimo más, para ver si este faraónico proyecto consigue llegar a buen puerto en algún momento del presente siglo.
-QUE NO TE LA CUELEN:
-Las grandes nubes que producen los cohetes al despegar pueden parecer muy contaminantes, pero, en realidad, son mayormente vapor de agua. El impacto medioambiental de estos lanzamientos no es nulo, pero es mucho menor de lo que solemos pensar.
-REFERENCIAS (MLA):
-Starship (no date) SpaceX. Available at: https://www.spacex.com/vehicles/starship/ (Accessed: April 21, 2023).</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/cultura/asi-convirtio-manfred-von-richthofen-leyenda-aviacion-baron-rojo_20230421644257ba7f1ecd000199fce0.html</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Manfred von Richthofen nació el 2 de mayo de 1892 en Breslavia, territorio que, en aquellos años, formaba parte de Alemania. Su familia tenía una larga tradición militar, por lo que Manfred se alistó en una academia militar a los 19 años.
-En dicha academia sobresalió por su habilidad con la equitación y el tiro, pero su gran pasión era la aviación. Con tan solo 21 años, un año antes de que explotara la Primera Guerra Mundial, Manfred ya obtuvo su licencia como piloto y decidió unirse al Regimiento de Aviación Nr 69.
-Al estallar la Primera Guerra Mundial, Manfred von Richthofen no lo dudó y puso en práctica todos sus conocimientos como piloto. Para los alemanes llegó a ser un héroe, sin embargo, los enemigos le temían aunque también se mostraban impresionados por sus tácticas aéreas.
-El sobrenombre de Barón Rojo
-Al observar su buen manejo, valentía y puntería, en 1916 fue asignado al escuadrón de caza Jagdstaffel 2. Allí decidió pintar su avión de rojo, motivo por el cual es conocido como Barón Rojo. Las razones por las que hizo esto pueden ser varias. No obstante, se dice que lo pintó de rojo para que sus enemigos le distinguieran mejor y para que así tuvieran más temor y supieran quién les había derrotado en ese combate aéreo en particular.
-Al fallecer su maestro y comandante del escuadrón de caza, Oswald Boelcke, el Barón Rojo tomó su relevo. En 58 misiones llegó a derribar 80 aviones, una proeza que hasta esa fecha no había conseguido nadie. Tal era su liderazgo, agudeza visual y puntería que al finalizar la campaña, su equipo había derribado 644 aviones y tan solo había sufrido 56 bajas. Este hito le sirvió para ganar la condecoración de la Cruz del Mérito.
-Manfred von Richthofen, el audaz piloto de la Primera Guerra Mundial también conocido como Barón Rojo La Razón
-Un año antes de morir, el 6 de julio de 1917, una bala perdida impactó en la cabeza del Barón Rojo. Aunque muchos creyeron que moriría, lo cierto es que el disparo solo ocasionó la pérdida parcial de vista. Por lo que siguió combatiendo y participando en diferentes persecuciones aéreas.
-Sin embargo, el temible Barón Rojo murió el 21 de abril de 1918 mientras sobrevolaba Francia persiguiendo a un grupo de aviones británicos. Hay varias versiones sobre quién lo mató o en qué parte del cuerpo fue el disparo. Sin embargo, la versión oficial decía que había sido el piloto canadiense Arthur Roy Brown a través de un disparo certero en el pecho. Otras nuevas investigaciones apuntan a un soldado de infantería australiano llamado William John que habría disparado desde tierra ya que el Barón Rojo volaba a baja altitud.
-Protagonizó tales hazañas que se ha convertido en un hito de la aviación, el cual se sigue recordando aun hoy, más de cien años después. Manfred von Richthofen finalmente fue enterrado con todos los honores militares. Tal respeto se había ganado con sus conocimientos aéreos que hasta los enemigos de las potencias aliadas le mandaron una corona en la que ponía "a nuestro enemigo galante y digno".
-En la lápida también lo recuerdan como una persona valiente. "Aquí yace un valiente, un noble adversario y un verdadero hombre de honor. Que descanse en paz". Su legado ha llegado hasta la actualidad donde a menudo se le recuerda en numerosas películas y documentales. Y aun hoy, sus hazañas aéreas siguen siendo ejemplo para muchos pilotos y fanáticos de la aviación.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/internacional/duras-criticas-lopez-obrador-vender-avion-presidencial-tayikistan-pais-pobre-dictatorial-mucho-menos-que-costo_20230421644273d67f1ecd00019a2f63.html</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>El presidente de México, Andrés Manuel López Obrador, ha informado de que el polémico avión presidencial, que su Gobierno ofertaba desde el inicio de su administración en diciembre de 2018, fue vendido al Gobierno de Tayikistán, que hizo un depósito de 1.658 millones de pesos (unos 82 millones de euros).
-"Informo al pueblo de México que hoy se celebró el contrato de compra-venta del avión presidencial", escribió López Obrador en un mensaje en redes sociales que acompaño de un video donde se mostraba la aeronave y se le ve ocupando un asiento.
-"El gobierno de Tayikistán depositó 1.658 millones, de conformidad con el avalúo oficial, a la cuenta del Instituto para Devolver al Pueblo lo Robado", añadió.
-Además el mandatario ratificó que el dinero obtenido se invertirá en dos hospitales, en Tlapa, Guerrero y en Tuxtepec, Oaxaca, sur de México, que serán construidos por los ingenieros militares e inaugurados antes de terminar su mandato, en septiembre de 2024.
-Sin embargo, las críticas no se han esperar. En primer lugar, porque el presidente mexicano había dicho en varias ocasiones que no lo vendería por menos de 110 millones de dólares, el valor del primer avalúo, porque era malbaratarlo, pero al final no recibió esa cantidad. Se habría vendido, según medios mexicano, por casi un 60% menos de lo que costó, 218 millones de dólares.
-Pero, además, también ha recibido duras críticas por tratarse Tayikistán de una dictadura, un país que, tras proclamar su independencia de la Unión Soviética en 1991 solo ha conocido un presidente, Emomali Rahmon, que lidera el país desde 1994 tras una guerra civil. Es la economía 104 del mundo, dependiente totalmente de Rusia y, como recuerda el medio Latinus, "un ciudadano de Tayikistán es en promedio 11 veces más pobre que un mexicano". Apoya además la invasión de Ucrania y según el Índice de Democracia que elabora la Unidad de Inteligencia de The Economist, ocupa el puesto 156 de 167 países. De ahí los reproches al mandatario mexicano, pues estaría vendiendo el avión presidencial, que él considera un gasto excesivo, a un país dictatorial y pobre, generándole así un gasto añadido.
-Desde que asumió la Presidencia en diciembre de 2018, López Obrador intentó vender el Boeing 787 adquirido por el presidente Felipe Calderón (2006-2012) por un controvertido precio de 218,7 millones de dólares, pero que llegó a México en 2016 durante la presidencia de Enrique Peña Nieto (2012-2018)
-López Obrador, quien incluso intentó rifar el vehículo en la Lotería Nacional en 2020, ha alegado en diversas ocasiones que la aeronave es "muy lujosa" y "muy extravagante", por lo que su Gobierno no ha podido venderla, aunque fue una de las principales promesas de su campaña.
-"Lo del avión se está viendo, hay la posibilidad de que se venda, no puedo decir más", expuso a la prensa al tiempo que avanzó la idea de que el dinero fuera para la construcción de los citados hospitales.
-La última vez que habló sobre un posible comprador fue en junio pasado, cuando afirmó que el Gobierno de Argentina estaba interesado en la aeronave.
-El mandatario, quien promueve una imagen de austeridad en el Gobierno, ha optado por no usar el avión y viajar en vuelos comerciales, además de prohibir a funcionarios públicos que lo utilicen.
-La aeronave está en manos del Ejército mexicano, que la almacena en la base militar área de Santa Lucía, al norte de Ciudad de México, donde el Gobierno ha ofrecido alquilarlo para bodas, cumpleaños y eventos corporativos.</t>
-        </is>
-      </c>
-    </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.larazon.es/espana/fiscalia-pide-seis-meses-prision-atropello-patinete-electrico_2023042164426a597adfa80001c522e9.html</t>
+          <t>https://www.larazon.es/economia/estos-son-alimentos-mas-afectados-sequia-subiran-precio-sector-agrario-aclara_202304216441d66b7adfa80001c452dd.html</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>Un hombre que atropelló con su patinete eléctrico a un peatón en Badalona (Barcelona) tras haber consumido cannabis se enfrenta a una posible condena de seis meses de prisión, la pena que reclama para él la Fiscalía por dos delitos contra la seguridad vial y otro de lesiones por imprudencia grave.
-El Ministerio Público solicita además que se le prive del derecho a conducir vehículos a motor y ciclomotores durante tres años y que se le condene a pagar una multa de 4.500 euros.
-Asimismo, reclama que indemnice a la víctima con 33.210 euros, al tiempo que establece la responsabilidad civil directa al respecto del Consorcio de Compensación de Seguros.
-Los hechos se produjeron el 14 de septiembre de 2021 cuando el acusado, R. M. S., circulaba por la avenida Martí Pujol de Badalona con su patinete "con sus facultades disminuidas a consecuencia de una previa ingestión de cannabis", lo que según señala la Fiscalía Provincial de Barcelona en su escrito de acusación, suponía un "riesgo para la seguridad vial".
-La víctima cruzaba un paso de peatones
-En el cruce con la calle de Enric Borrás, "haciendo caso omiso a las señales verticales de circulación", atropelló con su patinete (que puede alcanzar una velocidad máxima de 31,2 km/h) a J.B. que se encontraba cruzando correctamente el paso de peatones.
-El patinete eléctrico que conducía el acusado, catalogado como Lle-B, tiene la consideración de ciclomotor, por lo que -recuerda la Fiscalía en su escrito- tiene la consideración de ciclomotor y requiere de un permiso de conducir del que R. M. S. carecía "por no haberlo obtenido nunca".
-A consecuencia del siniestro, la víctima sufrió diversas lesiones (hemorragias, hematomas, contusiones e incluso una fractura) de las que tardó 276 días en recuperarse. Además, el accidente le ocasionó un síndrome postconmocional y un trastorno cognitivo leve.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/economia/estos-son-alimentos-mas-afectados-sequia-subiran-precio-sector-agrario-aclara_202304216441d66b7adfa80001c452dd.html</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
         <is>
           <t>Una pandemia, la guerra en Ucrania, la inflación disparada y ahora la sequía. El sector agroalimentario lleva varios años caminando en la delgada línea que separa la supervivencia de la ruina. Ahora, la falta de lluvia es su enemigo más peligroso y también el de los consumidores. Según un informe de situación realizado por COAG, la sequía asfixia ya al 60% del campo español y produce pérdidas irreversibles en más de 3,5 millones de hectáreas de cereales de secano. Muchas cosechas no podrán salir adelante, lo que hundirá la oferta e impactará en los precios, justo ahora que comenzaban a reducirse. No obstante, el secretario general de Agricultura y Alimentación, Fernando Miranda, cree que habrá que analizar los efectos de la sequía producto a producto y, por su parte, el sector considera que "no estaría justificada una nueva subida de precios en los supermercados con la excusa de la sequía".
 La situación del campo español no ha hecho más que empeorar. Si hace unas semanas el futuro de muchas cosechas aún estaba en duda, ahora la conclusión es clara: no saldrán adelante. Andrés Góngora, miembro de la ejecutiva de COAG, advierte del sombrío panorama al que se enfrenta el sector. A excepción del norte de España, no hay previsión de lluvias para el resto de territorios. Esto no sólo afectará a las cosechas que deberían recolectarse ahora, sino que también impedirá sembrar las de verano. "Es un problema serio. Se para el sector", avisa.
@@ -977,13 +966,13 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>https://www.larazon.es/salud/bienestar/hierba-aromatica-quemagrasas-que-elimina-gases-reduce-colesterol_20230418643e896c2f8deb0001564c7a.html</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Las hierbas aromáticas son plantas que se utilizan por sus propiedades aromáticas y/o medicinales. Durante miles de años, han sido muy valoradas por sus beneficios para la salud y por sus propiedades culinarias. Algunas de las hierbas aromáticas más comunes incluyen el orégano, la albahaca, el tomillo, el romero, la menta y el cilantro. Las hierbas aromáticas se utilizan en la cocina para agregar sabor y aroma a los alimentos. A menudo se usan para realzar el sabor de las carnes, verduras y ensaladas. También se pueden utilizar para crear adobos, salsas y marinadas.
 Un claro ejemplo de ello es el tomillo, muy valorado desde la antigüedad. Se utiliza comúnmente en la cocina para dar sabor a los platos, así como en la medicina natural para tratar diversas dolencias.
@@ -1008,33 +997,71 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/cultura/asi-convirtio-manfred-von-richthofen-leyenda-aviacion-baron-rojo_20230421644257ba7f1ecd000199fce0.html</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Manfred von Richthofen nació el 2 de mayo de 1892 en Breslavia, territorio que, en aquellos años, formaba parte de Alemania. Su familia tenía una larga tradición militar, por lo que Manfred se alistó en una academia militar a los 19 años.
+En dicha academia sobresalió por su habilidad con la equitación y el tiro, pero su gran pasión era la aviación. Con tan solo 21 años, un año antes de que explotara la Primera Guerra Mundial, Manfred ya obtuvo su licencia como piloto y decidió unirse al Regimiento de Aviación Nr 69.
+Al estallar la Primera Guerra Mundial, Manfred von Richthofen no lo dudó y puso en práctica todos sus conocimientos como piloto. Para los alemanes llegó a ser un héroe, sin embargo, los enemigos le temían aunque también se mostraban impresionados por sus tácticas aéreas.
+El sobrenombre de Barón Rojo
+Al observar su buen manejo, valentía y puntería, en 1916 fue asignado al escuadrón de caza Jagdstaffel 2. Allí decidió pintar su avión de rojo, motivo por el cual es conocido como Barón Rojo. Las razones por las que hizo esto pueden ser varias. No obstante, se dice que lo pintó de rojo para que sus enemigos le distinguieran mejor y para que así tuvieran más temor y supieran quién les había derrotado en ese combate aéreo en particular.
+Al fallecer su maestro y comandante del escuadrón de caza, Oswald Boelcke, el Barón Rojo tomó su relevo. En 58 misiones llegó a derribar 80 aviones, una proeza que hasta esa fecha no había conseguido nadie. Tal era su liderazgo, agudeza visual y puntería que al finalizar la campaña, su equipo había derribado 644 aviones y tan solo había sufrido 56 bajas. Este hito le sirvió para ganar la condecoración de la Cruz del Mérito.
+Manfred von Richthofen, el audaz piloto de la Primera Guerra Mundial también conocido como Barón Rojo La Razón
+Un año antes de morir, el 6 de julio de 1917, una bala perdida impactó en la cabeza del Barón Rojo. Aunque muchos creyeron que moriría, lo cierto es que el disparo solo ocasionó la pérdida parcial de vista. Por lo que siguió combatiendo y participando en diferentes persecuciones aéreas.
+Sin embargo, el temible Barón Rojo murió el 21 de abril de 1918 mientras sobrevolaba Francia persiguiendo a un grupo de aviones británicos. Hay varias versiones sobre quién lo mató o en qué parte del cuerpo fue el disparo. Sin embargo, la versión oficial decía que había sido el piloto canadiense Arthur Roy Brown a través de un disparo certero en el pecho. Otras nuevas investigaciones apuntan a un soldado de infantería australiano llamado William John que habría disparado desde tierra ya que el Barón Rojo volaba a baja altitud.
+Protagonizó tales hazañas que se ha convertido en un hito de la aviación, el cual se sigue recordando aun hoy, más de cien años después. Manfred von Richthofen finalmente fue enterrado con todos los honores militares. Tal respeto se había ganado con sus conocimientos aéreos que hasta los enemigos de las potencias aliadas le mandaron una corona en la que ponía "a nuestro enemigo galante y digno".
+En la lápida también lo recuerdan como una persona valiente. "Aquí yace un valiente, un noble adversario y un verdadero hombre de honor. Que descanse en paz". Su legado ha llegado hasta la actualidad donde a menudo se le recuerda en numerosas películas y documentales. Y aun hoy, sus hazañas aéreas siguen siendo ejemplo para muchos pilotos y fanáticos de la aviación.</t>
+        </is>
+      </c>
+    </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.larazon.es/castilla-y-leon/mariachis-son-cancion-rata-inmunda-policias-avila-alcalde_2023042164426ec8fc2730000150814b.html</t>
+          <t>https://www.larazon.es/ciencia/ultimo-desastre-3000-millones-dolares-elon-musk_2023042164423395fc27300001501278.html</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Unos cincuenta agentes de la Policía Local de Ávila se han manifestado a las puertas del Ayuntamiento para mostrar su “indignación” con las políticas de personal llevadas a cabo por el alcalde de la ciudad, Jesús Manuel Sánchez Cabrera, y su equipo de gobierno a lo largo de estos cuatro años de mandato.
-Acompañados de una banda de mariachis y cantando la canción de ‘rata inmunda’, los agentes de la Policía Local de Ávila han anunciado una nueva manifestación de cara al último pleno del mes de abril.
-Durante las protestas, el delegado de personal de El Sindicato Profesional de Policías Municipales de Castilla y León (SPPMCyL) en Ávila, Francisco Javier Sanz, ha sido el encargado de leer un manifiesto en el que denunciaban, nuevamente, “la falta de negociación en estos cuatro años”.
-“Ha sido una auténtica chapuza (...) Las mesas de negociación no han sido adecuadas a nuestro modo de ver, ni provechosas y han acabado sin acuerdos”, han apuntado. Reconocen que ha habido voluntad política para desarrollar un Plan de Igualdad, sin embargo, “a día de hoy no se ha aprobado nada porque no han actualizado la información”.
-Los calendarios laborales también han sido objeto de crítica por parte de los agentes de la Policía Local, ya que aseguran que han sido “implantados” con “el voto mayoritario de los sindicatos en contra”. “Hay ciertas peculiaridades que no han quedado bien definidas, como hemos hecho constar al teniente alcalde en varias ocasiones”, han confesado.
-Los agentes se muestran preocupados porque “han vuelto a dejar caducar las plazas de la Policía Local”.
-Concretamente, la plaza de intendente que “este año ni siquiera se ha convocado” y no entienden el por qué “cuando venía en convocatorias anteriores y las han ido dejando caducar”, así como las de inspector o las de subinspector, “que tienen que convocar de nuevo” porque es “la cuarta vez que se caduca” y llevan más de 10 años esperando las plazas para subinspector.
-Por ello, recordaban, tal y como ya lo hizo el Procurador del Común, que algunos agentes llevan “más de 10 años esperando para ascender, esperando su derecho de promoción y cuatro de ellos durante este mandato”.
-También han criticado que “los puestos de trabajo de los grupos más altos en este Ayuntamiento (A1 y A2) han sido revalorizados” lo que “ha obligado al resto a hacer una reclamación para la valoración de su puesto de trabajo en igualdad”. “Hay más de una veintena de sentencias judiciales a nuestro favor”, han argumentado. Sentencias que se han recurrido a Burgos buscando “justicia y respeto”.</t>
+          <t>Los años pasan factura para todos y, cuando nos dedicamos aprometer el oro y el moro, es cuestión de tiempo que la realidad haga mella en nuestra imagen. Hace unos años, Elon Musk era el magnate que salvaría al planeta. Muchos le veían como un genio inspirador que revolucionaría a la humanidad, salvaría la Tierra y nos llevaría a otros mundos. La culpa es nuestra por mitificar mortales y en eso tenemos experiencia. Poco a poco, las promesas incumplidas y los retrasos que ya se han vuelto firma de la casa Musk han ido mutando su imagen y, ahora, el multimillonario sudafricano ya no goza de tan buena prensa. Y por supuesto que a sus espaldas cuenta con una gran cantidad de logros, pero la opinión pública es dura y no está dispuesta a perdonar una. Ahora se enfrenta a un nuevo “fracaso”, la explosión del cohete Starship cuyo desarrollo ha costado 3.000 millones de dólares.
+¿Qué supone esto para la empresa? ¿Cómo afectará este fracaso a Musk? Pues depende. Depende de lo que la opinión pública quiera leer y de cómo esa confianza en sus empresas se refleje en la bolsa. No podemos predecir el futuro, y menos cuando entra en juego el mercado, pero hay que reconocer que Musk (y sus equipos) tiene una especial habilidad para salir airoso de estos baches empresariales. Pero, ahora bien, si lo que nos preguntamos es cómo afectará la explosión del Starship desde un punto de vista científico, la respuesta es sencilla: de ningún modo. En todo caso, si hay un impacto económico en Space X, puede que eso limite el progreso de las misiones, pero lo que ha ocurrido, a pesar de lo aparatoso que parece, es relativamente normal.
+De hecho, no debemos caer en el error de pensar que Musk ha perdido esos 3.000 millones de dólares. Eso es el coste de desarrollar el cohete, no solo de construirlo y lanzarlo. Por otro lado, Algunos medios indicaban que Musk y su equipo se sorprendieron al ver que Starship perdía el control, pero ¿realmente lo hicieron? Desde luego que no quedaron indiferentes, pero que fracasara un lanzamiento de prueba de una tecnología tan puntera como esta no debería sorprender a ningún ingeniero que se precie. Es una opción, no la más probable, pero desde luego tampoco una demasiado remota. Las misiones se retrasan y, algunas, sobre todo en fases iniciales, se tuercen. Space X está corriendo una maratón, no una carrera velocidad y es normal que se encuentre baches por el camino. Para llevar humanos a Marte, que es lo que se propone este proyecto Starship, hará falta mucho tiempo y muchos ensayos.
+Es casi inconcebible que, con una meta tan ambiciosa como esa, cada paso fuera un éxito inmediato. Pero claro, recordemos que parte de la estrategia publicitaria de Elon Musk consiste en prometerle a la prensa plazos irrealmente cortos para alcanzar sus objetivos. Eso ha proyectado unas expectativas inalcanzables en la conciencia colectiva y nos hemos vuelto menos tolerantes a lo que, en realidad, es un proceso relativamente normal en el sector de la astronáutica. Así que tendremos que esperar para todo. Un poco para descubrir cómo le afectará esta noticia a Musk y sus empresas y, desde luego, muchísimo más, para ver si este faraónico proyecto consigue llegar a buen puerto en algún momento del presente siglo.
+QUE NO TE LA CUELEN:
+Las grandes nubes que producen los cohetes al despegar pueden parecer muy contaminantes, pero, en realidad, son mayormente vapor de agua. El impacto medioambiental de estos lanzamientos no es nulo, pero es mucho menor de lo que solemos pensar.
+REFERENCIAS (MLA):
+Starship (no date) SpaceX. Available at: https://www.spacex.com/vehicles/starship/ (Accessed: April 21, 2023).</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>https://www.larazon.es/cataluna/consell-laudiovisual-caralunya-califica-libertad-expresion-insultos-burlas-tv3-virgen-rocio_20230421644279b189b71c00017081bf.html</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>El Pleno del Consell de l’Audiovisual de Catalunya (CAC) ha adoptado por unanimidad una resolución en la que considera que la parodia de la Virgen del Rocío que el programa “Està passant”, de TV3, emitió el 4 de abril en su sección “L'entrevista improvisada” se ampara en el derecho a la libertad de expresión.
+“La expresión satírica es una manifestación de la libre opinión de ideas, creencias y juicios de valor, que se utiliza como un instrumento de denuncia y de crítica social”, afirma el CAC.
+Aunque reconoce que dichas expresiones satíricas “pueden resultar desafortunadas, e incluso hirientes, especialmente para las personas que profesan la fe católica”, el CAC no aprecia en ellas ninguna vulneración de la normativa audiovisual.
+La resolución, que se ha elaborado a partir de un informe de contenidos, apunta que “L’Entrevista improvisada” incorpora elementos satíricos e irónicos en el marco de un programa de humor, por lo que no hay posibilidad de confusión respecto al propósito comunicativo del fragmento analizado.
+Además, señala que el conductor del programa, dejando de lado el registro humorístico, expresa su respeto hacia dichas creencias religiosas hasta en tres ocasiones distintas.
+Asimismo, cita diez acuerdos anteriores que el CAC ha elaborado sobre la libertad de expresión, además de diversas resoluciones y sentencias, varias de ellas de organismos internacionales, sobre el tratamiento de la religión y los límites de la libertad de expresión.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>https://www.larazon.es/madrid/banquillo-extrano-crimen-empresario-hotel-palace-madrid_2023042164426da17f1ecd00019a245c.html</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>La Audiencia Provincial de Madrid juzgará a partir del próximo lunes a dos acusados de la extraña muerte la madrugada del 29 de octubre de 2021 de un empresario en la habitación del Hotel The Westin Palace de Madrid.
 La víctima era José Rosado, un varón de 42 años de origen puertorriqueño, exconsejero delegado de Hijos de J. Barreras, el mayor astillero privado español.
@@ -1055,280 +1082,13 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/comunidad-valenciana/alicante/detenido-monitor-gimnasio-agresion-sexual-menor-14-anos-alicante_20230421644262ab89b71c000170590f.html</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Un monitor deportivo británico de 44 años ha quedado en libertad con cargos a raíz de una supuesta agresión sexual continuada entre los años 2018 y 2019 sobre una joven de 14 años de nacionalidad noruega en un gimnasio de l'Alfàs del Pi (Alicante).
-Fuentes del caso han informado a EFE de que los hechos sucedieron, presuntamente, entre abril de 2018 y octubre de 2019 cuando la víctima tenía 14 años y practicaba halterofilia en un gimnasio de l'Alfàs con el arrestado como monitor personal.
-En ese momento no trascendieron los hechos sino recientemente a raíz de una denuncia de la víctima en Noruega, tras lo cual un juzgado del país nórdico ha emitido una comisión rogatoria a España para la localización y detención del supuesto agresor, un británico que reside en Benidorm.
-El órgano judicial noruego también se ha solicitado la práctica de diversas diligencias, entre ellas la incautación de material informático del capturado y pruebas de ADN.
-Hace unos días, la Policía Nacional detuvo en la ciudad de Benidorm al sospechoso, defendido por el letrado Francisco González, y lo puso a disposición del juzgado de guardia de la ciudad, donde la titular del Instrucción número 2 ha decretado este jueves la libertad provisional con la obligación de comparecer si es requerido, según el auto judicial al que ha tenido acceso EFE.</t>
-        </is>
-      </c>
-    </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.larazon.es/internacional/refugiados-uagadugu-jefe-mataron-yihadistas-dia-cualquiera_2023042164423fba7adfa80001c4d29d.html</t>
+          <t>https://www.larazon.es/salud/alerta-aumento-casos-enfermedad-boca-mano-pie-sintomas-como-contagia_20230421644259a6fc27300001505a8f.html</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>Un problema recurrente en los campamentos de refugiados de todo el mundo se encuentra en la proliferación de mafias que utilizan a los más desfavorecidos para su provecho. Así, encontraríamos que estos supuestos núcleos de paz y de esperanza resultan en verdaderas academias que formarán en el arte de la muerte y del engaño a los niños y jóvenes, huérfanos, rabiosos y víctimas de sus tragedias. Los organismos y gobiernos afectados apenas pueden actuar contra estas mafias, ya que en ocasiones sirven de protección contra otros grupos más violentos o, peor todavía, hay casos en donde serían las propias mafias instaladas quienes atacarían y planearían atentados contra las comunidades de refugiados. Se establece así una protección hipócrita que puede encontrarse desde las células de Hezbolá infiltradas en los campos libaneses hasta las mafias cubanas que florecieron en Miami y dieron forma a la historia de Tony Montana.
-Con el fin de dificultar en la medida de lo posible la influencia yihadista que pesa sobre los campos de desplazados en los países del Sahel, el anterior gobierno de Burkina Faso (que fue depuesto tras un golpe de Estado hace siete meses) decidió distribuir a los huidos que se dirigen a la capital, Uagadugú, en diferentes viviendas de acogida, familias de la periferia, buenos cristianos y buenos musulmanes dispuestos a aceptar a otra familia venida de las zonas abrasadas por la guerra. Son seres humanos acogiendo a otros y, a priori, ésta no parece una mala medida para evitar la inserción de elementos radicales.
-Barthélémy Zongo es un activista burkinés en favor de los desplazados que vienen a parar al barrio Extension Ouaga 2000, a las afueras de la capital. Nos recibe con una sonrisa en el patio interior de lo que pronto será su recién inaugurado dispensario. Los sacos de cemento se amontonan en una esquina, un andamio de madera con aspecto quebradizo se eleva hasta el tejado, el cartel anunciando el dispensario está apoyado contra el muro y tiene la pintura roja y azul todavía brillante, como si la pintura fuera una analogía de la ilusión de Barthélémy. El activista contesta que sí, que la estrategia iniciada por el gobierno anterior es válida en algunos puntos, aunque no deja de cojear en otros.
-La disgregación de cada comunidad en localizaciones separadas dentro de la capital ha quebrado la construcción interna de los migrantes, que necesitan vivir en el mismo sitio, juntos, pared con pared como hacían en sus pueblos, para seguir desarrollando sus relaciones sociales de forma natural. En lo que respecta a las tradiciones de las comunidades afectadas, Barthélémy asegura que “los desplazados no pueden traerse consigo la montaña a la que rezan, los ríos... Y todo en lo que creen, incluso esas formas físicas que configuran sus creencias religiosas, se les ha arrebatado”. Teme que la disgregación física de las comunidades dentro de la capital, añadida a la pérdida de las representaciones físicas de sus creencias, afecte a medio o largo plazo a la supervivencia de sus culturas.
-Añade el escaso interés del Estado por ayudar a los desplazados. Al no encontrarse estos en un campo, sino mantenidos en cierta medida por familias de particulares que les acogen, el gobierno burkinés ha conseguido sacudirse así la responsabilidad económica hacia los desplazados que llegan en oleadas a la capital. Barthélémy ha procurado reunirse en repetidas ocasiones con el nuevo gobierno pero sólo ha recibido negativas, negativas, excusas, negativas. Una vez llegan a Uagadugú, la vida de los desplazados se convierte en un sálvese quien pueda. Algunos aguantan aquí meses, o años; otros prosiguen su gris peregrinaje en dirección a Costa de Marfil o Ghana, si no contactan con las mafias que les empujan al sueño europeo.
-Tradición versus Estado
-Barthélémy nos presenta a Bubakwanda Seiba, un agricultor de etnia mossi que llegó en 2019 a Uagadugú desde la localidad de Kelbo (provincia de Soum). Él, su mujer y sus cuatro hijos duermen en una casa que no les pertenece, mientras que, en sus palabras, “otros cuarenta miembros de mi pueblo viven en los diferentes barrios de la capital”. Podría decirse que ahora es un fijo discontinuo: trabaja dos o tres días a la semana de lo que toque, si hay suerte, hace sus apaños en la construcción y saca algunos francos como transportista. Quiere volver a casa, lo desea con una fuerza maniatada por su situación, aunque teme que otros le hayan quitado la tierra que se le quedó atrás y encontrarse sin nada que cuando regrese.
-Babobo Arbinda, otro agricultor expulsado de su tierra que se hallaba presente en la reunión, saltó entonces y aseguró que “a mi jefe le mataron los yihadistas un día cualquiera y luego dijeron a los supervivientes que debían abandonar el pueblo”. En la imagen que trazaba mientras describía el momento en que su vida y la de sus vecinos se hizo pedazos casi que se veía a los terroristas con un cronómetro en lugar de los fusiles. Tuvieron que elegir entre marcharse a la capital o encontrarse con la misma suerte que su jefe. Si Bubakwanda había comentado con anterioridad que acudiría a su jefe en caso de encontrarse con que otro le robó el terreno, Babobo añadió con amargura que él no tenía un jefe al que acudir.
-Resulta revelador que, al ser específicamente preguntados sobre ello, tanto Babobo y Bubakwanda como las otras personas allí presentes negaron que acudirían al gobierno para poner fin a una disputa por la tierra. La autoridad en un juicio de esta categoría parecían tenerla sólo sus jefes. En este espectro de costumbres disfrazadas bajo una decepcionante falta de confianza en el Estado y la furiosa supervivencia de comunidades descuartizadas por la geografía de la capital, se ven luces, esa supervivencia, y sombras, una sociedad desconfiada del Estado que resuelve sus disputas a las espaldas de la ley. Entran de lleno entonces los conflictos morales donde podríamos preguntarnos qué pesa más, si una sombra o una luz.
-El triunfador
-De los seis desplazados entrevistados, sólo uno, Amadou Konsebo, pudo decir que tiene un empleo diario. Trabaja como herrero a cambio de una paga generosa que le permite mantener a tres esposas (con la última se casó hace cuatro meses) y nueve niños. Se le aprecia como un hombre vigoroso. Su primera mujer cocina y cuida de la casa, la segunda vende bolsas de cacahuetes en el barrio y la más joven cuida de los niños. Comenzó a alquilar una casa desde que llegó en febrero de 2020 y responde que fue a Uagadugú porque tenía a varios conocidos gracias a sus negocios previos con la capital. En su pueblo era herrero de profesión, aunque también se define como “mercader a tiempo parcial”, mercader de qué, “mercader de pitillos”. Ahora afirma ser sólo herrero.
-A Amadou le iba bien. El resto de los hombres le aplaudían o le miraban con respeto. Era la suya una historia de éxito en Uagadugú, la viva imagen del sueño burkinés que persiguen decenas de miles de desplazados menos afortunados que él. Tres esposas, nueve hijos, sus amigos le hacían bromas con esto y gesticulaban como diciendo que era un tipo fuerte.
-Queda entonces claro que, contrario a lo que se diría, no todo es crimen, miseria o lástima en el mundo de los desplazados. También hay historias de éxito. Tradiciones que se mantienen a contracorriente y que se traducen en sistemas cohesionados con ansias de regresar a la tierra de sus padres pero que, a su vez, o al menos en el caso de Amadou, desarraigan a los hombres de éxito. Porque Amadou no tenía pensado volver a casa pese a que las cosas se calmaran. En casa mataron a su hermano. Los yihadistas le pegaron un tiro, pum, y no volvió a levantarse del suelo arenoso de la aldea de Tanbremba, en la región del Sahel. Al día siguiente del asesinato de su hermano fue cuando Amadou cogió a su familia y se marchó de allí. Hasta hoy.
-Amadou no volverá a su tierra. Y espera que sus hijos tampoco lo hagan. Su tierra es ahora esta capital de trajines y oportunidades que le acogió como a un hijo que vuelve de un viaje complicado, sus nuevas tradiciones siguen el ritmo del claxon y el tintineo dulce de las monedas, su jefe es ahora el jefe que haya aquí, hasta que Amadou transmuta una noche cualquiera y deja de ser un refugiado para transformarse en un ciudadano más de la capital. Los más de dos millones de desplazados internos que hay en el país (un 10% de la población) se rebajan un número.
-El trauma siempre acecha a un refugiado. Estos hombres aguantaron entre cuatro y cinco años mientras el yihadismo ya ocupaba de facto sus territorios, con tesón, agarrados a las raíces de sus campos. Y al cuarto o quinto año mataron al jefe, a su hermano, les echaron adonde fuera menos a su hogar y el de sus antepasados, a los arrabales de la capital burkinesa donde uno de cada seis encuestados consigue su sueño. Aunque el sueño de verdad de Amadou Konsebo, según dice, es ser gerente de un hotel.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/economia/riders-autonomos-franceses-cobraran-salario-minimo-1175-euros-hora_20230421644277937f1ecd00019a3675.html</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Los "riders" autónomos franceses cobrarán un salario mínimo de 11,75 euros por hora. Tras seis meses de negociaciones, el sindicato FNAE ha alcanzado con la asociación sectorial API -de la que son miembros Uber Eats, Deliveroo y Stuart- un primer acuerdo que fortalece las condiciones laborales de los repartidores autónomos de plataforma en Francia. Se suman así a sus compañeros conductores autónomos de VTC que en enero lograron un acuerdo para cobrar un mínimo de 7,65 euros por viaje, un 27% más que los seis euros que se les abonaban hasta el momento.
-"En el futuro será imposible (...) que un repartidor pueda ganar menos de 11,75 euros por hora de trabajo efectivo", indicó en un comunicado Grégoire Leclercq, presidente de la FNAE. "Es una victoria inmediata para los repartidores, de los que al menos el 20% están por debajo de este umbral", añadió. Por su parte, el sindicato Union Independants consultará esta medida con los repartidores y tiene la posibilidad de firmar el acuerdo en futuras fases.
-Así, por primera vez en el sector, los trabajadores autónomos recibirán una garantía de salario mínimo por hora, independientemente de la plataforma para la que trabajen, ya que el acuerdo fija que el mínimo salarial se aplicará a todas las plataformas ya existentes y futuras. Teniendo en cuenta que actualmente el salario mínimo francés por hora es de 11,27 euros brutos, es decir, sin descontar impuestos y cotizaciones sociales, el salario de los repartidores de plataforma será algo superior.
-Además, esta garantía se aplicará no sólo al propio tiempo de entrega, sino también al tiempo que el repartidor invierte en recoger y dejar el pedido, incluyendo posibles esperas, "lo que convierte este suelo mínimo de ingresos en una nueva garantía para asegurar que cada trabajador independiente reciba una compensación justa por su trabajo en las plataformas", apunta la API en un comunicado. Obviamente, los mensajeros tienen la posibilidad de ganar más de 11,75 euros la hora en función de sus niveles de actividad. De hecho, para garantizar que maximizan sus ganancias, las plataformas se han comprometido a proporcionar a los repartidores información en tiempo real sobre las áreas con mayor demanda.
-Los sindicatos y las plataformas también alcanzaron otro acuerdo para regular las finalizaciones de contrato, con el fin de evitar desconexiones (despidos) arbitrarias. El nuevo marco acordado exige mayor transparencia sobre las diferentes razones que conducen a la desconexión de un repartidor y sobre los procesos de apelación existentes. Además, se contemplan medidas preventivas para evitar la desconexión, como la notificación de incidencias o la lucha contra las acusaciones falsas de clientes. Los interlocutores sociales también querían tener en cuenta la situación de los mensajeros extranjeros introduciendo un plazo de preaviso antes de la expiración de un documento de identidad que les permitiera trabajar en Francia.
-¿Esta medida sería posible en España?
-A diferencia de España, donde la “Ley Rider” establece la presunción de laboralidad para todos los repartidores de plataformas, Francia tiene regulado el “Auto-entrepreneur”, una figura laboral que permite que los trabajadores de plataformas digitales operen plenamente como autónomos.
-En España tanto Glovo como Uber Eats operan parcialmente con autónomos, alegando que su modelo esquiva la presunción de laboralidad de la “Ley Rider”. Estos trabajadores no tienen reconocido el derecho a representación sindical, reservado para los repartidores asalariados. Por lo tanto, si las asociaciones de “riders” autónomos se sentaran a hablar con las empresas para reclamar un salario mínimo su poder de negociación sería nulo y quedarían a merced de la decisión empresarial. Así, este salario mínimo para repartidores autónomos que se ha acorado en Francia debería ser una concesión de las plataformas de reparto en España, que se topan con la posibilidad de que esta mejora de condiciones pueda conllevar un incumplimiento de la “Ley Rider”.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/internacional/dimite-ministro-britanico-justicia-acusado-acoso-laboral_20230421644257157adfa80001c4ff5e.html</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>El ministro británico de Justicia, Dominic Raab, presentó este viernes su dimisión tras la publicación de un informe que confirmaba las acusaciones vertidas contra él por su supuesto acoso laboral a funcionarios durante su paso por diferentes carteras ministeriales.
-En una carta difundida a través de Twitter, el también viceprimer ministro, uno de los aliados más estrechos del jefe del Gobierno, Rishi Sunak, explicó que renuncia como se había comprometido a hacerlo si el informe elaborado por el abogado Adam Tolley contenía "cualquier hallazgo de acoso", pese a que rechaza haberlo cometido.
-"Yo pedí la investigación y me comprometí a renunciar si contenía cualquier hallazgo de 'bullying'. Creo que es importante mantener mi palabra", escribe en su carta de dimisión.
-Pese a todo, Raab considera que "al poner un rasero para el acoso tan bajo, esta investigación sienta un precedente peligroso".
-A su juicio, alentará "quejas espurias contra ministros" y tendrá un efecto pernicioso sobre "quienes impulsan los cambios" en el Gobierno de Sunak.
-Aunque el informe no se ha hecho público aún, Raab asegura que la investigación "ha descartado todas las acusaciones (un total de ocho) salvo dos", y que esas dos "contenían errores".
-Y considera igualmente que los ministros deben tener capacidad para dar "respuestas directas críticas" a sus subordinados.
-La renuncia de Raab supone un fuerte varapalo político para el primer ministro, que contó con su apoyo desde el primer momento en que lanzó su candidatura para liderar el Partido Conservador.
-Se espera ahora que Sunak acometa una pequeña remodelación ministerial, mientras persisten las dudas sobre si estaba al corriente de las quejas contra su aliado antes de nombrarle de nuevo al frente de Justicia el pasado 25 de octubre.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/cataluna/archivan-causa-cinco-agentes-mossos-supuestas-torturas-joven-protestas-favor-rapero-pablo-hasel_20230421644276c97f1ecd00019a3451.html</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Un juez de Vic ha archivado la causa abierta a raíz de la querella por torturas y lesiones que presentó contra cinco mossos d’esquadra una manifestante detenida en febrero de 2021 por los disturbios en las protestas por el encarcelamiento del rapero Pablo Hasel.
-En un auto, el titular del juzgado de instrucción número seis de Vic acuerda el sobreseimiento provisional de la querella, que acusaba a los agentes antidisturbios de haber golpeado a la manifestante dentro del furgón policial durante la detención y añadía que uno de los policías había puesto los genitales en sus manos.
-El juzgado considera que la declaración de la mujer “no aparece suficientemente corroborada” y descarta los vídeos aportados por su abogado como prueba, ya que entiende que “no puede resolverse que los agentes procediesen de la manera indicada por la denunciante”.
-Según el juez, en los informes médicos aportados por la mujer no quedan corroboradas las lesiones que ella denunció que le causaron los agentes, a quienes acusó de propinarle “patadas en la cara y en otras partes del cuerpo” y de golpearla en las lumbares “con un bastón policial”.
-Sin embargo, el informe médico sostiene que la paciente manifestó “dolor en muñeca izquierda” por la colocación de las esposas y negó “caídas, contusiones u otros traumatismos”.
-Además, el magistrado considera que es “imposible” que la pusieran de rodillas para golpearla dentro de la furgoneta, “atendido el espacio existente entre los asientos del vehículo”.
-Respecto a la acusación de que uno de los agentes se sacó sus genitales y se los acercó, el juzgado argumenta que el corto trayecto hasta la comisaría lo impide porque los antidisturbios llevan una serie de protecciones que tardarían en quitarse.
-Por ese motivo, el magistrado concede “mayor verosimilitud a lo declarado por los investigados”, quienes han sido defendidos por el letrado Xavier Todó, del Sindicat Autònom de Policia (SAP-FEPOL).
-El sindicato ha celebrado el sobreseimiento de esta denuncia, que a su parecer “deja clara la actuación de los efectivos policiales”.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/comunidad-valenciana/defensa-nacho-vidal-pide-archivar-causa-muerte-hombre-intoxicado-veneno-sapo-bufo_20230421644275b6fc27300001508ca8.html</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>La defensa de Nacho Vidal pedirá el sobreseimiento de la causa abierta contra el actor de cine para adultos por homicidio imprudente, del que se le acusa por la muerte de un fotógrafo que participaba en un supuesto ritual en 2019, al considerar que la última declaración de la forense "diluye su responsabilidad".
-El letrado Daniel Salvador, que defiende al actor y productor porno Ignacio Jordá, más conocido como Nacho Vidal, ha informado a EFE de que la forense ha ratificado su informe inicial ante el Juzgado de Primera Instancia número 2 de Xàtiva (Valencia), que instruye el caso, y afirma que la muerte se produjo por la "connivencia" de cocaína y el conocido como "veneno del sapo bufo".
-Según Salvador, la declaración de la forense "diluye la responsabilidad" del actor en el fallecimiento del fotógrafo, considera por ello que "no hay concurrencia de culpa" y pedirá el sobreseimiento de la causa sobre su defendido.
-El caso sigue en fase de instrucción, después de que tanto las defensas como la acusación particular recurriesen el procesamiento de Vidal por homicidio imprudente; los primeros por entender que no hubo tal homicidio y los segundos por considerar que el tipo penal debía ser más grave (homicidio doloso).
-El pasado mes de septiembre la Audiencia Provincial de Valencia ordenó reabrir la instrucción para la práctica de varias diligencias, entre ellas la declaración de la responsable del Instituto de Medicina Legal de Valencia, para que informase sobre las sustancias que se hallaron en el cuerpo de la víctima, las cantidades y la toxicidad o potencial letalidad de las mismas.
-Nacho Vidal se encuentra investigado por el Juzgado de Primera Instancia número 2 de Xàtiva (Valencia) por la muerte de un fotógrafo durante la celebración de un rito conocido como del sapo bufo, en que el que se ingiere cierta droga o toxina producida por este animal.
-Los hechos se produjeron el 28 de julio de 2019 en una vivienda de Enguera (Valencia) propiedad del encausado, quien según el auto de procesamiento de la instructora -posteriormente revocado- "actuaba como director" de esa práctica o rito.
-La magistrada consideró tras atender a los informes de la Guardia Civil y tomar declaración a los acusados (tres inicialmente, aunque la causa se sobreseyó respecto de una prima del actor y otro acusado), que la víctima falleció a causa de una reacción adversa a determinadas drogas, después de participar en una "práctica, rito o experiencia espiritual o mística" consistente en inhalar el humo de la combustión de las escamas del comúnmente conocido como "veneno del sapo bufo".
-La instructora señaló asimismo que esa experiencia se llevó a cabo "sin ningún tipo de precaución, por si la práctica se complicaba", ya que no consta que en la casa "hubiera material de primeros auxilios o desfibrilador alguno", ni que el investigado "supiera realizar correctamente una maniobra de recuperación respiratoria".</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/andalucia/jaen/donde-esta-monumento-natural-que-tiene-24-huellas-dinosaurios_2023042164425c0c89b71c0001704cb2.html</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Existe una recomendable exposición que ha visitado varios puntos de España que incluye más de 100 dinosaurios animatrónicos a escala real. El objetivo de esta conseguida muestra es recrear el mundo de estos animales gigantes, que fueron dueños de la Tierra hace más de 65 millones de años.
-También existen películas, museos, documentales o incluso parques de atracciones que aprovechan el atractivo que generan los dinosaurios entre niños, jóvenes y adultos. Lo que quizá menos gente sepa es que existe un monumento natural que precisamente nos transporte a ese pasado remoto: un yacimiento paleontológico en el que se encuentran una serie de 24 huellas de dinosaurios, pertenecientes al grupo de los Arcosaurios. Se trata del Monumento Natural Huellas de Dinosaurios en Santisteban del Puerto, en Jaén.
-Está constatado que estas huellas poseen una antigüedad superior a los 230 millones de años. Conocidas como icnitas, no son fáciles de encontrar. Señalan los expertos que para su formación es imprescindible que coincidan varias condiciones ambientales. Entre ellas, que el material sobre el que caminaran estos animales fuese distinto del que posteriormente se depositara encima. Casi con toda seguridad, estas huellas se imprimieron sobre sedimentos de un lecho de río o laguna para, más tarde, ser cubiertas por algún otro material que permitió su conservación a lo largo del tiempo, según explica el Catálogo de Espacios Naturales de Andalucía.
-Prosigue la explicación señalando que estos indicios, anteriores a la presencia del hombre en la Tierra, desvelan una valiosa información tanto de los animales que las originaron como del ambiente en el que vivían. La forma de las huellas revela que estos dinosaurios caminaban sobre dos patas, con unos movimientos similares a los de un canguro. Incluso se pueden conocer datos como su tamaño y peso aproximados, la edad y hábitos sociales.
-En este monumento natural, la disposición de las 24 icnitas en una misma dirección sugiere la escena de un grupo de animales dirigiéndose a algún lugar determinado. Los restos de polen o de vegetación, también fosilizados, desvelan unas condiciones ambientales muy diferentes a las actuales. La vegetación estaba formada por coníferas, palmeras y helechos propiciada por un clima más cálido y húmedo que el presente.
-El lugar está perfectamente acondicionado para su visita, con paneles informativos y un área recreativa infantil, a apenas un kilómetro del municipio.
-Este espacio fue declarado Monumento Natural en 2001 -según el artículo 12 de la Ley 4/1989, de 27 de marzo, de Conservación de los Espacios Naturales y de la Flora y Fauna Silvestres- ,por ser un "espacio o elementos de la naturaleza constituidos básicamente por formaciones de notoria singularidad, rareza o belleza, que merecen ser objeto de una protección especial, así como las formaciones geológicas, los yacimientos paleontológicos y demás elementos de la gea que reúnan un interés especial por la singularidad, rareza o belleza".</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/castilla-y-leon/secretos-pueblos-que-suman-mas-bonitos-espana_202304216442630e89b71c0001705a57.html</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Ya son 105 localidades las que forman parte del listado de los Pueblos Más bonitos de España. Y otros seis se sumaban este año tras la última asamblea celebrada a finales de este año. Una asociación que trata de promocionar a estos municipios con el fin de dar a conocer la belleza que atesoran y, de paso, atraer turismo a estos lugares.
-Y entre los seis pueblos seleccionados, dos se encuentran en Castilla y León. Se trata de los municipios de Castrojeriz (Burgos) y el Burgo de Osma (Soria). Los otros cuatro son Durro, Arties y Garós (Lleida) y Trevélez (Granada).
-Así que vamos a dar un paseo por las dos localidades castellano y leonesa.
-Castrojeriz (Burgos)
-Situado en la provincia de Burgos, se trata de una parada destacada en el Camino de Santiago y que forma parte de la ruta turística de las cuatro villas de Amaya, junto a Villadiego, Melgar de Fernamental y Sasamón. Junto al río Odra, se cree que fue la antigua Castrum Sigerici y tiene configuración de pueblo del Camino, ya que las casas situadas a lo largo de una cella hacen que sea la más larga de todas las que existen en la ruta jacobea,
-Declarada Bien de Interés Cultural con la categoría de Conjunto Histórico, tiene varios edificios de obligada visita, Uno es su castillo, donde fue asesinada la reina Leonor de Castilla, pero también tiene lugares históricos como El Fuerte y La Torre.
-Otro Bien de Interés Cultural es la Iglesia de Santa María, San Juan y Santo Domingo, que perteneció a los Templarios, y que cuenta con un rosetón, soberbio ejemplar de estrella de cinco puntas. El edificio actual está erigido para enterramiento de varias familias de linaje y cuenta con un atractivo claustro del siglo XVI, así como varias capillas. Llama la atención también su retablo mayor y un coro.
-También se puede visitar la Iglesia de Nuestra Señora del Manzano y el Monasterio de Santa Clara, así como las ruinas del convento de San Antón, regido por los antonianos. Su hospital tuvo mucha importancia.
-Burgo de Osma (Soria)
-Y la otra localidad castellano y leonesa que entra en esta lista es El Burgo de Osma y que cuenta con un patrimonio sobresaliente. Empezando por su catedral, la de Santa María de la Asunción, declarada Bien de Interés Cultural en la categoría de Monumento en 1931.
-Plaza Mayor de El Burgo de Osma Ayuntamiento de El Burgo de Osma
-Otra de las paradas es el Antiguo Hospital de San Agustín, un edificio que preside la Plaza Mayor y que actualmente acoge el Centro Cultural de la Villa. También Bien de Interés Cultural en la categoría de Monumento el 11 de marzo de 1999.
-Y uno de los mejores ejemplos de plaza castellana se encuentra aquí, en su Plaza Mayor, donde se erige el Ayuntamiento, una construcción neomudéjar del año 1771. Pasear por aquí es adentrarse en otra época. Y a partir de aquí podemos disfrutar de varias calles portaladas (125 columnas en total), donde se puede ver diferentes muestras de arquitectura popular hasta llegar a uno de los símbolos de la villa: la fuente del Mono.
-Pero no acaba aquí su amplio patrimonio, ya que también cuenta con un palacio episcopal, una muralla, la Universidad de Santa Catalina. construida en 1550; el convento del Carmen; el seminario de Santo Domingo de Guzmán; el Hospicio o la Iglesia de Santa Cristina de Osma sin olvidarnos del Castillo de Osma.
-Además, el Burgo de Osma forma parte de la ruta turístico cultural "Camino del Cid".</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/tecnologia/nueva-funcion-whatsapp-que-hace-que-mensajes-temporales-sean-menos_202304216442659b89b71c0001705dc8.html</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Los mensajes temporales de WhatsApp llegaron a la aplicación de mensajería a finales de 2020 como un nivel adicional de privacidad que permitía que estos desaparecieran al cabo de 7 días. En 2021, WhatsApp aumentó las opciones sobre estos mensajes permitiendo al emisor elegir si quería que permanecieran en el dispositivo receptor 24 horas o 90 días, además de la opción ya conocida de una semana. Y ahora WhatsApp ha vuelto a modificar su comportamiento añadiendo la posibilidad de que el receptor de un mensaje temporal pueda guardarlo en su dispositivo sin que desaparezca al cabo del tiempo establecido por el emisor.
-Una medida de esta naturaleza desvirtuaría el sentido de los mensajes temporales si no fuera porque requerirá el consentimiento del emisor para que esto suceda. Es lo que WhatsApp califica como “un superpoder especial para quien envió el mensaje”.
-Según explica la compañía en su blog, la nueva característica Conservar en el chat permite al receptor de un mensaje temporal guardarlo e informa al emisor cuando esto sucede. Entonces este debe decidir si se lo permite o no y si toma esta última decisión el mensaje desaparecerá cuando el temporizador expire, sin que el receptor pueda evitarlo.
-Para conservar un mensaje temporal, habrá que mantenerlo pulsado prolongadamente y a continuación pulsar en el icono del marcador en la parte superior, tras lo que el emisor recibirá un aviso en su WhatsApp indicando que “Alguien conservó tu mensaje para poder volver a leerlo” y podrá denegar o confirmar la petición de eliminar la temporalidad del mensaje seleccionado.
-Los mensajes guardados por el receptor estarán disponibles a través del icono del marcador en la carpeta Mensajes Conservados y organizados por chats. Esta nueva característica se desplegará en todo el mundo en las próximas semanas.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/deportes/negreira-admite-que-gasto-miles-euros-acompanar-arbitros-que-pitaban-barcelona_2023042164424edb7adfa80001c4f126.html</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>El 'caso Negreira' cada vez suma nuevas informaciones. Javier Enríquez Romero, el hijo de Enríquez Negreira, reconoció a Hacienda que cobró del FC Barcelona por "acompañar prácticamente cada semana" a los equipos arbitrales que llegaban a la Ciudad Condal para pitar al Barça, tal y como apunta "El Confidencial". Una de las empresas de Enríquez Romero, Soccercam SL, presentó a la Agencia Tributaria gastos relacionados con ese y otros servicios similares por un importe cercano a los 100.000 euros.
-El asunto es que Hacienda cuestionó gran parte de los gastos presentados por Soccercam SL, entre ellos, varios importes relacionados con la compra y mantenimiento de un vehículo. Enríquez Romero alegó que tenía derecho a deducirse esas partidas porque se trataba de costes "necesarios y afectos a la actividad de la sociedad". "Concretamente", explicó el hijo de Negreira, "dicho vehículo sirve para acompañar a un equipo arbitral".
-El artículo 286 bis del Código Penal que regula el delito de corrupción en los negocios (vigente desde 2010) castiga con penas de prisión de seis meses a cuatro años, y de inhabilitación de uno a seis años, a los "directivos, administradores, empleados o colaboradores de una entidad deportiva", así como a los deportistas y árbitros que reciban, soliciten o acepten "un beneficio o ventaja no justificados" o la mera promesa de obtenerlo "como contraprestación para favorecer indebidamente a otro".
-El propio Negreira ya explicó ante la Fiscalía cómo era su relación con el club culé. "Nunca he querido cobrar porque yo ya tenía mi empresa y cobraba del Fútbol Club Barcelona. Nos reuníamos en Madrid cada semana o cada 15 días. Lo que hacíamos era revisar los informes que hacen los árbitros después de cada partido (se refiere al acta) y puntuarlos. También teníamos un informador de la federación que revisaba si el arbitraje había sido correcto. Preparar charlas técnicas a los árbitros. Reunirnos con los presidentes regionales". "Ir a ver los partidos personalmente o a través de compañeros exarbitros y estar informado del porqué se habían tomado decisiones. El Fútbol Club Barcelona consideraba que se perjudicaba al equipo y se favorecía a otros equipos. Esto es una hipótesis personal, nadie me lo ha dicho directamente. Mi obligación era dar mi opinión sobre los partidos en cuanto al arbitraje y a los jugadores. Asesoramiento técnico. Lo que el Fútbol Club Barcelona quería era asegurarse que no se tomaban decisiones en su contra, que todo fuera neutral", afirmó.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/deportes/aterradora-confesion-arbitro-que-denuncio-presiones-negreira-han-amenazado-bala_202304216442331b89b71c0001700015.html</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Sergi Albert confesó hace un tiempo cómo operaba Negreira. "La mano negra del Comité de Árbitros también se aprovechaba de los informes de los delegados-informadores para pasárselos al F.C. Barcelona. Si tenía poder en los informes tenía poder para influir en las designaciones de los árbitros cuando se pasó de elección aleatoria por ordenador a designación por un grupo de ex árbitros", destaca.
-Sergi habló en Radio Marca para confesar lo que le había sucedido. "Para mí es una amenaza. Y puede venir del entorno de Enríquez Negreira. Su hijo, como propietario de la plaza, sabía que yo también tengo una plaza de garaje ahí. De hecho, hemos coincidido en reuniones de propietarios. Me llama mucho la atención que me dejen una bala en mi plaza", contó.
-"Me enteré el jueves pasado. Llamé al administrador de fincas para comprobarlo y un vecino que estaba en el párking también lo vio. Llamaron a los mossos y levantaron acta. Mañana me personaré en comisaría".
-"Para mí es una amenaza. Y puede venir del entorno de Enríquez Negreira. Su hijo, como propietario de la plaza, sabía que yo también tengo una plaza de garaje ahí. De hecho, hemos coincidido en reuniones de propietarios. Me llama mucho la atención que me dejen una bala en mi plaza", concluye.
-El artículo 286 bis del Código Penal que regula el delito de corrupción en los negocios (vigente desde 2010) castiga con penas de prisión de seis meses a cuatro años, y de inhabilitación de uno a seis años, a los "directivos, administradores, empleados o colaboradores de una entidad deportiva", así como a los deportistas y árbitros que reciban, soliciten o acepten "un beneficio o ventaja no justificados" o la mera promesa de obtenerlo "como contraprestación para favorecer indebidamente a otro".</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/deportes/futbol/tebas-rubiales-ponen-acuerdo-avalan-que-real-madrid-acuse-como-perjudicado-caso-negreira_20230420644166567adfa80001c3bf62.html</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Tradicionalmente enfrentados, Luis Rubiales y Javier Tebas se han puesto de acuerdo en el "caso Negreira": tanto la Real Federación Española de Fútbol (RFEF) como la Liga de Fútbol Profesional (LFP) han trasladado a la jueza Silvia López Mejía -que investiga los pagos que por un montante de 7,5 millones hizo el FC Barcelona al entonces vicepresidente de los árbitros, José María Enríquez Negreira- que no se oponen a que el Real Madrid ejerza la acusación particular como perjudicado. Una posición en el proceso que también respalda la Fiscalía Anticorrupción, pero a la que se oponen tanto la entidad que preside Joan Laporta como los exmandatarios culés Josep Maria Bartomeu y Sandro Rosell.
-En el escrito remitido por LaLiga, al que ha tenido acceso LA RAZÓN, el organismo que preside Javier Tebas asegura que no tiene "objeción alguna" respecto a que el Real Madrid "ostente la condición de acusación particular". Para la LFP es "público y notorio" que en otros procedimientos judiciales en similares circunstancias "se ha permitido que clubes afiliados a LaLiga participaran en el procedimiento en condición de acusación particular". Y la jurisprudencia que avala este hecho, añade, es además "reiterada".
-Mucho más escuetos, los abogados de la Federación que preside Luis Rubiales han hecho saber a la magistrada en otro escrito del pasado día 13 que la RFEF "no se opone a la personación" del Real Madrid "en los términos interesados" (es decir, en calidad de perjudicado).
-Portazo al socio madridista
-En lo que sí discrepan es en la posible personación del socio madridista como acusación popular (para ejercerla no es necesario ser perjudicado). Mientras que la LFP defiende que "en tanto que el Real Madrid ejercitaría la acusación particular para la defensa de sus intereses" la personación de sus socios "debería serlo a título de acusación popular", la RFEF cierra también la puerta a esta segunda posibilidad. Y es que según ponen de relieve sus abogados "no cumple con el requisito de formulación de querella" y, además, "no puede ser sujeto pasivo del delito" que se investiga, el de corrupción entre particulares.
-Además, la Federación recuerda que el árbitro Xavier Estrada ya ejerce la acusación popular, por lo que insiste que de permitir la presencia en la causa de más acciones populares deberían ser "agrupadas bajo la misma representación procesal" de aquella.
-La Fiscalía tampoco ve motivos para que el socio madridista ejerza la acusación particular o la popular. "La genérica alusión a la condición de socio -argumenta Anticorrupción- no colma en absoluto los mínimos necesarios para ser considerado perjudicado". Abrirle esa posibilidad, advierte, "nos llevaría al absurdo jurídico y social de tener que asumir, con idénticos argumentos", la personación de "cualquier otro socio de cualquier otro club que hubiese competido por el título de liga con el FC Barcelona durante el periodo investigado".
-Fiscalía: "Convergencia de intereses"
-Para Anticorrupción, que tanto el Real Madrid como el citado socio ejercieran la acusación en calidad de perjudicados "duplicaría absurda e innecesariamente sus intervenciones procesales". Y es que, según la Fiscalía, "únicamente concurre la condición de perjudicado en el Real Madrid". Y en caso de que la magistrada acceda a que Sáenz de Tejada se persone como acusación popular, la Fiscalía pide que intervenga en la causa bajo la misma representación que el club de Concha Espina ante la "evidente convergencia de intereses".
-El Real Madrid justificó su pretensión de ejercer la acusación particular en que los hechos investigados, "tendentes a favorecer" a uno de sus principales competidores "en la "toma de decisiones de los árbitros, y de esa forma, en los resultados", "indudablemente le perjudicaron". Pero tanto el Barça como los expresidentes azulgranas Bartomeu y Rosell no ven por ningún lado esos supuestos perjuicios. Para la defensa de Bartomeu, en los hechos investigados no existe "el más mínimo indicio de perjuicio" contra la entidad madridista que justifique su presencia en la causa como perjudicado. Para los dos expresidentes culés el club madridista ya está representado en la causa por LaLiga y la RFEF.</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/deportes/prensa-inglesa-carga-gea-futbolista-fantastico_20230421644263d3fc27300001506cf7.html</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>David de Gea ni mucho menos tuvo su mejor noche. El portero español cometió errores de gravedad que penalizaron a su equipo en la eliminación en Europa League. La prensa británica no dudó en cargar contra el meta español. El mítico Paul Scholes fue el primero en atacar al ex internacional español: "¡Creo que estaba poniendo nervioso a todo el equipo! Hay que preguntarse si encaja en la filosofía de Erik Ten Hag y si es el portero que el técnico neerlandés quiere para su futuro United. El United ha sido vergonzoso. Mira, es una noche difícil. Desde el primer minuto, De Gea patea el balón y a partir de ahí va cuesta abajo. El portero tuvo la culpa de los tres goles: falló el pase comprometiendo a Maguire; no pudo detener un cabezazo blando que pasó por encima de su cabeza y regaló el balón después de salir corriendo de su área para el tercero".
-Una de las pocas personas que le defendió fue su técnico, Ten Hag: "Es el portero que ha mantenido la portería a cero más veces en la Premier League, y eso demuestra que es un portero muy capaz". Hace unos días, David de Gea habló sobre las críticas: "Cuando mantenemos la portería a cero, significa que el equipo y yo hicimos un buen trabajo. La crítica siempre están ahí, no puedes complacer a todos, siempre hago lo mejor que puedo".
-De Gea ha vivido en primera persona un sinfín de críticas tanto en el Atleti como en la selección y ahora en el United. El portero suele hacer fácil lo imposible y difícil lo que, a priori, es más sencillo. Todo esto le ha perjudicado.
-Sin duda alguna, The Sun es el medio que más carga contra David. "Cruella Sevilla". "De Gea &amp; Maguirre make a real dog's dinner of it", una frase que viene acompañada por la fotografía del guardameta. "Vergonzosa salida de la Europa League" (Sky Sports), "En-Nesyri se duplica para enviar a un pésimo Manchester United a la ruina" (The Guardian) o "Desastre" y "Terrible actuación" (BBC), son otros de los titulares más llamativos.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/deportes/futbol/donde-esta-isco-120-dias-equipo-desaparecido-rechazar-ultima-opcion-espana_20230421644262cd7adfa80001c5159b.html</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Isco Alarcón celebra hoy su cumpleaños más amargo y no parece que vaya a recibir un regalo a modo de fichaje. De hecho, ni siquiera hay rastro de felicitaciones en redes sociales. A sus 31 años, nada se sabe de dónde y como está Isco, que sigue sin encontrar una salida tras su complicada ruptura con el Sevilla. Tras su frustrado fichaje por el Union Berlin, el futbolista atraviesa un auténtico "via crucis" al ver como pasan los días sin que su representante Jorge Mendes le encuentre destino. Aunque eso sí, el negocio que montó con Sara Sálamo le sigue proporcionando importantes beneficios económicos.
-Isco está desaparecido, no aparece en los medios y solo rompió su silencio para atajar las críticas y mostrar como se ejercita duramente en casa a la espera de una nueva oportunidad. "Mientras fuera continúa el ruido, dentro seguimos con la ilusión y el trabajo intactos”, es el mensaje con el que acompañó hace ya más de dos meses el vídeo de su entrenamiento. Una frase con la que quiso dejar claro que a pesar de todo no tira la toalla. Desde entonces, silencio absoluto. Su mujer, Sara Sálamo -siempre muy activa en redes sociales- también parece haber hecho un parón en sus publicaciones.
-Isco ha estado cerca de varios clubes de LaLiga Santander -incluido el Betis-, se rumoreó que existía una interesante oferta del Flamengo brasileño, otra de la MSL y la última de Boca Junior. Incluso en las últimas semanas se apuntó la posibilidad de dos nuevas oportunidades en Europa: En Turquía y en Grecia.
-Según explicó Calciomercato, Isco habría tenido sobre la mesa ofertas de Galatasaray, Fenerbahce, Besiktas o Basaksehir. Algunas de estas propuestas superarían ampliamente los 3 millones netos por campaña. Pero a Isco sigue sin seducirle la idea de marcharse a Turquía por lo que estas supuestas ofertas también han caído en saco roto.
-Isco, a sus 30 años, cuenta con un valor de mercado de cinco millones de euros, lo que -a pesar de una significativa caída desde los 90 millones que llegó a valer en 2018- le mantiene como el futbolista sin equipo más valioso del planeta, por encima de jugadores como Danny Rose, Iván Arboleda, Simeone Zaza o el español José Rodríguez. Algo que sin embrago, no le ha valido para cerrar su fichaje por ninguno de los clubes supuestamente interesados.
-Calabazas al torneo de Piqué
-Lo único que ha salido a la luz en los últimos días es su rechazo a la última oportunidad de seguir jugando en España. Ibai Llanos ha confirmado su propuesta a James Rodriguez e Isco pero ambos han dado calabazas a la Kings League. Los dos exfutbolistas del Real Madrid se encuentran sin equipo. El primero tras haber rescindido su contrato con el Olympiacos y el segundo desde que hiciera lo propio con el Sevilla. «¿Vistes que Isco y James son agentes libres?», le dijo a Ibai Llanos uno de sus seguidores durante uno de sus directos. «Sí, con Isco hablé y no hay posibilidad de momento de que venga a la Kings League y con James me imagino que tampoco. Es joven y va a querer ofertas de los equipos. No creo que se quiera retirar», señaló el presidente de Porcinos.
-Todo parece indicar que el futbolista pasará esta temporada en el dique seco y analizará sus opciones de cara a la próxima campaña.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/salud/alerta-aumento-casos-enfermedad-boca-mano-pie-sintomas-como-contagia_20230421644259a6fc27300001505a8f.html</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
         <is>
           <t>Con la llegada de la primavera y la subida de las temperaturas (el calor de marzo fue de récord histórico) la frecuencia con la que aparecen algunas enfermedades en España está aumentando peligrosamente con respecto a años anteriores. Es el caso de las alergias estacionales, que cada vez afectan a más niños y a edades más tempranas o, incluso, de enfermedades que parecían propias de climas tropicales como el dengue, pero que ya han aterrizado en nuestro país. A estos ejemplos se suman ahora brotes de fiebre y pápulas entre los más pequeños.
 Se trata de la enfermedad boca mano pie, una infección viral leve muy contagiosa que se presenta generalmente en niños menores de 6 años. Ha sido la Sociedad Española de Pediatría el organismo que ha alertado de que el número de consultas pediátricas por esta infección se ha incrementado de manera significativa tras la llegada del calor a la Península. Aunque hay casos por todo el mundo, esta patología es más frecuente en zonas tropicales. Es por ello que el aumento de las temperaturas en España podría estar detrás de su crecimiento.
@@ -1358,13 +1118,288 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/castilla-y-leon/mariachis-son-cancion-rata-inmunda-policias-avila-alcalde_2023042164426ec8fc2730000150814b.html</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Unos cincuenta agentes de la Policía Local de Ávila se han manifestado a las puertas del Ayuntamiento para mostrar su “indignación” con las políticas de personal llevadas a cabo por el alcalde de la ciudad, Jesús Manuel Sánchez Cabrera, y su equipo de gobierno a lo largo de estos cuatro años de mandato.
+Acompañados de una banda de mariachis y cantando la canción de ‘rata inmunda’, los agentes de la Policía Local de Ávila han anunciado una nueva manifestación de cara al último pleno del mes de abril.
+Durante las protestas, el delegado de personal de El Sindicato Profesional de Policías Municipales de Castilla y León (SPPMCyL) en Ávila, Francisco Javier Sanz, ha sido el encargado de leer un manifiesto en el que denunciaban, nuevamente, “la falta de negociación en estos cuatro años”.
+“Ha sido una auténtica chapuza (...) Las mesas de negociación no han sido adecuadas a nuestro modo de ver, ni provechosas y han acabado sin acuerdos”, han apuntado. Reconocen que ha habido voluntad política para desarrollar un Plan de Igualdad, sin embargo, “a día de hoy no se ha aprobado nada porque no han actualizado la información”.
+Los calendarios laborales también han sido objeto de crítica por parte de los agentes de la Policía Local, ya que aseguran que han sido “implantados” con “el voto mayoritario de los sindicatos en contra”. “Hay ciertas peculiaridades que no han quedado bien definidas, como hemos hecho constar al teniente alcalde en varias ocasiones”, han confesado.
+Los agentes se muestran preocupados porque “han vuelto a dejar caducar las plazas de la Policía Local”.
+Concretamente, la plaza de intendente que “este año ni siquiera se ha convocado” y no entienden el por qué “cuando venía en convocatorias anteriores y las han ido dejando caducar”, así como las de inspector o las de subinspector, “que tienen que convocar de nuevo” porque es “la cuarta vez que se caduca” y llevan más de 10 años esperando las plazas para subinspector.
+Por ello, recordaban, tal y como ya lo hizo el Procurador del Común, que algunos agentes llevan “más de 10 años esperando para ascender, esperando su derecho de promoción y cuatro de ellos durante este mandato”.
+También han criticado que “los puestos de trabajo de los grupos más altos en este Ayuntamiento (A1 y A2) han sido revalorizados” lo que “ha obligado al resto a hacer una reclamación para la valoración de su puesto de trabajo en igualdad”. “Hay más de una veintena de sentencias judiciales a nuestro favor”, han argumentado. Sentencias que se han recurrido a Burgos buscando “justicia y respeto”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/economia/riders-autonomos-franceses-cobraran-salario-minimo-1175-euros-hora_20230421644277937f1ecd00019a3675.html</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Los "riders" autónomos franceses cobrarán un salario mínimo de 11,75 euros por hora. Tras seis meses de negociaciones, el sindicato FNAE ha alcanzado con la asociación sectorial API -de la que son miembros Uber Eats, Deliveroo y Stuart- un primer acuerdo que fortalece las condiciones laborales de los repartidores autónomos de plataforma en Francia. Se suman así a sus compañeros conductores autónomos de VTC que en enero lograron un acuerdo para cobrar un mínimo de 7,65 euros por viaje, un 27% más que los seis euros que se les abonaban hasta el momento.
+"En el futuro será imposible (...) que un repartidor pueda ganar menos de 11,75 euros por hora de trabajo efectivo", indicó en un comunicado Grégoire Leclercq, presidente de la FNAE. "Es una victoria inmediata para los repartidores, de los que al menos el 20% están por debajo de este umbral", añadió. Por su parte, el sindicato Union Independants consultará esta medida con los repartidores y tiene la posibilidad de firmar el acuerdo en futuras fases.
+Así, por primera vez en el sector, los trabajadores autónomos recibirán una garantía de salario mínimo por hora, independientemente de la plataforma para la que trabajen, ya que el acuerdo fija que el mínimo salarial se aplicará a todas las plataformas ya existentes y futuras. Teniendo en cuenta que actualmente el salario mínimo francés por hora es de 11,27 euros brutos, es decir, sin descontar impuestos y cotizaciones sociales, el salario de los repartidores de plataforma será algo superior.
+Además, esta garantía se aplicará no sólo al propio tiempo de entrega, sino también al tiempo que el repartidor invierte en recoger y dejar el pedido, incluyendo posibles esperas, "lo que convierte este suelo mínimo de ingresos en una nueva garantía para asegurar que cada trabajador independiente reciba una compensación justa por su trabajo en las plataformas", apunta la API en un comunicado. Obviamente, los mensajeros tienen la posibilidad de ganar más de 11,75 euros la hora en función de sus niveles de actividad. De hecho, para garantizar que maximizan sus ganancias, las plataformas se han comprometido a proporcionar a los repartidores información en tiempo real sobre las áreas con mayor demanda.
+Los sindicatos y las plataformas también alcanzaron otro acuerdo para regular las finalizaciones de contrato, con el fin de evitar desconexiones (despidos) arbitrarias. El nuevo marco acordado exige mayor transparencia sobre las diferentes razones que conducen a la desconexión de un repartidor y sobre los procesos de apelación existentes. Además, se contemplan medidas preventivas para evitar la desconexión, como la notificación de incidencias o la lucha contra las acusaciones falsas de clientes. Los interlocutores sociales también querían tener en cuenta la situación de los mensajeros extranjeros introduciendo un plazo de preaviso antes de la expiración de un documento de identidad que les permitiera trabajar en Francia.
+¿Esta medida sería posible en España?
+A diferencia de España, donde la “Ley Rider” establece la presunción de laboralidad para todos los repartidores de plataformas, Francia tiene regulado el “Auto-entrepreneur”, una figura laboral que permite que los trabajadores de plataformas digitales operen plenamente como autónomos.
+En España tanto Glovo como Uber Eats operan parcialmente con autónomos, alegando que su modelo esquiva la presunción de laboralidad de la “Ley Rider”. Estos trabajadores no tienen reconocido el derecho a representación sindical, reservado para los repartidores asalariados. Por lo tanto, si las asociaciones de “riders” autónomos se sentaran a hablar con las empresas para reclamar un salario mínimo su poder de negociación sería nulo y quedarían a merced de la decisión empresarial. Así, este salario mínimo para repartidores autónomos que se ha acorado en Francia debería ser una concesión de las plataformas de reparto en España, que se topan con la posibilidad de que esta mejora de condiciones pueda conllevar un incumplimiento de la “Ley Rider”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/internacional/dimite-ministro-britanico-justicia-acusado-acoso-laboral_20230421644257157adfa80001c4ff5e.html</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>El ministro británico de Justicia, Dominic Raab, presentó este viernes su dimisión tras la publicación de un informe que confirmaba las acusaciones vertidas contra él por su supuesto acoso laboral a funcionarios durante su paso por diferentes carteras ministeriales.
+En una carta difundida a través de Twitter, el también viceprimer ministro, uno de los aliados más estrechos del jefe del Gobierno, Rishi Sunak, explicó que renuncia como se había comprometido a hacerlo si el informe elaborado por el abogado Adam Tolley contenía "cualquier hallazgo de acoso", pese a que rechaza haberlo cometido.
+"Yo pedí la investigación y me comprometí a renunciar si contenía cualquier hallazgo de 'bullying'. Creo que es importante mantener mi palabra", escribe en su carta de dimisión.
+Pese a todo, Raab considera que "al poner un rasero para el acoso tan bajo, esta investigación sienta un precedente peligroso".
+A su juicio, alentará "quejas espurias contra ministros" y tendrá un efecto pernicioso sobre "quienes impulsan los cambios" en el Gobierno de Sunak.
+Aunque el informe no se ha hecho público aún, Raab asegura que la investigación "ha descartado todas las acusaciones (un total de ocho) salvo dos", y que esas dos "contenían errores".
+Y considera igualmente que los ministros deben tener capacidad para dar "respuestas directas críticas" a sus subordinados.
+La renuncia de Raab supone un fuerte varapalo político para el primer ministro, que contó con su apoyo desde el primer momento en que lanzó su candidatura para liderar el Partido Conservador.
+Se espera ahora que Sunak acometa una pequeña remodelación ministerial, mientras persisten las dudas sobre si estaba al corriente de las quejas contra su aliado antes de nombrarle de nuevo al frente de Justicia el pasado 25 de octubre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/cataluna/archivan-causa-cinco-agentes-mossos-supuestas-torturas-joven-protestas-favor-rapero-pablo-hasel_20230421644276c97f1ecd00019a3451.html</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Un juez de Vic ha archivado la causa abierta a raíz de la querella por torturas y lesiones que presentó contra cinco mossos d’esquadra una manifestante detenida en febrero de 2021 por los disturbios en las protestas por el encarcelamiento del rapero Pablo Hasel.
+En un auto, el titular del juzgado de instrucción número seis de Vic acuerda el sobreseimiento provisional de la querella, que acusaba a los agentes antidisturbios de haber golpeado a la manifestante dentro del furgón policial durante la detención y añadía que uno de los policías había puesto los genitales en sus manos.
+El juzgado considera que la declaración de la mujer “no aparece suficientemente corroborada” y descarta los vídeos aportados por su abogado como prueba, ya que entiende que “no puede resolverse que los agentes procediesen de la manera indicada por la denunciante”.
+Según el juez, en los informes médicos aportados por la mujer no quedan corroboradas las lesiones que ella denunció que le causaron los agentes, a quienes acusó de propinarle “patadas en la cara y en otras partes del cuerpo” y de golpearla en las lumbares “con un bastón policial”.
+Sin embargo, el informe médico sostiene que la paciente manifestó “dolor en muñeca izquierda” por la colocación de las esposas y negó “caídas, contusiones u otros traumatismos”.
+Además, el magistrado considera que es “imposible” que la pusieran de rodillas para golpearla dentro de la furgoneta, “atendido el espacio existente entre los asientos del vehículo”.
+Respecto a la acusación de que uno de los agentes se sacó sus genitales y se los acercó, el juzgado argumenta que el corto trayecto hasta la comisaría lo impide porque los antidisturbios llevan una serie de protecciones que tardarían en quitarse.
+Por ese motivo, el magistrado concede “mayor verosimilitud a lo declarado por los investigados”, quienes han sido defendidos por el letrado Xavier Todó, del Sindicat Autònom de Policia (SAP-FEPOL).
+El sindicato ha celebrado el sobreseimiento de esta denuncia, que a su parecer “deja clara la actuación de los efectivos policiales”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/comunidad-valenciana/defensa-nacho-vidal-pide-archivar-causa-muerte-hombre-intoxicado-veneno-sapo-bufo_20230421644275b6fc27300001508ca8.html</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>La defensa de Nacho Vidal pedirá el sobreseimiento de la causa abierta contra el actor de cine para adultos por homicidio imprudente, del que se le acusa por la muerte de un fotógrafo que participaba en un supuesto ritual en 2019, al considerar que la última declaración de la forense "diluye su responsabilidad".
+El letrado Daniel Salvador, que defiende al actor y productor porno Ignacio Jordá, más conocido como Nacho Vidal, ha informado a EFE de que la forense ha ratificado su informe inicial ante el Juzgado de Primera Instancia número 2 de Xàtiva (Valencia), que instruye el caso, y afirma que la muerte se produjo por la "connivencia" de cocaína y el conocido como "veneno del sapo bufo".
+Según Salvador, la declaración de la forense "diluye la responsabilidad" del actor en el fallecimiento del fotógrafo, considera por ello que "no hay concurrencia de culpa" y pedirá el sobreseimiento de la causa sobre su defendido.
+El caso sigue en fase de instrucción, después de que tanto las defensas como la acusación particular recurriesen el procesamiento de Vidal por homicidio imprudente; los primeros por entender que no hubo tal homicidio y los segundos por considerar que el tipo penal debía ser más grave (homicidio doloso).
+El pasado mes de septiembre la Audiencia Provincial de Valencia ordenó reabrir la instrucción para la práctica de varias diligencias, entre ellas la declaración de la responsable del Instituto de Medicina Legal de Valencia, para que informase sobre las sustancias que se hallaron en el cuerpo de la víctima, las cantidades y la toxicidad o potencial letalidad de las mismas.
+Nacho Vidal se encuentra investigado por el Juzgado de Primera Instancia número 2 de Xàtiva (Valencia) por la muerte de un fotógrafo durante la celebración de un rito conocido como del sapo bufo, en que el que se ingiere cierta droga o toxina producida por este animal.
+Los hechos se produjeron el 28 de julio de 2019 en una vivienda de Enguera (Valencia) propiedad del encausado, quien según el auto de procesamiento de la instructora -posteriormente revocado- "actuaba como director" de esa práctica o rito.
+La magistrada consideró tras atender a los informes de la Guardia Civil y tomar declaración a los acusados (tres inicialmente, aunque la causa se sobreseyó respecto de una prima del actor y otro acusado), que la víctima falleció a causa de una reacción adversa a determinadas drogas, después de participar en una "práctica, rito o experiencia espiritual o mística" consistente en inhalar el humo de la combustión de las escamas del comúnmente conocido como "veneno del sapo bufo".
+La instructora señaló asimismo que esa experiencia se llevó a cabo "sin ningún tipo de precaución, por si la práctica se complicaba", ya que no consta que en la casa "hubiera material de primeros auxilios o desfibrilador alguno", ni que el investigado "supiera realizar correctamente una maniobra de recuperación respiratoria".</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/andalucia/jaen/donde-esta-monumento-natural-que-tiene-24-huellas-dinosaurios_2023042164425c0c89b71c0001704cb2.html</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Existe una recomendable exposición que ha visitado varios puntos de España que incluye más de 100 dinosaurios animatrónicos a escala real. El objetivo de esta conseguida muestra es recrear el mundo de estos animales gigantes, que fueron dueños de la Tierra hace más de 65 millones de años.
+También existen películas, museos, documentales o incluso parques de atracciones que aprovechan el atractivo que generan los dinosaurios entre niños, jóvenes y adultos. Lo que quizá menos gente sepa es que existe un monumento natural que precisamente nos transporte a ese pasado remoto: un yacimiento paleontológico en el que se encuentran una serie de 24 huellas de dinosaurios, pertenecientes al grupo de los Arcosaurios. Se trata del Monumento Natural Huellas de Dinosaurios en Santisteban del Puerto, en Jaén.
+Está constatado que estas huellas poseen una antigüedad superior a los 230 millones de años. Conocidas como icnitas, no son fáciles de encontrar. Señalan los expertos que para su formación es imprescindible que coincidan varias condiciones ambientales. Entre ellas, que el material sobre el que caminaran estos animales fuese distinto del que posteriormente se depositara encima. Casi con toda seguridad, estas huellas se imprimieron sobre sedimentos de un lecho de río o laguna para, más tarde, ser cubiertas por algún otro material que permitió su conservación a lo largo del tiempo, según explica el Catálogo de Espacios Naturales de Andalucía.
+Prosigue la explicación señalando que estos indicios, anteriores a la presencia del hombre en la Tierra, desvelan una valiosa información tanto de los animales que las originaron como del ambiente en el que vivían. La forma de las huellas revela que estos dinosaurios caminaban sobre dos patas, con unos movimientos similares a los de un canguro. Incluso se pueden conocer datos como su tamaño y peso aproximados, la edad y hábitos sociales.
+En este monumento natural, la disposición de las 24 icnitas en una misma dirección sugiere la escena de un grupo de animales dirigiéndose a algún lugar determinado. Los restos de polen o de vegetación, también fosilizados, desvelan unas condiciones ambientales muy diferentes a las actuales. La vegetación estaba formada por coníferas, palmeras y helechos propiciada por un clima más cálido y húmedo que el presente.
+El lugar está perfectamente acondicionado para su visita, con paneles informativos y un área recreativa infantil, a apenas un kilómetro del municipio.
+Este espacio fue declarado Monumento Natural en 2001 -según el artículo 12 de la Ley 4/1989, de 27 de marzo, de Conservación de los Espacios Naturales y de la Flora y Fauna Silvestres- ,por ser un "espacio o elementos de la naturaleza constituidos básicamente por formaciones de notoria singularidad, rareza o belleza, que merecen ser objeto de una protección especial, así como las formaciones geológicas, los yacimientos paleontológicos y demás elementos de la gea que reúnan un interés especial por la singularidad, rareza o belleza".</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/castilla-y-leon/secretos-pueblos-que-suman-mas-bonitos-espana_202304216442630e89b71c0001705a57.html</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Ya son 105 localidades las que forman parte del listado de los Pueblos Más bonitos de España. Y otros seis se sumaban este año tras la última asamblea celebrada a finales de este año. Una asociación que trata de promocionar a estos municipios con el fin de dar a conocer la belleza que atesoran y, de paso, atraer turismo a estos lugares.
+Y entre los seis pueblos seleccionados, dos se encuentran en Castilla y León. Se trata de los municipios de Castrojeriz (Burgos) y el Burgo de Osma (Soria). Los otros cuatro son Durro, Arties y Garós (Lleida) y Trevélez (Granada).
+Así que vamos a dar un paseo por las dos localidades castellano y leonesa.
+Castrojeriz (Burgos)
+Situado en la provincia de Burgos, se trata de una parada destacada en el Camino de Santiago y que forma parte de la ruta turística de las cuatro villas de Amaya, junto a Villadiego, Melgar de Fernamental y Sasamón. Junto al río Odra, se cree que fue la antigua Castrum Sigerici y tiene configuración de pueblo del Camino, ya que las casas situadas a lo largo de una cella hacen que sea la más larga de todas las que existen en la ruta jacobea,
+Declarada Bien de Interés Cultural con la categoría de Conjunto Histórico, tiene varios edificios de obligada visita, Uno es su castillo, donde fue asesinada la reina Leonor de Castilla, pero también tiene lugares históricos como El Fuerte y La Torre.
+Otro Bien de Interés Cultural es la Iglesia de Santa María, San Juan y Santo Domingo, que perteneció a los Templarios, y que cuenta con un rosetón, soberbio ejemplar de estrella de cinco puntas. El edificio actual está erigido para enterramiento de varias familias de linaje y cuenta con un atractivo claustro del siglo XVI, así como varias capillas. Llama la atención también su retablo mayor y un coro.
+También se puede visitar la Iglesia de Nuestra Señora del Manzano y el Monasterio de Santa Clara, así como las ruinas del convento de San Antón, regido por los antonianos. Su hospital tuvo mucha importancia.
+Burgo de Osma (Soria)
+Y la otra localidad castellano y leonesa que entra en esta lista es El Burgo de Osma y que cuenta con un patrimonio sobresaliente. Empezando por su catedral, la de Santa María de la Asunción, declarada Bien de Interés Cultural en la categoría de Monumento en 1931.
+Plaza Mayor de El Burgo de Osma Ayuntamiento de El Burgo de Osma
+Otra de las paradas es el Antiguo Hospital de San Agustín, un edificio que preside la Plaza Mayor y que actualmente acoge el Centro Cultural de la Villa. También Bien de Interés Cultural en la categoría de Monumento el 11 de marzo de 1999.
+Y uno de los mejores ejemplos de plaza castellana se encuentra aquí, en su Plaza Mayor, donde se erige el Ayuntamiento, una construcción neomudéjar del año 1771. Pasear por aquí es adentrarse en otra época. Y a partir de aquí podemos disfrutar de varias calles portaladas (125 columnas en total), donde se puede ver diferentes muestras de arquitectura popular hasta llegar a uno de los símbolos de la villa: la fuente del Mono.
+Pero no acaba aquí su amplio patrimonio, ya que también cuenta con un palacio episcopal, una muralla, la Universidad de Santa Catalina. construida en 1550; el convento del Carmen; el seminario de Santo Domingo de Guzmán; el Hospicio o la Iglesia de Santa Cristina de Osma sin olvidarnos del Castillo de Osma.
+Además, el Burgo de Osma forma parte de la ruta turístico cultural "Camino del Cid".</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/tecnologia/nueva-funcion-whatsapp-que-hace-que-mensajes-temporales-sean-menos_202304216442659b89b71c0001705dc8.html</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Los mensajes temporales de WhatsApp llegaron a la aplicación de mensajería a finales de 2020 como un nivel adicional de privacidad que permitía que estos desaparecieran al cabo de 7 días. En 2021, WhatsApp aumentó las opciones sobre estos mensajes permitiendo al emisor elegir si quería que permanecieran en el dispositivo receptor 24 horas o 90 días, además de la opción ya conocida de una semana. Y ahora WhatsApp ha vuelto a modificar su comportamiento añadiendo la posibilidad de que el receptor de un mensaje temporal pueda guardarlo en su dispositivo sin que desaparezca al cabo del tiempo establecido por el emisor.
+Una medida de esta naturaleza desvirtuaría el sentido de los mensajes temporales si no fuera porque requerirá el consentimiento del emisor para que esto suceda. Es lo que WhatsApp califica como “un superpoder especial para quien envió el mensaje”.
+Según explica la compañía en su blog, la nueva característica Conservar en el chat permite al receptor de un mensaje temporal guardarlo e informa al emisor cuando esto sucede. Entonces este debe decidir si se lo permite o no y si toma esta última decisión el mensaje desaparecerá cuando el temporizador expire, sin que el receptor pueda evitarlo.
+Para conservar un mensaje temporal, habrá que mantenerlo pulsado prolongadamente y a continuación pulsar en el icono del marcador en la parte superior, tras lo que el emisor recibirá un aviso en su WhatsApp indicando que “Alguien conservó tu mensaje para poder volver a leerlo” y podrá denegar o confirmar la petición de eliminar la temporalidad del mensaje seleccionado.
+Los mensajes guardados por el receptor estarán disponibles a través del icono del marcador en la carpeta Mensajes Conservados y organizados por chats. Esta nueva característica se desplegará en todo el mundo en las próximas semanas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/deportes/negreira-admite-que-gasto-miles-euros-acompanar-arbitros-que-pitaban-barcelona_2023042164424edb7adfa80001c4f126.html</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>El 'caso Negreira' cada vez suma nuevas informaciones. Javier Enríquez Romero, el hijo de Enríquez Negreira, reconoció a Hacienda que cobró del FC Barcelona por "acompañar prácticamente cada semana" a los equipos arbitrales que llegaban a la Ciudad Condal para pitar al Barça, tal y como apunta "El Confidencial". Una de las empresas de Enríquez Romero, Soccercam SL, presentó a la Agencia Tributaria gastos relacionados con ese y otros servicios similares por un importe cercano a los 100.000 euros.
+El asunto es que Hacienda cuestionó gran parte de los gastos presentados por Soccercam SL, entre ellos, varios importes relacionados con la compra y mantenimiento de un vehículo. Enríquez Romero alegó que tenía derecho a deducirse esas partidas porque se trataba de costes "necesarios y afectos a la actividad de la sociedad". "Concretamente", explicó el hijo de Negreira, "dicho vehículo sirve para acompañar a un equipo arbitral".
+El artículo 286 bis del Código Penal que regula el delito de corrupción en los negocios (vigente desde 2010) castiga con penas de prisión de seis meses a cuatro años, y de inhabilitación de uno a seis años, a los "directivos, administradores, empleados o colaboradores de una entidad deportiva", así como a los deportistas y árbitros que reciban, soliciten o acepten "un beneficio o ventaja no justificados" o la mera promesa de obtenerlo "como contraprestación para favorecer indebidamente a otro".
+El propio Negreira ya explicó ante la Fiscalía cómo era su relación con el club culé. "Nunca he querido cobrar porque yo ya tenía mi empresa y cobraba del Fútbol Club Barcelona. Nos reuníamos en Madrid cada semana o cada 15 días. Lo que hacíamos era revisar los informes que hacen los árbitros después de cada partido (se refiere al acta) y puntuarlos. También teníamos un informador de la federación que revisaba si el arbitraje había sido correcto. Preparar charlas técnicas a los árbitros. Reunirnos con los presidentes regionales". "Ir a ver los partidos personalmente o a través de compañeros exarbitros y estar informado del porqué se habían tomado decisiones. El Fútbol Club Barcelona consideraba que se perjudicaba al equipo y se favorecía a otros equipos. Esto es una hipótesis personal, nadie me lo ha dicho directamente. Mi obligación era dar mi opinión sobre los partidos en cuanto al arbitraje y a los jugadores. Asesoramiento técnico. Lo que el Fútbol Club Barcelona quería era asegurarse que no se tomaban decisiones en su contra, que todo fuera neutral", afirmó.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/deportes/aterradora-confesion-arbitro-que-denuncio-presiones-negreira-han-amenazado-bala_202304216442331b89b71c0001700015.html</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sergi Albert confesó hace un tiempo cómo operaba Negreira. "La mano negra del Comité de Árbitros también se aprovechaba de los informes de los delegados-informadores para pasárselos al F.C. Barcelona. Si tenía poder en los informes tenía poder para influir en las designaciones de los árbitros cuando se pasó de elección aleatoria por ordenador a designación por un grupo de ex árbitros", destaca.
+Sergi habló en Radio Marca para confesar lo que le había sucedido. "Para mí es una amenaza. Y puede venir del entorno de Enríquez Negreira. Su hijo, como propietario de la plaza, sabía que yo también tengo una plaza de garaje ahí. De hecho, hemos coincidido en reuniones de propietarios. Me llama mucho la atención que me dejen una bala en mi plaza", contó.
+"Me enteré el jueves pasado. Llamé al administrador de fincas para comprobarlo y un vecino que estaba en el párking también lo vio. Llamaron a los mossos y levantaron acta. Mañana me personaré en comisaría".
+"Para mí es una amenaza. Y puede venir del entorno de Enríquez Negreira. Su hijo, como propietario de la plaza, sabía que yo también tengo una plaza de garaje ahí. De hecho, hemos coincidido en reuniones de propietarios. Me llama mucho la atención que me dejen una bala en mi plaza", concluye.
+El artículo 286 bis del Código Penal que regula el delito de corrupción en los negocios (vigente desde 2010) castiga con penas de prisión de seis meses a cuatro años, y de inhabilitación de uno a seis años, a los "directivos, administradores, empleados o colaboradores de una entidad deportiva", así como a los deportistas y árbitros que reciban, soliciten o acepten "un beneficio o ventaja no justificados" o la mera promesa de obtenerlo "como contraprestación para favorecer indebidamente a otro".</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/deportes/futbol/tebas-rubiales-ponen-acuerdo-avalan-que-real-madrid-acuse-como-perjudicado-caso-negreira_20230420644166567adfa80001c3bf62.html</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Tradicionalmente enfrentados, Luis Rubiales y Javier Tebas se han puesto de acuerdo en el "caso Negreira": tanto la Real Federación Española de Fútbol (RFEF) como la Liga de Fútbol Profesional (LFP) han trasladado a la jueza Silvia López Mejía -que investiga los pagos que por un montante de 7,5 millones hizo el FC Barcelona al entonces vicepresidente de los árbitros, José María Enríquez Negreira- que no se oponen a que el Real Madrid ejerza la acusación particular como perjudicado. Una posición en el proceso que también respalda la Fiscalía Anticorrupción, pero a la que se oponen tanto la entidad que preside Joan Laporta como los exmandatarios culés Josep Maria Bartomeu y Sandro Rosell.
+En el escrito remitido por LaLiga, al que ha tenido acceso LA RAZÓN, el organismo que preside Javier Tebas asegura que no tiene "objeción alguna" respecto a que el Real Madrid "ostente la condición de acusación particular". Para la LFP es "público y notorio" que en otros procedimientos judiciales en similares circunstancias "se ha permitido que clubes afiliados a LaLiga participaran en el procedimiento en condición de acusación particular". Y la jurisprudencia que avala este hecho, añade, es además "reiterada".
+Mucho más escuetos, los abogados de la Federación que preside Luis Rubiales han hecho saber a la magistrada en otro escrito del pasado día 13 que la RFEF "no se opone a la personación" del Real Madrid "en los términos interesados" (es decir, en calidad de perjudicado).
+Portazo al socio madridista
+En lo que sí discrepan es en la posible personación del socio madridista como acusación popular (para ejercerla no es necesario ser perjudicado). Mientras que la LFP defiende que "en tanto que el Real Madrid ejercitaría la acusación particular para la defensa de sus intereses" la personación de sus socios "debería serlo a título de acusación popular", la RFEF cierra también la puerta a esta segunda posibilidad. Y es que según ponen de relieve sus abogados "no cumple con el requisito de formulación de querella" y, además, "no puede ser sujeto pasivo del delito" que se investiga, el de corrupción entre particulares.
+Además, la Federación recuerda que el árbitro Xavier Estrada ya ejerce la acusación popular, por lo que insiste que de permitir la presencia en la causa de más acciones populares deberían ser "agrupadas bajo la misma representación procesal" de aquella.
+La Fiscalía tampoco ve motivos para que el socio madridista ejerza la acusación particular o la popular. "La genérica alusión a la condición de socio -argumenta Anticorrupción- no colma en absoluto los mínimos necesarios para ser considerado perjudicado". Abrirle esa posibilidad, advierte, "nos llevaría al absurdo jurídico y social de tener que asumir, con idénticos argumentos", la personación de "cualquier otro socio de cualquier otro club que hubiese competido por el título de liga con el FC Barcelona durante el periodo investigado".
+Fiscalía: "Convergencia de intereses"
+Para Anticorrupción, que tanto el Real Madrid como el citado socio ejercieran la acusación en calidad de perjudicados "duplicaría absurda e innecesariamente sus intervenciones procesales". Y es que, según la Fiscalía, "únicamente concurre la condición de perjudicado en el Real Madrid". Y en caso de que la magistrada acceda a que Sáenz de Tejada se persone como acusación popular, la Fiscalía pide que intervenga en la causa bajo la misma representación que el club de Concha Espina ante la "evidente convergencia de intereses".
+El Real Madrid justificó su pretensión de ejercer la acusación particular en que los hechos investigados, "tendentes a favorecer" a uno de sus principales competidores "en la "toma de decisiones de los árbitros, y de esa forma, en los resultados", "indudablemente le perjudicaron". Pero tanto el Barça como los expresidentes azulgranas Bartomeu y Rosell no ven por ningún lado esos supuestos perjuicios. Para la defensa de Bartomeu, en los hechos investigados no existe "el más mínimo indicio de perjuicio" contra la entidad madridista que justifique su presencia en la causa como perjudicado. Para los dos expresidentes culés el club madridista ya está representado en la causa por LaLiga y la RFEF.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/deportes/prensa-inglesa-carga-gea-futbolista-fantastico_20230421644263d3fc27300001506cf7.html</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>David de Gea ni mucho menos tuvo su mejor noche. El portero español cometió errores de gravedad que penalizaron a su equipo en la eliminación en Europa League. La prensa británica no dudó en cargar contra el meta español. El mítico Paul Scholes fue el primero en atacar al ex internacional español: "¡Creo que estaba poniendo nervioso a todo el equipo! Hay que preguntarse si encaja en la filosofía de Erik Ten Hag y si es el portero que el técnico neerlandés quiere para su futuro United. El United ha sido vergonzoso. Mira, es una noche difícil. Desde el primer minuto, De Gea patea el balón y a partir de ahí va cuesta abajo. El portero tuvo la culpa de los tres goles: falló el pase comprometiendo a Maguire; no pudo detener un cabezazo blando que pasó por encima de su cabeza y regaló el balón después de salir corriendo de su área para el tercero".
+Una de las pocas personas que le defendió fue su técnico, Ten Hag: "Es el portero que ha mantenido la portería a cero más veces en la Premier League, y eso demuestra que es un portero muy capaz". Hace unos días, David de Gea habló sobre las críticas: "Cuando mantenemos la portería a cero, significa que el equipo y yo hicimos un buen trabajo. La crítica siempre están ahí, no puedes complacer a todos, siempre hago lo mejor que puedo".
+De Gea ha vivido en primera persona un sinfín de críticas tanto en el Atleti como en la selección y ahora en el United. El portero suele hacer fácil lo imposible y difícil lo que, a priori, es más sencillo. Todo esto le ha perjudicado.
+Sin duda alguna, The Sun es el medio que más carga contra David. "Cruella Sevilla". "De Gea &amp; Maguirre make a real dog's dinner of it", una frase que viene acompañada por la fotografía del guardameta. "Vergonzosa salida de la Europa League" (Sky Sports), "En-Nesyri se duplica para enviar a un pésimo Manchester United a la ruina" (The Guardian) o "Desastre" y "Terrible actuación" (BBC), son otros de los titulares más llamativos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/deportes/futbol/donde-esta-isco-120-dias-equipo-desaparecido-rechazar-ultima-opcion-espana_20230421644262cd7adfa80001c5159b.html</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Isco Alarcón celebra hoy su cumpleaños más amargo y no parece que vaya a recibir un regalo a modo de fichaje. De hecho, ni siquiera hay rastro de felicitaciones en redes sociales. A sus 31 años, nada se sabe de dónde y como está Isco, que sigue sin encontrar una salida tras su complicada ruptura con el Sevilla. Tras su frustrado fichaje por el Union Berlin, el futbolista atraviesa un auténtico "via crucis" al ver como pasan los días sin que su representante Jorge Mendes le encuentre destino. Aunque eso sí, el negocio que montó con Sara Sálamo le sigue proporcionando importantes beneficios económicos.
+Isco está desaparecido, no aparece en los medios y solo rompió su silencio para atajar las críticas y mostrar como se ejercita duramente en casa a la espera de una nueva oportunidad. "Mientras fuera continúa el ruido, dentro seguimos con la ilusión y el trabajo intactos”, es el mensaje con el que acompañó hace ya más de dos meses el vídeo de su entrenamiento. Una frase con la que quiso dejar claro que a pesar de todo no tira la toalla. Desde entonces, silencio absoluto. Su mujer, Sara Sálamo -siempre muy activa en redes sociales- también parece haber hecho un parón en sus publicaciones.
+Isco ha estado cerca de varios clubes de LaLiga Santander -incluido el Betis-, se rumoreó que existía una interesante oferta del Flamengo brasileño, otra de la MSL y la última de Boca Junior. Incluso en las últimas semanas se apuntó la posibilidad de dos nuevas oportunidades en Europa: En Turquía y en Grecia.
+Según explicó Calciomercato, Isco habría tenido sobre la mesa ofertas de Galatasaray, Fenerbahce, Besiktas o Basaksehir. Algunas de estas propuestas superarían ampliamente los 3 millones netos por campaña. Pero a Isco sigue sin seducirle la idea de marcharse a Turquía por lo que estas supuestas ofertas también han caído en saco roto.
+Isco, a sus 30 años, cuenta con un valor de mercado de cinco millones de euros, lo que -a pesar de una significativa caída desde los 90 millones que llegó a valer en 2018- le mantiene como el futbolista sin equipo más valioso del planeta, por encima de jugadores como Danny Rose, Iván Arboleda, Simeone Zaza o el español José Rodríguez. Algo que sin embrago, no le ha valido para cerrar su fichaje por ninguno de los clubes supuestamente interesados.
+Calabazas al torneo de Piqué
+Lo único que ha salido a la luz en los últimos días es su rechazo a la última oportunidad de seguir jugando en España. Ibai Llanos ha confirmado su propuesta a James Rodriguez e Isco pero ambos han dado calabazas a la Kings League. Los dos exfutbolistas del Real Madrid se encuentran sin equipo. El primero tras haber rescindido su contrato con el Olympiacos y el segundo desde que hiciera lo propio con el Sevilla. «¿Vistes que Isco y James son agentes libres?», le dijo a Ibai Llanos uno de sus seguidores durante uno de sus directos. «Sí, con Isco hablé y no hay posibilidad de momento de que venga a la Kings League y con James me imagino que tampoco. Es joven y va a querer ofertas de los equipos. No creo que se quiera retirar», señaló el presidente de Porcinos.
+Todo parece indicar que el futbolista pasará esta temporada en el dique seco y analizará sus opciones de cara a la próxima campaña.</t>
+        </is>
+      </c>
+    </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>https://www.larazon.es/bienestar/pilates-pared-mejor-manera-entrenar-casa_202304216442774cfc27300001508f20.html</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>El pilates en la pared comenzó a ponerse de moda cuando el Covid-19 llegó y el confinamiento parecía que no daba tregua. Surgió como una rutina de ejercicios sencilla de hacer simplemente contando con el apoyo de una pared y sin necesidad de tener otros objetos deportivos como podían ser pesas o cintas elásticas.
+Además, esta rutina promete tonificar la figura y obtener excelentes resultados en tan solo dos semanas desde su comienzo. Tan famosa se ha vuelto que es muy común ver por redes sociales distintos vídeos poniendo en práctica esta rutina.
+Beneficios de practicar pilates en la pared
+Uno de los principales beneficios a la hora de practicar pilates, tanto en el suelo como en la pared, es que ayuda a mejorar la postura corporal. Muy recomendado para aquellos que tienen escoliosis u otras lesiones en la columna.
+Practicar el pilates sobre la pared es más sencillo que sino se usa ningún tipo de apoyo La Razón
+El pilates en la pared también ayuda a liberar la tensión que a veces se tiene en hombros y cuello. Además, la rutina de ejercicios y la repetición de los mismos ha demostrado que aumenta la capacidad de concentración de las personas que lo practican con regularidad.
+Rutina de ejercicios de pilates en la pared
+Cada persona que lo practica encuentra sus ejercicios favoritos. Ejercicios que también pueden ir subiendo de intensidad a medida que se coja rutina. Sin embargo, aquí se van a mostrar una serie de ellos con los que es oportuno iniciarse en el pilates en la pared. Además, es recomendable hacer dichos ejercicios, al menos, dos veces al día.
+Con las dos piernas sobre la pared, eleva cada una de ellas rotativamente a lo largo de 16 veces cada una
+Con las dos piernas sobre la pared, hay que hacer 15 abdominales
+De pie y con la espalda apoyada y sin separarla de la pared, 15 sentadillas manteniendo recta y erguida la espalda
+manteniendo recta y erguida la espalda El puente , quizás no sea sencillo al principio, pero con los pies sobre la pared, hay que elevar el torso con ayuda de los brazos y las manos, de tal manera que se haga un puente. Hay que hacer 12 repeticiones
+, quizás no sea sencillo al principio, pero con los pies sobre la pared, hay que elevar el torso con ayuda de los brazos y las manos, de tal manera que se haga un puente. Hay que hacer 12 repeticiones Boca abajo y apoyado sobre los antebrazos y con los pies en línea recta sobre la pared, 12 planchas
+Con las manos en la pared y con ayuda de los pies sobre la esterilla, se puede hacer otro ejercicio parecido al puente. Serían otras 12 repeticiones
+Diferencias entre el pilates en la pared y el pilates en el suelo
+El pilates en la pared es una variante del pilates mat, el que se lleva a cabo en una colchoneta o esterilla, o del pilates normal. Distintos entrenadores y expertos en la materia explican que el pilates en la pared es más seguro realizarlo en cuanto a posibles lesiones. Pues definen a los ejercicios del pilates en el suelo como "más agresivos".
+Existen multitud de ejercicios que se pueden hacer en el pilates sobre la pared La Razón
+Insisten en que si no se hacen de manera correcta, puede haber riesgos de lesión en músculos o articulaciones. Sin embargo, para ellos, el pilates en la pared es más "relajado" dado que se cuenta con un punto de apoyo fijo como puede ser un muro o una pared.
+Además, hay profesionales que indican que ciertos ejercicios del pilates en el suelo no pueden ser practicados por todas las personas debido a su complexión y su flexibilidad. No obstante, mantienen que la rutina de los que se hacen en la pared, en principio, si podrían ser realizados por todos los que quisieran.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>https://www.larazon.es/ciencia/estan-utilizando-entrenar-inteligencias-artificiales-siquiera-sabes_2023042164423fc17f1ecd000199d01e.html</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Sí, así es. Hace años que estás entrenando inteligencias artificiales para Google y ni siquiera lo sospechabas. No es una conspiración ni un escándalo, pero conviene que sepas que, mientras creías estar demostrando tu humanidad, estabas haciendo algo muy distinto. Hablamos de los captchas, esas pequeñas pruebas a las que nos somete de vez en cuando internet para asegurarse de que no somos una máquina. En ellas, por ejemplo, nos piden que identifiquemos las letras de una “palabra” o, en sus versiones más modernas, que encontremos qué fotos incluyen determinados objetos. Google, por ejemplo, nos somete a ellos siempre que intentemos entrar en nuestra cuenta desde una ubicación atípica. De hecho, es muy probable que hayas completado entre decenas y centenares de captchas.
 El programa que utiliza Google para presentarnos estos “acertijos” a prueba de máquinas se llama reCAPTCHA y, aunque tenga segundas intenciones, hay que reconocer que funciona. CAPTCHA significa “Completely Automated Public Turing test to tell Computers and Humans Apart”, que al castellano se traduciría como “prueba de Turing pública y totalmente automatizada para distinguir entre ordenadores y humanos”. O, dicho de otro modo: una prueba demasiado difícil para que no puedan superarla programas informáticos mediocres que busquen hacer spam o tomar el control de cuentas.
@@ -1386,13 +1421,32 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/television/programas/lasexta-columna-cumple-400-programas-especial-ultimo-fusilado-guerra-civil_202304216442731650432b0001641c50.html</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>laSexta Columna, uno de los espacios informativos más innovadores y vanguardistas de laSexta y una referencia de la cadena en el ámbito del reportaje, cumple su emisión número 400 el próximo viernes, alcanzando dicha cifra tras doce temporadas en antena. Un periodo de tiempo en el que el espacio de laSexta ha destacado por sus montajes audaces, sus búsquedas en los archivos y sus textos mordaces que han servido para contar historias desconocidas. Y todo ello con la música como uno de los principales elementos diferenciadores y seña de identidad.
+“laSexta Columna intenta ser una mirada periodística diferente. Siempre con audacia creativa y con un punto de heterodoxia”, explica Antonio García Ferreras, presentador del espacio desde su aparición en 2012.
+En total, laSexta Columna, presentada por Antonio García Ferreras y bajo la dirección de Carlos Pastor, ha llevado a cabo más de 5.000 entrevistas y decenas de miles de horas de grabaciones para explicar los dilemas a los que se ha enfrentado la sociedad española, así como los retos del presente en los que se encuentra inmersa.
+Durante estas doce temporadas, laSexta Columna ha prestado atención a temáticas como la escasez de recursos y la emergencia climática, la influencia de la tecnología y la incertidumbre laboral, la lucha feminista, la polarización social, la corrupción, la crisis económica o la emergencia de nuevos actores políticos, entre otras.
+Desde el inicio de sus emisiones en enero de 2012, laSexta Columna ha promediado un 7,2% de cuota y una media de 1.123.000 seguidores, alcanzando una audiencia media acumulada en cada programa de 3.220.000 espectadores únicos. La cobertura de todos estos años ha ascendido a más del 90% (39.282.000) que han visto el espacio en algún momento. El programa se ha posicionado como la tercera opción absoluta en Target Comercial (8,8%).
+La Historia, factor diferencial
+Bajo la premisa de conocer el pasado para comprender el presente, laSexta Columna ha mostrado una especial atención a la Historia. Una apuesta arriesgada para un programa de actualidad que, sin embargo, se ha consolidado como una de sus señas de identidad a través de la puesta en marcha de la marca ‘Columnas de la Historia’, que acoge sus especiales históricos.
+A lo largo de sus 400 emisiones, el espacio de laSexta ha dedicado especiales a los internados en los campos de concentración del franquismo, a las víctimas de bombardeos de la Guerra Civil sin la notoriedad de Guernica, a los últimos supervivientes de dicho conflicto o a los españoles que combatieron en la Segunda Guerra Mundial sin que se reconociese su papel en dicha conflagración.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>https://www.larazon.es/cultura/cual-origen-expresion-buenas-horas-mangas-verdes_202304216442342e7f1ecd000199bb46.html</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Es una expresión curiosa, que se utiliza frecuentemente en castellano y que tiene un significado claro, según precisa el Instituto Cervantes: "Se emplea cuando la solución ya ha venido por otra vía, o no llega oportunamente, o ya no tiene interés". Es decir, que se lo decimos a alguien que quiere resolver algo que ya hemos resuelto nosotros o que ya no hace falta que intervenga. Su significado, además, encierra una crítica a nuestro interlocutor: "Se censura la demora en atender las necesidades o en solucionar los problemas". Pero, ¿cuál es el origen histórico de esa expresión? ¿A qué "mangas verdes se refiere e dicho? Hay un origen histórico muy antiguo para esta frase.
 El origen de la frase tiene ya medio milenio de historia y se remonta a los tiempos de los Reyes Católico. Desde la Edad Media existía la Santa Hermandad que era algo así como un cuerpo de soldados que iban en cuadrillas y que debían velar por los delitos que se cometían fuera del recinto de las ciudades. Una especie de Policía de su época. Como precisa el Cervantes, "si no actuaban a tiempo, los malhechores quedaban impunes, por lo que su retraso llegó a ser objeto de crítica y lamento proverbial". El uniforme de la Santa Hermandad destacaba por un hecho: llevaban las mangas de color verde. De ahí que, cuando este cuerpo llegaba tarde a una situación delictiva, se utilizaba esta expresión irónicamente.
@@ -1400,13 +1454,13 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>https://www.larazon.es/gente/famosos/muere-miquel-perello-suegro-rafa-nadal_202304216442563e7adfa80001c4fdad.html</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Día triste para la familia de Rafa Nadal. Según ha informado el portal "Última hora", su suegro, Miquel Perelló, madre de Mery Perelló, perdió la vida el jueves 20 de abril a los 63 años, tras una larga batalla contra una enfermedad. El empresario, líder en el sector de la construcción, era muy popular en su Mallorca natal y se espera un aluvión de familiares y seres queridos en su funeral, previsto para este viernes 21 de abril.
 Miquel Perelló siempre respetó la privacidad de Rafa Nadal y llevó un estilo de vida muy discreto hasta su muerte. Su hija, María Francisca Perelló, estaba muy unida a él y ahora se apoya en su marido para superar el duro bache por el que pasa.
@@ -1416,43 +1470,27 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/andalucia/cadiz/grupo-andy-lucas-habla-claro-llama-bildu-voy-etarra_2023042164425ddf50432b000163f8d4.html</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Tras casi una vida juntos, el dúo gaditano Andy y Lucas (Andrés Morales y Lucas González) presenta una recopilación de sus dos décadas encima de los escenarios con el disco '20 años en más de 20 canciones' en el que recogen sus grandes éxitos a lo largo de su trayectoria. Por ello, se subieron a un imponente escenario en la plaza madrileña de Cibeles en la Fiesta de la Resurrección el pasado sábado y se muestran abiertos también a participar en el Orgullo Gay si recibieran la llamada, aunque rechazarían hacerlo si les llama EH Bildu.
-"Si nos llaman en el Orgullo Gay vamos también. Nosotros hacemos música. Otra cosa es que me llame Bildu. Si me llama Bildu no voy, son etarras y han matado gente", contesta de manera tajante Lucas en una entrevista concedida a Europa Press al ser preguntado por el concierto que organizó la Asociación Católica de Propagandistas (ACdP), bajo el título 'La fiesta de la Resurrección'.
-En este contexto, el artista ha querido dejar claro que el grupo musical no es de ningún color político, sino "insípido". "Si la contestación es de qué partido político es Andy y Lucas: insípido", ha contestado el gaditano.
-Al mismo tiempo ha rechazado las etiquetas sobre gustos personales, creencias o sensibilidades asegurando que ellos no son "de nadie". "Si vas con los católicos eres de derecha o ultraderecha. Si vas con los gays eres ultraizquierda. Nosotros no somos de nadie. Nosotros somos nuestra patria. Mi bandera es mi hijo", añade Lucas.
-"Son de amores"
-Han sido numerosos artistas los que se han prestado a colaborar en este disco recopilatorio en varios temas muy conocidos del dúo gaditano como Lérica, Abraham Mateo o Los Rebujitos, y, aunque reconocen que les habrían encantado contar con algunos más, en el disco "están los que tenían que estar".
-"El disco es un homenaje a nosotros, a nuestros fans, a nuestra trayectoria. Y los que han estado... bendita gloria por ellos", manifiesta Andy, quien se muestra ilusionado con el trabajo realizado.
-Según cuenta Lucas, a la hora de escribir los temas "se piensa en la gente" pero él en particular también tiene en cuenta a su compañero y amigo Andy por los diferentes tonos en los que cantan. "Yo pienso en su parte y ahí es donde intento poner la letra más bonita", asegura el cantante poniendo como ejemplo 'Pido la palabra', una canción dedicada a la joven sevillana Marta del Castillo que desapareció el 24 de enero de 2009 a los 17 años.
-"Lo más complicado, más que el tono, es que él baila conmigo", cuenta Lucas orgulloso y halagando a Andy en su facilidad para adaptarse a las improvisaciones encima del escenario sin previo ensayo.
-Con total rotundidad, el dúo gaditano asegura que la mejor canción que han creado es 'Son de amores', aunque también recuerdan con mucho cariño 'Tanto la quería', ambas de su primer disco 'Andy &amp; Lucas' (2003) y se muestran extrañados de que algunos de los artistas que colaboran en el disco eligieran canciones que ellos no pensaban.
-"Salieron canciones que yo no pensaba que querían. Yo no les he dicho a ellos 'a cantar estas', yo les he dejado", dice Lucas.
-Relativizar los problemas
-Desde 2003 Andy y Lucas no se han separado ni han dejado de componer temas, aunque sí admiten que han tenido "altibajos" más en el lado personal que profesional, si bien se consideran gente con "mucha suerte", apunta Andy.
-Por su parte, Lucas explica que con el tiempo ha aprendido a relativizar los "problemas". Eso sí, asegura que hace tiempo sí sufría "penas de verdad". "Hoy en día si tengo un poquito de bajón es porque no he descansado bien o porque un fin de semana me la he pegado y, como tenemos 40 años, la resaca dura cinco días", explica entre risas.
-A pesar de los eventos, conciertos, promociones y vida personal, Lucas asegura que también intenta ponerse al día con lo que sucede en el mundo y le gusta "mucho" leer las noticias y escuchar la radio. "Mi vida es la radio", relata.
-Dicho esto, y sin querer adelantar más información para que "se haga realidad", los artistas cuentan que están ilusionados por futuros proyectos en Latinoamérica que pronto verán la luz.
-"Un rinconcito del sur"
-El dúo le ha cantado al amor, al desamor, a la lacra social del maltrato y, como no, a su tierra Andalucía y a su rinconcito en el Sur que los vio nacer, Cádiz. Pero también reivindican su amor por todas y cada una de las comunidades españolas que han pisado y donde les han tratado "de maravilla siempre".
-Alejándose de polémicas sobre estereotipos que les "pueden traer cola", los gaditanos aseguran que "hay de todo en la viña del señor", pero ponen en valor la calidad humana de las tierras del norte como Asturias, Cantabria, Galicia, Castilla y León o Cataluña, por nombrar algunas, donde les han recibido muy amablemente. "Nosotros disfrutamos de España con todo su esplendor", recalcan</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/gente/famosos/david-bisbal-reacciona-propio-video-viral-famoso-como-estan-maquinas_20230421644278a650432b00016424e2.html</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>David Bisbal se ha vuelto viral con un vídeo en el que, tras su actuación en el festival Primavera Pop, de Los 40, celebrado en el WizinKcenter, de Madrid, se dirige a unos fans con la frase "¿cómo están los maquinas?".
+La repercusión del vídeo ha sido tal que ha llegado al propio almeriense, que no ha dudado en manifestarse sobre el tema a través de su cuenta de Instagram.
+La cantante Aitana también se ha pronunciados sobre el video. "Jajajaja. Es que David Bisbal eres el mejor". El almeriense ha contestado con un emoticono de un beso.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>https://www.larazon.es/gente/famosos/detienen-abogado-isabel-pantoja-miembro-organizacion-criminal_20230421644250bf50432b000163e46d.html</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>La Guardia Civil desmanteló hace una semana, en el marco de la operación "Proper" una presunta organización criminal que introducía grandes cantidades de cocaína que distribuía por toda Europa. La coca procedente de Sudamérica era distribuida por el "clan Farruku". En la operación se detuvieron a 17 personas, incluidos los principales miembros de la organización, entre ellos a Juan Fernández, ex abogado de Isabel Pantoja.
 Tal y como ha informado en exclusiva 'Código 10', el que fuera abogado de Isabel Pantoja está acusado de dos delitos, narcotráfico y pertenencia a organización criminal, por esconder presuntamente la droga del clan Farruku que llegaba a España desde Marruecos y Centroamérica.
@@ -1461,13 +1499,13 @@
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>https://www.larazon.es/gente/famosos/rocio-flores-rompe-silencio-estalla-prensa-polemica-marta-riesco_20230421644276d5fc27300001508e31.html</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>La polémica está servida. La ruptura sentimental de Antonio David y Marta Riesco ha tambaleado los cimientos del clan Flores, señalando a Rocío, la hija del exguardia civil, como la culpable de la separación de la pareja. Fue la misma reportera la que acusó públicamente a la sobrina de Gloria Camila de la situación, situando a la joven en el ojo del huracán mediático. "Quiero comunicaros a todos que mi relación con Antonio David Flores ha terminado esta noche. Rocío Flores, espero que estés feliz, ya has conseguido lo que querías", escribía en un comunicado la periodista a través de su cuenta de 'Instagram' el jueves por la mañana.
 Tras el anuncio de la inesperada ruptura, ningún protagonista implicado en el asunto se había pronunciado salvo Marta Riesco. Rocío Flores, justo cuando la periodista publicó la noticia, subió un story a su cuenta de 'Instagram' en el que revelaba que hoy tenía que viajar a Madrid para una revisión médica, haciendo caso omiso a la acusación de la reciente expareja de su padre. Y esta mañana, como era de esperar, la prensa esperaba a la joven en la estación de Atocha para preguntarle sobre lo sucedido. La hija de Antonio David, que, en un principio ha querido mantenerse al margen y guardar silencio, finalmente ha estallado contra los medios que la aguardaban en Madrid tras ser preguntada por ello.
@@ -1476,13 +1514,13 @@
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>https://www.larazon.es/deportes/argumentos-dani-alves-par-salir-carcel-besos-mienten_20230421644224a050432b0001639804.html</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>Tras declarar el pasado lunes de forma voluntaria, el equipo de Dani Alves ultima su recurso para que el futbolista salga de prisión. El brasileño lleva tres meses encarcelado tras ser acusado de violar a una joven en los baños de la discoteca Sutton de Barcelona el pasado 30 de diciembre y espera que prospere su nuevo recurso.
 Dani Alves comparecía ante la juez por segunda vez. Ante la letrada, el exfutbolista del F.C. Barcelona reiteraba que mantuvo relaciones sexuales consentidas con la joven que lo denunció por una presunta violación cometida el pasado mes de diciembre. Además, estableció que mintió en su primera declaración para ocultar la infidelidad ante su esposa, Joana Sanz. Ahora se han conocido nuevos detalles del informe de 200 páginas que Cristóbal Martorell, letrado de Dani Alves, ha redactado para la magistrada.
@@ -1496,30 +1534,13 @@
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/gente/famosos/madre-marta-riesco-cuenta-rocio-flores-echo-calle-noche-ruptura_2023042164424df6fc273000015047ed.html</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Todavía no han pasado ni 24 horas desde que Marta Riesco anunció a través de sus redes sociales que su relación con Antonio David Flores había llegado a su fin y ya se van conociendo muchos más detalles sobre lo que ocurrió esa terrible noche en la casa de Málaga en la que la pareja vivía. Por las palabras de la periodista ya se podía intuir que Rocío Flores jugó un papel fundamental en el episodio que desencadenó la ruptura, y ahora su madre ha confirmado la versión de su hija.
-A través de YouTube, a modo de comentario en un vídeo en el que se analizaba lo sucedido, Camila intenta defender a su hija y asegura que tanto Antonio David como Rocío Flores expulsaron de su vivienda malagueña a Marta Riesco en plena noche, justo cuando una tormenta descargaba sobre la ciudad andaluza. "La echaron a la calle hasta las tres de la mañana", cuenta la madre de Riesco. La razón de este agrio final, según su versión, no podría ser más baladí: al parecer les molestó que la exreportera grabara un vídeo y por eso la dejaron en la calle.
-Marta Riesco en la Fashion Week 2023 Gtres
-Además, como es natural, la madre de Marta Riesco saca las garras por ella y asegura que "no ha matado a nadie", a la vez que pregunta a quienes la critican: "¿Cómo que no tiene perdón de Dios?".
-Se debe destacar que, a pesar de lo publicado en diferentes medios, Marta Riesco asegura que alguien se ha hecho pasar por su madre y que esta nunca se ha pronunciado.
-Mientras, Antonio David parece ajeno a toda la polémica y ha reaparecido en sus redes sociales, presumiendo de vistas al Mar Mediterráneo desde el balcón de la casa en la que ocurrió todo. Otro escenario, como la vivienda de Valdelagua de Rocío Carrasco, marcado por un violento episodio.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>https://www.larazon.es/gente/famosos/onieva-aclara-tamara-falco-esta-embarazada_20230421644261fc89b71c00017057d3.html</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>El embarazo de Tamara Falcó es un tema recurrente cada vez que hay una nueva imagen de la marquesa de Griñón. Por ese motivo, los reporteros aprovechan cualquier ocasión para preguntar a los presuntos futuros padres, buscando una confirmación o un desmentido.
 Un embarazo que de ser cierto no serían conocedores ni el entorno de la pareja. Mañana tendrá luga la fiesta de compromiso de Tamara e Íñigo, y de ser cierto que están esperando un bebé sería la ocasión idónea para comunicárselo a sus respectivas familias.Pero todo son conjeturas.
@@ -1529,13 +1550,13 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>https://www.larazon.es/gente/famosos/todos-detalles-fiesta-pedida-mano-tamara-falco_2023042164424784fc27300001503b23.html</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>A tres meses del gran día, Tamara Falcó e Íñigo Onieva continúan con los preparativos de su boda en la Finca El Rincón. La marquesa de Griñón adelantó en su visita a "El Hormiguero" que conduce Pablo Motos, algunos detalles de la petición de mano que se celebrará el sábado.La socialité lo ha explicado: "Es cuando se conocen tu familia y la de él, hay una cena e intercambio de regalos de mi familia a él y de su familia a mí".
 Tamara Falcó en 'El Hormiguero'. El Hormiguero
@@ -1544,13 +1565,13 @@
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>https://www.larazon.es/gente/famosos/asi-fue-noche-pasion-barbara-rey-chelo-garcia-cortes-eramos-cinco-personas_2023042064411797fc273000014e84a9.html</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>Bárbara Rey vuelve a estar de actualidad y su vida sigue generando muchísimo interés. Después de su exitoso biopic 'Cristo Rey', basado en su relación sentimental con Ángel Cristo, ahora ha vuelto a la televisión a través de su documental 'Una vida Bárbara', en el que, en primera persona, está indagando en profundidad sobre algunos de los episodios más sonados y mediáticos de su vida. En esta última entrega, ha contado con Chelo García Cortés como invitada, y no han dudado en revelar algunos de los detalles más íntimos de su noche de amor.
 Desde que se descubrió el idilio que tuvieron hace más de diez años en 'Sálvame', ambas se han convertido en un icono y, a día de hoy, se sigue recordando su historia. Bárbara Rey y Chelo García Cortés han mantenido, a lo largo de los años, una estrechísima amistad que, en un momento de sus vidas, culminó con una desenfrenada velada de pasión. "Yo no había tenido ninguna relación con ninguna mujer, ni me lo había planteado. Era la Nochevieja y en ese apartamento estaba José Manuel Parada, un actor argentino, un actor catalán, María (Bárbara Rey) y yo. Esa primera noche de amor no estábamos solas, éramos cinco personas", explica la periodista sobre cómo surgió su tórrido encuentro. Bárbara Rey, por otro lado, ha desvelado cómo se quedaron solas. "Terminamos los cinco. De pronto, me encuentro con Chelo a un lado, yo en otro, el otro chico en medio de nosotras... Nos independizamos del grupo porque tampoco nos prestaban mucha atención", revela la madre de Sofía Cristo.
@@ -1559,13 +1580,13 @@
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>https://www.larazon.es/gente/richard-gere-alejandra-silva-mudan-espana_202304216442348750432b000163ad50.html</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>Según ha podido saber "Semana", Richard Gere y Alejandra Silva se mudan a España. La pareja suele pasar cada verano en Galicia, donde la familia de ella tiene una casa y ahora han comenzado la búsqueda de su nuevo hogar en Madrid. La pareja ha sido vista visitando varias inmobiliarias de lujo en la capital, así como un colegio internacional para sus hijos.
 La revista "¡Hola!" ha sido la que ha publicado la noticia del traslado. 2023 ha comenzado siendo un año muy intenso para ellos, después de los problemas de salud que ha afrontado el actor de "Pretty Woman", así como el fallecimiento de su progenitor, a los 100 años. Circunstancias que ha llevado a la pareja a tomar decisiones sobre cómo quieren afrontar sus vidas.
@@ -1575,13 +1596,13 @@
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>https://www.larazon.es/gente/famosos/eva-gonzalez-alberto-nunez-feijoo-inesperada-pareja-feria-abril-sevilla_20230420644167a17f1ecd000198b35e.html</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>La Feria de Abril de Sevilla comienza oficialmente el próximo sábado 22 de abril, tras la denominada "cena del pescaito", previa a la inauguración del encendido de las luces del recinto. Sin embargo, miles de ciudadanos enamorados de esta fiesta declarada de Interés Turístico Internacional ya se han dejado caer por Mairena del Alcor, ataviados con sus mejores trajes y vestidos de volantes y lunares.
 Una de ellas ha sido Eva González, quien, precisamente, ha protagonizado este año el cartel promocional de las fiestas de Semana Santa y Primavera de Sevilla. La presentadora de “La Voz” se ha decantado por un precioso vestido azul de lunares, como manda la tradición, y ha recorrido el recinto ferial junto a un inesperado acompañante: Alberto Núñez Feijóo. El líder del Partido Popular se encuentra inmerso en la campaña electoral de cara a las próximas elecciones autonómicas del 28 de mayo, y tras presidir un acto por la mañana en Huelva, ha recorrido los más de 90 kilómetros que separan a estas provincias andaluzas para no faltar a su cita en la Feria de Abril de Mairena del Alcor.
@@ -1592,13 +1613,13 @@
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>https://www.larazon.es/gente/famosos/ortega-cano-como-encuentra-hijo-jose-fernando-pronuncia-futuro-hijo_20230419643ff01d2f8deb0001585c9a.html</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Ortega Cano está viviendo ahora mismo una temporada más relajada desde que su nombre ha dejado de salir diariamente en las tertulias del corazón de nuestro país. Después de poner punto y final a su matrimonio con Ana María Aldón y haber protagonizado uno de los divorcios más mediáticos que se recuerdan de los últimos años, el diestro se ha centrado de lleno en su familia y sus hijos, con los que disfruta la mayor parte de su tiempo. Alejado de los ruedos, está gozando, por fin, de una senectud tranquila y feliz, como hacía mucho tiempo no sentía.
 El torero, a pesar de estar jubilado, sigue recibiendo premios y reconocimientos por su carrera en el mundo de los toros y, en esta última ocasión, ha recibido el galardón Premio Carrusel Taurino de Honor como figura del toreo. Ortega Cano, emocionado, asistió a la gala y atendió a los medios, agradecido por que se sigan acordando de él después de tanto tiempo. El exmarido de Ana María Aldón tampoco perdió la oportunidad de pronunciarse sobre sus hijos y, en concreto, de José Fernando, que lleva unos días siendo noticia porque, en los próximos meses, recibirá el alta en el Hospital Psiquiátrico San Juan de Dios en Ciempozuelos, donde se encuentra ingresado desde hace cinco años.
@@ -1607,13 +1628,13 @@
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>https://www.larazon.es/gente/famosos/premonicion-27-aless-lequio-que-revela-ana-obregon_2023042164424d2cfc273000015046cb.html</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>El libro "El chico de las musarañas", que comenzó a escribir Aless Lequio cuando le diagnosticaron su enfermedad y que terminó de escribir Ana Obregón, tras su fallecimiento, está desvelando datos hasta ahora desconocidos. Uno de ellos que la habitación en la que Aless Lequio pasó la noche antes de su primera operación por un supuesto absceso que le hacía retorcerse de dolor, y que finalmente acabó siendo un tumor, era la misma en la que su madre fue ingresada el día que dio a luz.
 Pero no es esa la única coincidencia. Una curiosa premonición con el número 27 parecía obsesionar al joven empresario.
@@ -1624,13 +1645,13 @@
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>https://www.larazon.es/gente/famosos/que-consiste-enfermedad-von-willebrand-que-sufre-alessandro-lequio-que-ana-obregon-revela-libro_2023042064413bb57adfa80001c37d1f.html</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>"El chico de las musarañas" el libro que comenzó a escribir Aless Lequio para relatar su enfermedad, y que tras su fallecimiento terminó su madre, Ana Obregón, está desvelando datos que se desconocían. El escrito, que salió a la venta el miércoles 19 de abril, es ya un éxito de ventas y va por su segunda edición. Además de múltiples anécdotas, vivencias y conversaciones, Ana Obregón revela que su expareja, Alessandro Lequio, padece una enfermedad que de haberla heredado su hijo, podría haber supuesto un peligro la primera vez que fue intervenido.
 La enfermedad de Von Willebrand es un trastorno crónico que dificulta que la sangre coagule de manera adecuada. La sangre contiene muchas proteínas que ayudan a que el cuerpo pare de sangrar y una de estas proteínas se llama factor de Von Willebrand. En el segundo capítulo del libro, Obregón cuenta que informó a los médicos de tal problema paterno por si acaso era lo que le pasaba a su hijo, aunque rápidamente se dieron cuenta de que la condición que este padecía era diferente a la enfermedad de su padre, ya que se trataba de un cáncer, más concretamente de un sarcoma de Ewing.
@@ -1639,13 +1660,13 @@
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>https://www.larazon.es/gente/celebrities/dan-muerto-carlos-vives-mensaje-shakira-instagram_202304216442648bfc27300001506e98.html</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>La artista colombiana Shakira la ha "liado" en Instagram. La de la Barranquilla dedicaba un mensaje a su compañero en "La bicicleta", Carlos Vives, que ha resultado tan confuso como para interpretarse que el artista había fallecido.
 "Carlos, eres el poeta que hace sus versos con la tierra mía. Un músico extraordinario y mas extraordinario aún tu corazón de amigo fiel. Artistas como tú aparecen cada mil años, por eso hoy queremos homenajearte. Lo que has hecho por nuestra Colombia, no lo han conseguido ni políticos, ni filántropos", escribió la ex pareja de Gerard Piqué junto a un vídeo de varias imágenes de ambos.
@@ -1654,13 +1675,13 @@
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>https://www.larazon.es/editoriales/donana-monumento-desidia-socialista_202304216441bddc7f1ecd0001992c18.html</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Mucho debe confiar el presidente del Gobierno, Pedro Sánchez, en la proverbial falta de memoria colectiva de los españoles para descargar sobre la actual Junta de Andalucía la responsabilidad de la delicada situación medio ambiental de una de las joyas naturales de España, el parque de Doñana, monumento a la desidia socialista, que bien podría ser coronado con el engendro urbanístico de Matalascañas.
 Pero no es preciso remontarse a cuarenta años atrás para desmontar con hechos la cínica campaña de propaganda gubernamental –que no ha tenido reparo alguno en recurrir a una Comisión Europea a la que, desde toda evidencia, se ha ocultado el alcance territorial de la ley de regadíos que pretende aprobar el gobierno autónomo andaluz, que sólo toca tangencialmente la zona de protección del parque– porque en fecha tan cercana como diciembre de 2018, con Pedro Sánchez ya al frente del Ejecutivo, se aprobó el plan de transferencia de recursos hídricos entre las cuencas de los ríos Tinto, Odiel y Piedras a la del Guadalquivir, trasvase que buscaba la sustitución del agua procedente del acuífero de Doñana utilizada en las explotaciones agrarias –de gran importancia para la economía de la zona–, por las aguas superficiales de una cuenca que suele tener excedentes la inmensa mayoría de los años.
@@ -1669,13 +1690,13 @@
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>https://www.larazon.es/opinion/primer-quijote_202304216441bdd47f1ecd0001992be4.html</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>En vísperas del aniversario de la muerte de Cervantes me acuerdo de mi primer Quijote. Hace tiempo que aquel libro que marcó mi vida, de hojas amarillentas, con letra bien cuidada, compuesto por dos tomos en rústica, desapareció, lo mismo que desapareció la presencia humana en la casa de Sarnago, ahora en ruinas. Deshojado, perdido en algún arcón del somero, acaso roído por los ratones, con el hundimiento de la casa he perdido la esperanza de encontrar un día algunas de sus páginas, como reliquias sagradas de la infancia.
 Este Quijote fue el que, como creo que tengo dicho, nos fue leyendo mi madre con un dulce e inolvidable sonsonete, a la luz de un candil, –aún no había llegado la luz eléctrica al pueblo– a los abuelos y a los dos niños, en las largas noches de invierno junto a la lumbre de la cocina, mientras el viento, que agitaba la nieve, resonaba en la chimenea, y nosotros creíamos que era el grito amenazante de las «Úrguras» o brujas blancas del invierno. Cada noche leía mi madre dos o tres capítulos, que seguíamos todos con atención perforadora antes de que empezara a tentarnos el sueño. Después el libro, convertido en objeto familiar, como la baraja de Heraclio Fournier, andaba rodando por la mesa de la cocina y por el banco del pasillo, donde yo acostumbraba a releer los episodios más llamativos por mi cuenta.
@@ -1683,13 +1704,13 @@
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>https://www.larazon.es/opinion/fiasco_202304216441bdda7f1ecd0001992c0b.html</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Han tenido que pasar seis largos meses para que el Congreso de los Diputados haya acordado reformar la ley del solo sí es sí. Un tiempo precioso, en el que unas mil mujeres han sufrido viendo cómo la entrada en vigor de la ley estrella de la ministra Irene Montero, en nombre del feminismo, obligaba a los jueces a reducir las condenas de sus violadores, de sus abusadores, de sus verdugos emocionales. Más de cien de ellos están de vuelta en la calle antes de tiempo y ahí seguirán, porque no hay marcha atrás posible, tras semejante chapuza.
 Esas mujeres son víctimas indefensas, por partida doble: víctimas de un delincuente sexual y de una mediocre y populista manera de hacer política. ¿Quién responde ante ellas? ¿Quién se pone en su lugar?
@@ -1700,13 +1721,13 @@
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>https://www.larazon.es/lr-content/mas-100-marcas-reunieron-meta-world-congress-mano-uttopion_202304146437da1b1b5f5b000146c673.html</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>El futuro ya está aquí. Las nuevas realidades que tienen la tecnología como escenario principal ya mueven más de 107.000 millones al año y se espera que tengan un crecimiento de más del 860% antes de 2025.
 Para tomarle el pulso a esta industria incipiente y sentar las bases del mundo digital que está por venir, el pasado 31 de marzo tuvo lugar el Meta World Congress, un evento sobre Metaverso, web 3.0, Realidad Virtual y Realidad Aumentada. Este congreso ha reunido a más de 100 marcas colaboradores, 150 ponentes, 70 expositores y más de 4.000 asistentes que se acercaron al espacio de La Nave de Madrid para ver de primera mano lo último en tecnología Meta.
@@ -1721,13 +1742,13 @@
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>https://www.larazon.es/lr-content/claves-comunicacion-efectiva-segun-molo-cebrian_20230412642af91e1b5f5b00012e2a4d.html</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Hablar de Molo Cebrián hoy en día es hablar de divulgación de la psicología. Apasionado de la voz, la radio e Internet, es el responsable de unos de los podcasts de mayor éxito en España, ‘Entiende tu mente’. Antes de esto, Cebrián ya se había apuntado el tanto de producir el primer podcast en castellano lanzado con Spotify Studios (‘Una a la semana’) y de haber presentado el primer narrativo sobre trastorno bipolar junto a Carlos Mañas y Podium Studios. Actualmente, además, co-dirige el podcast ‘Volver a empezar’ de Acnur España y ‘Saliendo del círculo’, un proyecto personal donde el autor da a conocer motivaciones e historias de personas de su entorno que dieron un giro de 180º a sus vidas. En la última charla de ‘Mejor Conectados’, una iniciativa de Telefónica, Cebrián nos invita a descubrir qué es la comunicación efectiva y cómo conseguirla.
 La mente humana: un mundo sorprendente para todos
@@ -1750,13 +1771,13 @@
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>https://www.larazon.es/lr-content/app-que-ahorrar-20-centimos-litro-carburante_202304196438179d1b5f5b0001473164.html</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>Las ofertas son múltiples. Sin embargo, hasta ahora no existía ninguna que conectara todas las energías de nuestro hogar y la energía que necesita nuestro vehículo para moverse. Hace pocos días Repsol lanzó su nueva oferta de descuentos bajo un innovador sistema que conecta todas las necesidades energéticas de sus clientes y ofrece hasta 20 céntimos de descuento por litro de combustible y hasta el 100 por ciento en las recargas de los vehículos eléctricos.
 La propuesta, instrumentalizada a través de Waylet, una de las mayores aplicaciones de movilidad del país con seis millones de usuarios, vincula la obtención de saldo Waylet al uso de las estaciones de servicio (Plan Coche) y va incrementándose con otros contratos de energía como la luz (Plan Coche y Luz), el gas (Plan Coche, Luz y Calefacción), o la energía solar (Plan Energía Solar).
@@ -1774,13 +1795,13 @@
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>https://www.larazon.es/madrid/mas-5000-escolares-participan-minimaraton-madrid_2023042164427a6c50432b00016428b5.html</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>Un total de 5.000 escolares de 10 a 17 años han participado esta mañana en la IV MiniMaratón Madrid convertida en una celebración de los valores del deporte y con la que se pretende promover la práctica deportiva como pilar para la salud física y emocional de niños y adolescentes.
 Previamente, la presidenta de la Comunidad de Madrid, Isabel Díaz Ayuso, junto con el alcalde de Madrid, José Luis Martínez-Almeida, ha recibido a corredores del IV MiniMaratón Madrid.
@@ -1795,13 +1816,13 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>https://www.larazon.es/madrid/alcalde-paracuellos-solicita-agilizar-tramites-segundo-centro-salud-municipio_2023042164425df7fc27300001506297.html</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>El alcalde de Paracuellos de Jarama, Jorge Alberto Campos, ha enviado una carta al consejero de Sanidad para reclamarle que agilice los trámites para la construcción del centro de salud en la zona de Miramadrid.
 Sería el segundo centro de salud del municipio. La carta enviada al consejero de Sanidad de la Comunidad de Madrid, Enrique Ruíz Escudero, recuerda que hace dos años el alcalde se reunió con el director de Infraestructuras Sanitarias, Alejo Miranda de Lara, con la intención de agilizar los trámites para la construcción de un nuevo centro de salud en el municipio.
@@ -1814,13 +1835,13 @@
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>https://www.larazon.es/madrid/atraco-barrio-salamanca-detenido-ladron-160000-euros-robados_202304216442598dfc27300001505a4a.html</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Susto y poco más ante la rápida intervención de la Policía en Madrid. Atraco en un banco en la mañana de este viernes en la capital. Ha ocurrido en la calle Núñez de Balboa, en pleno Barrio de Salamanca, donde el atracador llegó a llevarse una cantidad de 160.000 euros.
 Fuentes de la Policía Nacional han indicado que el atraco se produjo en el número 65 de la calle Núñez de Balboa, donde está situada una sucursal del Banco Sabadell.
@@ -1830,13 +1851,13 @@
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>https://www.larazon.es/madrid/incidencia-covid-madrid-dispara-13-puntos-latina-puente-vallecas-cabeza_20230421644250917adfa80001c4f382.html</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>El número de nuevos casos de Covid-19 en la Comunidad de Madrid registra un incremento del 57,3% en los últimos siete días entre la población mayor de 60 años y hay 34 ingresos hospitalarios más respecto a la semana precedente, pero baja en dos el número de personas en UCI.
 En concreto, entre el 10 y el 16 de abril, se han registrado 1.191 nuevos casos de SARs-CoV-2 entre la población mayor de 60 años, 455 más, según el informe epidemiológico semanal de la Comunidad de Madrid de este pasado martes.
@@ -1859,13 +1880,13 @@
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>https://www.larazon.es/madrid/madrid-abre-plazo-solicitud-ayudas-atencion-personas-enfermedad-mental_2023042164424c6150432b000163de78.html</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>La Comunidad de Madrid abre este lunes el plazo de la convocatoria de dos líneas de ayudas destinadas a la atención a personas con enfermedad mental, que tienen un presupuesto conjunto de 805.000 euros y que se podrán solicitar hasta el próximo 9 de mayo.
 Noticias relacionadas Salud mental Madrid incorporará a todos los psiquiatras, psicólogos clínicos y enfermeros que terminan su formación
@@ -1874,13 +1895,13 @@
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>https://www.larazon.es/salud/este-alimento-que-tienes-despensa-protege-cancer-mas-frecuente-espana_20230420644171ad7adfa80001c3d0dc.html</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Comer bien puede suponer la diferencia entre estar sano o enfermar. La dieta juega un papel fundamental en el desarrollo de algunas enfermedades, tal y como ha demostrado la Nutriología a lo largo de los años. Conocemos la relación entre el azúcar y la diabetes, así como el riesgo de cáncer que supone ingerir a menudo alimentos ultraprocesados. Pero quizás menos conocida es la relación entre un alimento que seguro se encuentra en la mayoría de las despensas de los hogares y que te protege contra el cáncer más frecuente en España: el de colon, también conocido como colorrectal.
 El cáncer colorrectal ocupa la primera posición en este nefasto podio, con más de 41.600 nuevos casos en 2022 (el 14% del total de casos nuevos de cánceres). Pero lo peor es que no parece que vaya a detenerse. La cifra, de hecho, se ha incrementado un 22% en la última década, según datos del Observatorio de la Asociación Española Contra el Cáncer. Además, es el segundo que más vidas se cobra, con 935.000, por debajo del cáncer de pulmón.
@@ -1896,13 +1917,13 @@
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>https://www.larazon.es/salud/conexion-cuerpo-mente-existe-esta-cerebro_2023042064415257fc273000014ef259.html</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>La zona de nuestro cerebro donde se encuentran las redes neuronales encargadas de la planificación y ejecución del movimiento es la corteza motora primaria. Se encuentra en el sector posterior del lóbulo frontal, y rodéa al encéfalo como si fuera una diadema. Fue descubierta en la década de 1930 por el cirujano estadounidense Wilder Penfield de una manera fortuita, ya que "aprovechaba" las operaciones que realizaba a pacientes para curarles la epilepsia o extirparles tumores cerebrales para comprobar, colocándoles electrodos, que partes del cuerpo estaban conectadas a cada región. Lo que hacía era preguntarles que sentían cuando estimulaba ciertas zonas del cerebro, y observaba sus reacciones.
 Gracias a sus peculiares investigaciones descubrió que la estimulación de una estrecha franja de tejido en cada mitad del cerebro provoca contracciones de determinadas partes del cuerpo. Sus hallazgos, que concretó en una especie de mapa de conexiones entre el cerebro y el organismo con forma de pequeño "hombrecillo", pasó a los libros de texto neurociencia como el “homúnculo- hombre en latín- de Penfield”.
@@ -1918,13 +1939,13 @@
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>https://www.larazon.es/internacional/ucrania-humilla-putin-ataque-drones-destruye-31-tanques-rusos-letal-emboscada_2023021563ed28d42f84b40001924fce.html</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Una serie de vídeos subidos la semana pasada a las redes sociales, especialmente en Telegram, muestran una serie de ataques lanzados por drones ucranianos acabando con la destrucción de más de una treintena de carros de combate rusos en el transcurso de la guerra en Ucrania. Las imágenes habrían sido grabadas en la zona de Vuhledar y muestran cómo las bombas lanzadas por las aeronaves no tripuladas eliminan los tanques de las tropas rusas.
 Se trataría de un ataque coordinado sobre decenas de vehículos blindados rusos emboscados y destruidos durante un único ataque fallido cerca de la mencionada ciudad minera de carbón de Vuhledar en el este de Ucrania, que las fuerzas de Moscú han estado tratando de capturar durante meses.
@@ -1943,13 +1964,13 @@
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>https://www.larazon.es/lifestyle/moda/the-atelier-jimmy-choo-muestra-sus-propuestas-maximalistas-bridal-fashion-week_2023041964403ecb50432b0001611ee3.html</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>La firma malasia de vestidos de novia de Jimmy Choo, The Atelier, ha mostrado este miércoles sus propuestas maximalistas en la pasarela de la Barcelona Bridal Fashion Week, que hasta el próximo 23 de abril se celebra en el recinto Fira Montjuic de la capital catalana, con la presencia de 350 marcas de 90 países y los desfiles de 34 diseñadores.
 Tanto The Atelier como Jolipoli, la otra firma asiática que ha desfilado hoy, han mostrado propuestas alejadas de ese dicho popular que dice que en la moda y el estilo "menos es más".
@@ -1957,13 +1978,13 @@
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>https://www.larazon.es/tecnologia/nueva-york-presenta-nuevos-robots-que-ayudaran-policia-patrullar_202304116435c81e1036390001c4c010.html</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>El alcalde de Nueva York, Eric Adams, y el Departamento de Policía de la ciudad (NYPD) presentaron este martes diversos robots que ayudarán a los agentes a mantener la Gran Manzana segura, entre ellos Digidog, un robot perro policía que fue retirado por el alcalde anterior debido a las críticas.
 "Hoy, estamos anunciando tres nuevas tecnologías policiales en la ciudad de Nueva York: el robot de seguridad autónomo K5, el robot Digidog y el accesorio StarChase GPS", anunció en una conferencia de prensa celebrada en Times Square la comisionada de policía, Keechant Sewell.
@@ -1981,13 +2002,13 @@
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>https://www.larazon.es/educacion/jose-luis-perez-ayala-academico-maestro-ejemplo-bondad_202304216442276550432b0001639c50.html</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>José Luis Pérez de Ayala y López de Ayala, Conde de Cedillo y de Fuensalida, nació en 1931 en Bollullos del Condado, provincia de Huelva y ha fallecido en Madrid en 2023. Nos ha regalado 92 años de una fructífera vida en la que ha sembrado vocaciones académicas, ha dejado abundante e inspiradora obra escrita, y, sobre todo, la imborrable huella de un ejemplo a seguir.
 Ha cumplido sus sueños y ha tenido una vida lograda, en lo personal, en lo familiar, en lo académico y en lo profesional. Entre otros muchos méritos, ha sido Catedrático de economía política, hacienda pública y Derecho financiero, Académico de Número de la Real Academia de Jurisprudencia y Legislación de España, Rector de la Universidad CEU San Pablo, Director de la Revista de Derecho Financiero y Hacienda Pública durante veinte años, Vicepresidente de la International Fiscal Association y ha recibido numerosas distinciones y merecidos homenajes.
@@ -1997,13 +2018,13 @@
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>https://www.larazon.es/sociedad/interior-rechaza-inscribir-confederacion-estudiantes-centroderecha_20230419643ffdb589b71c00016cb0fa.html</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>Los impulsores de una Confederación de estudiantes de centroderecha han denunciado ante el Defensor del Pueblo y ante el Consejo de Transparencia y Buen Gobierno la decisión del Ministerio del Interior de rechazar inscribir a la confederación que han formado que atribuyen a una cuestión de “discriminación ideológica”, más que a cuestiones formales de la tramitación, que son los motivos que esgrimen desde el Registro Nacional de Asociaciones, dependiente del departamento de Fernando Grande Marlaska.
 Los estudiantes impulsores de la iniciativa están dispuestos incluso a acudir a la vía contencioso administrativa si Interior persiste en su negativa porque “no hay errores o una mala interpretación de la normativa, todo obedece a una cuestión política”, explica uno de sus representantes, Álvaro Moreda.
@@ -2014,13 +2035,13 @@
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>https://www.larazon.es/sociedad/fundacion-mutua-madrilena-premia-creatividad-jovenes-violencia-genero_20230419643fe4172f8deb000158435c.html</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>La Fundación Mutua Madrileña ha convocado por noveno año consecutivo #nosdueleatodos, su Concurso Nacional en Centros de Enseñanza y Universidades por la Igualdad y Contra la Violencia de Género. Dirigido a estudiantes de más de 14 años, #nosdueleatodos premia las mejores creatividades, en cualquier formato, para sensibilizar a favor de la igualdad y contra la violencia de género. Los trabajos pueden presentarse hasta el próximo 2 de junio en la web nosdueleatodos.com. En esta nueva edición, conocidos influencers como Andrea Garte, Juan Pérez, Ariane Hoyos, Natalia Palacios, Carlota Cid y Maria Murillo publicarán en TikTok mensajes inspiradores para que los estudiantes se animen a participar.
 El objetivo del concurso #nosdueleatodos es reconocer las mejores ideas creativas para sensibilizar, prevenir y evitar conductas que puedan desembocar en situaciones de maltrato. Además, sirve para poner de relieve la visión que tienen los jóvenes y alertar de situaciones que pueden estar asumiendo con total normalidad pero que pueden devenir en violencia de género con los años.
@@ -2031,13 +2052,13 @@
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>https://www.larazon.es/deportes/futbol/misterio-rapero-enmascarado-que-asegura-ser-jugador-premier_2023042164425ae87f1ecd00019a02f0.html</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Como si la Premier League no fuera lo suficientemente emocionante esta temporada, un futbolista parece haber encontrado tiempo para lanzar una canción de rap en secreto y revolucionar a los fans. La canción Thrill fue lanzada por el artista enmascarado que se hace llamar Dide en YouTube y ya cuenta con más de 700.000 reproducciones.
 Las redes sociales están que arden con la aparición de un nuevo cantante de rap. El artista aparece siempre con una máscara que cubre su rostro y vestimenta que no permite reconocen su identidad. DIDE se está transformando en todo un fenómeno de la música. Con una llamativa máscara con forma de flores que oculta su identidad, el videoclip y la letra de su canción dan muchas pistas del personaje y enseguida los fans han intuido que se trata de una estrella de la Premier League. Pero, ¿quién se esconde debajo de esa máscara? El propio artista dio una pista en su primera publicación en Instagram: "Rapero en casa, futbolista en el campo".
@@ -2047,13 +2068,13 @@
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>https://www.larazon.es/deportes/futbol/fallece-patxi-izco-presidente-osasuna-2002-2012_2023042164425145fc27300001504cd3.html</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>El empresario Francisco José 'Patxi' Izco, presidente del CA Osasuna entre 2002 y 2012, ha fallecido a los 77 años, ha confirmado este viernes el club navarro. "Osasuna lamenta el fallecimiento de Patxi Izco, presidente del club entre 2002 y 2012. Descanse en paz. Goian bego", señaló la entidad rojilla en su cuenta oficial de la red social Twitter. Durante su mandato el club llegó a su primera final de la Copa del Rey y a las semifinales de la UEFA.
 En 2002, se impuso en las elecciones a la presidencia de Osasuna, sucediendo a Javier Miranda Martínez, con un 76% de los sufragios, yendo de la mano del técnico mexicano Javier Aguirre. Con Izco al mando, el equipo fue subcampeón de Copa del Rey en 2005 y un año más tarde terminó cuarto en LaLiga Santander, lo que le dio derecho a jugar el siguiente curso la Liga de Campeones.
@@ -2062,34 +2083,19 @@
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/gente/famosos/david-bisbal-reacciona-propio-video-viral-famoso-como-estan-maquinas_20230421644278a650432b00016424e2.html</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>David Bisbal se ha vuelto viral con un vídeo en el que, tras su actuación en el festival Primavera Pop, de Los 40, celebrado en el WizinKcenter, de Madrid, se dirige a unos fans con la frase "¿cómo están los maquinas?".
-La repercusión del vídeo ha sido tal que ha llegado al propio almeriense, que no ha dudado en manifestarse sobre el tema a través de su cuenta de Instagram.
-La cantante Aitana también se ha pronunciados sobre el video. "Jajajaja. Es que David Bisbal eres el mejor". El almeriense ha contestado con un emoticono de un beso.</t>
-        </is>
-      </c>
-    </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.larazon.es/gente/casa-real/madre-caso-carlos-amor-hijo-camilla-defiende_20230421644272387f1ecd00019a2d15.html</t>
+          <t>https://www.larazon.es/gente/famosos/marta-riesco-desmiente-madre-pronunciado-ruptura-antonio-david_2023042164427e0250432b0001642ead.html</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>En sus memorias "The Substitute", publicadas en enero, el príncipe Harry llamó a su madrastra, Camilla , "peligrosa" y "malvada". También sintió que ella había esperado su momento para poner sus manos en la corona. La esposa del rey Carlos III será coronada reina el próximo 6 de mayo.
-El Príncipe Carlos, su mujer, Camilla Parker, y los hijos de esta, Tom y Laura Parker Bowles Agencias
-Por su parte, Tom Parker Bowles, el hijo de Camilla, defendió a su madre en el podcast "The New Agents", el jueves 20 de abril. “No me importa lo que diga la gente, de ninguna manera fue premeditado”, lanzó sobre la ascensión del soberano. "Se casó con Carlos porque él era la persona que amaba, eso fue lo que pasó".
-Un “papel difícil”
-Cuando se le preguntó sobre sus sentimientos sobre el nuevo estatus de su madre, el crítico gastronómico respondió: "Realmente no nos hace raros, porque todavía somos nuestra madre, mi hermana y yo". Tom Parker Bowles, de 48 años, y su hermana Laura Lopes, de 45, fueron hijos de Camilla y el oficial británico Andrew Parker Bowles, quienes estuvieron casados ​​entre 1973 y 1995. Luego se casó con el todavía príncipe Carlos en 2005.
-En casi veinte años, no ha forjado un vínculo sólido con el Príncipe Harry. Este último aseguró en sus memorias que había participado en varias filtraciones en los tabloides, con el fin de restaurar su imagen en la espalda de los demás miembros de la familia real. “Teníamos miedo de que sus planes terminaran en palizas en la calle”, continuó. Tom Parker Bowles por su parte aseguró que será “difícil” que su madre asuma un papel de tal magnitud durante la coronación, pero que ella “nunca se ha quejado” de esta situación.</t>
+          <t>La ruptura entre Marta Riesco y Antonio David Flores ha dado mucho que hablar, especialmente por las acusaciones que la periodista ha vertido contra Rocío Flores. A través de sus redes sociales, la señaló directamente como culpable de la separación, e incluso insinuó que la había echado de casa en plena noche, mientras una tormenta descargaba sobre la ciudad de Málaga. La polémica ha ido a más cuando la supuesta madre de la exreportera ha entrado en escena y ha revelado nuevos detalles de la separación y lo que ocurrió en la noche que todo estalló por los aires.
+A través de YouTube, con un comentario en un vídeo en el que se analizaba lo sucedido, la supuesta madre de Marta Riesco intentaba defender a su hija y criticaba que Antonio David y Rocío Flores “la echaron a la calle hasta las tres de la mañana". La razón de este agrio final, según su versión, no podría ser más baladí: al parecer les molestó que la exreportera grabara un vídeo y por eso la dejaron en la calle.
+Antonio David Flores y Marta Riesco CONTACTOPHOTO CONTACTOPHOTO
+Sin embargo, ahora Marta Riesco ha desmentido a través de sus redes sociales que su madre haya entrado en escena, y asegura que alguien se ha hecho pasar por ella. “Sólo quiero aclarar que alguien se ha hecho pasar por mi madre por un foro y un canal de YouTube y es totalmente falso. Ni la que escribe es mi madre ni lo que se dice es cierto”, asegura la periodista en su cuenta oficial de Instagram.
+En realidad, fue ella misma quien, poco antes, publicó que se había quedado “tirada en la calle”, y, tras anunciar la ruptura, insinuó que algo horrible había pasado en las últimas horas: “Necesito tiempo para asimilar lo que he vivido. Jamás pensé que me harían algo así en el peor momento de mi vida”.</t>
         </is>
       </c>
     </row>
@@ -2224,29 +2230,10 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.larazon.es/television/programas/lasexta-columna-cumple-400-programas-especial-ultimo-fusilado-guerra-civil_202304216442731650432b0001641c50.html</t>
+          <t>https://www.larazon.es/television/onda-cero-unica-cadena-que-crece-ultimo-ano_20230421644249887f1ecd000199e623.html</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>laSexta Columna, uno de los espacios informativos más innovadores y vanguardistas de laSexta y una referencia de la cadena en el ámbito del reportaje, cumple su emisión número 400 el próximo viernes, alcanzando dicha cifra tras doce temporadas en antena. Un periodo de tiempo en el que el espacio de laSexta ha destacado por sus montajes audaces, sus búsquedas en los archivos y sus textos mordaces que han servido para contar historias desconocidas. Y todo ello con la música como uno de los principales elementos diferenciadores y seña de identidad.
-“laSexta Columna intenta ser una mirada periodística diferente. Siempre con audacia creativa y con un punto de heterodoxia”, explica Antonio García Ferreras, presentador del espacio desde su aparición en 2012.
-En total, laSexta Columna, presentada por Antonio García Ferreras y bajo la dirección de Carlos Pastor, ha llevado a cabo más de 5.000 entrevistas y decenas de miles de horas de grabaciones para explicar los dilemas a los que se ha enfrentado la sociedad española, así como los retos del presente en los que se encuentra inmersa.
-Durante estas doce temporadas, laSexta Columna ha prestado atención a temáticas como la escasez de recursos y la emergencia climática, la influencia de la tecnología y la incertidumbre laboral, la lucha feminista, la polarización social, la corrupción, la crisis económica o la emergencia de nuevos actores políticos, entre otras.
-Desde el inicio de sus emisiones en enero de 2012, laSexta Columna ha promediado un 7,2% de cuota y una media de 1.123.000 seguidores, alcanzando una audiencia media acumulada en cada programa de 3.220.000 espectadores únicos. La cobertura de todos estos años ha ascendido a más del 90% (39.282.000) que han visto el espacio en algún momento. El programa se ha posicionado como la tercera opción absoluta en Target Comercial (8,8%).
-La Historia, factor diferencial
-Bajo la premisa de conocer el pasado para comprender el presente, laSexta Columna ha mostrado una especial atención a la Historia. Una apuesta arriesgada para un programa de actualidad que, sin embargo, se ha consolidado como una de sus señas de identidad a través de la puesta en marcha de la marca ‘Columnas de la Historia’, que acoge sus especiales históricos.
-A lo largo de sus 400 emisiones, el espacio de laSexta ha dedicado especiales a los internados en los campos de concentración del franquismo, a las víctimas de bombardeos de la Guerra Civil sin la notoriedad de Guernica, a los últimos supervivientes de dicho conflicto o a los españoles que combatieron en la Segunda Guerra Mundial sin que se reconociese su papel en dicha conflagración.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>https://www.larazon.es/television/onda-cero-unica-cadena-que-crece-ultimo-ano_20230421644249887f1ecd000199e623.html</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
         <is>
           <t>Los oyentes de la radio en España buscan un modelo muy concreto de radio que les aporte confianza gracias a su credibilidad, pluralidad y la cercanía de sus comunicadores. Por eso, y según los datos de la primera ola del Estudio General de Medios 2023 (EGM), Onda Cero reúne a dos millones de oyentes que confían cada día en la cadena de Atresmedia, que es, además, la única radio generalista comercial que mejora su audiencia en la presente ola.
 Los protagonistas
@@ -2257,13 +2244,13 @@
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>https://www.larazon.es/television/programas/tamara-falco-anuncia-pedida-mano-nuria-roca-juan-val-recuerdan-suya_202304206441a6f27adfa80001c41730.html</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>Como cada jueves en 'El Hormiguero', tras la visita de Ana Polvorosa y Michelle Jenner, tuvo lugar "la polémica tertulia" a la que se reincorporó Tamara Falcó tras su ausencia por enfermedad la semana pasada. La propia marquesa de Griñón comentó que próximamente tendría ocasión su pedida de mano con Íñigo Onieva; lo que dio carrete para los cinco primeros minutos de coloquio.
 Al hilo, Nuria Roca y Juan del Val recordaron su petición de mano: "Ella a mí me regaló un reloj horroroso y yo le regalé un anillo precioso", desveló el escritor. Contraatacó la presentadora de 'La Roca' asegurando que Juan no le regaló nada "porque me volvió a dar el mismo anillo con el que me pidió matrimonio". "Mi familia no estuvo presente porque era en Valencia", y "El padre de Nuria me obligó a aprender valenciano", soltó entre risas Del Val.
@@ -2273,13 +2260,13 @@
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>https://www.revistainteriores.es/ideas-casa/sin-obras-ni-reformas-3-consejos-renovar-bano-cocina-dormitorio_56371?utm_source=larazon&amp;utm_medium=interiores&amp;utm_campaign=abril-23</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>No importa si estrenamos curso, temporada, año o estación… La cuestión es que cuando cambiamos de tercio lo que nos apetece es también un cambio en lo que nos rodea. Es algo místico y matemático a la vez.
 Algunos se lanzan -y quedan satisfechos- con el cambio de armario, pero otros necesitan dar algunos pasos más. Si preguntamos a arquitectos e interioristas en qué fecha del año eligen la mayoría de sus clientes para lanzarse a la aventura de las reformas y renovaciones, muchos confirman la regla: al nuevo curso, nueva casa.
@@ -2325,13 +2312,13 @@
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>https://www.larazon.es/compras/aldi-compite-ikea-solucion-almacenamiento-que-podras-colocar-cualquier-lugar_202304216442436f7f1ecd000199d987.html</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>La cadena germana de supermercados se ha hecho un hueco entre los consumidores gracias a sus productos de bazar que muchas veces compiten con otros grandes establecimientos dedicados al hogar como pueden ser Ikea o Leroy Merlin. No obstante, Aldi es una de las principales cadenas de supermercados de España, con un modelo de negocio basado en el descuento, que va más allá de sus productos de alimentación. El supermercado de origen germano orienta su actividad en ofrecer productos de alta calidad al mejor precio, es por ello que no nos podemos perder sus productos de bazar que cambian semanalmente.
 En otras ocasiones ya hemos visto como Aldi compite ferozmente en el sector Hogar con pequeños muebles o accesorios con un precio estupendo y que son muy parecidos a los del gigante sueco Ikea, como carritos auxiliares, textiles para el hogar, e incluso pequeños muebles para la habitación de los niños.
@@ -2343,13 +2330,13 @@
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>https://www.larazon.es/compras/truco-manitas-que-jamas-pensaste-que-frabricaria-xiaomi_202304216442237389b71c00016fecc6.html</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>El gigante chino Xiaomi hace de todo: móviles, tablets, monitores, televisores, portáttiles, patinetes, relojes de actividad, impresoras, cargadores, infladores de ruedas, ventiladores, aspiradores, freidoras de aire, cámaras de seguridad... Pero en su tienda de Amazon hemos encontrado algo que jamás pensaríamos que podría llegar a fabricar (y que lo haría con tanto éxito): un revolucionario destornillador inalámbrico.
 Y no solo es que curioso, práctico y accesile para todos, sino que además es que arrasa en las valoraciones de los clientes, que le dan un espectacular 4,8 sobre 5 con un 83% de clientes otorgando la máxima nota y solo uno entre cerca de 200 descontento, y en este caso por problemas de envío. En fin, pleno para un producto pensado para los manitas que además ahora, y por poco tiempo, está en oferta en Amazon: cuesta solo 24,99 euros gracias a un descuento del 29% (10 euros de rebaja) solo en Amazon.
@@ -2363,13 +2350,13 @@
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>https://www.larazon.es/compras/lidl-vuelve-tener-venta-famoso-robot-cocina-ahora-gastos-envio-gratis_202304206440f1ea7adfa80001c2eb9e.html</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Si estabas esperando este momento como “agua de mayo”, aunque estemos en abril, es la hora, ya que Lidl vuelve a poner su famosísimo robot de cocina a la venta y tienes una oportunidad única para poder llevártelo a casa y ser el auténtico “cocinillas” que siempre has deseado.
 El nuevo modelo de Monsieur Cuisine, llamado Smart, estará a la venta desde el mismo 20 de abril en su página web. Además, Lidl ha querido ir más allá y para celebrar la nueva llegada de este robot de cocina tiene un cupón de envío gratis por tiempo limitado del 20 al 28 de abril. Solo tienes que poner el código ROBOTLIDL cuando efectúes la compra y listo.
@@ -2386,13 +2373,13 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>https://www.larazon.es/compras/buscas-chromebook-barato-aqui-tienes-30-oferta-50_202304206440c0b5fc273000014dfae3.html</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>Si no tienes ya uno en casa, seguramente habrás oído hablar del Chromebook, ese mini ordenador portátil (más pequeño incluso que un portátil al uso) que es muy sencillo de utilizar y que se está implantando ya en muchos colegios. Es un instrumento ideal como primera experiencia con los ordenadores, especialmente para un público joven, y para usos en los que sea suficiente con utilizar archivos en la nube. Es decir, la mayoría hoy en día.
 Tiene muchas ventajas respecto a los portátiles convencionales, y una de ellas es indudablemente el precio. Y mucho más estos días, en concreto hasta el domingo 23 de abril, gracias a una promoción que ha lanzado la web de Pc Componentes, con descuentos en una treintena de modelos que llegan hasta el 50%, y que en la sección De Compras de La Razón recomendamos. Pero hay una mala noticia: las unidades vuelan y en algunos casos están ya a punto de agotarse o lo han hecho ya.
@@ -2414,13 +2401,13 @@
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>https://www.larazon.es/compras/cuidado-nueva-estafa-ninja-air-fryer-lidl_202304196440034f89b71c00016cc06a.html</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>La cadena alemana de supermercados ha avisado a sus clientes y potenciales clientes de la nueva estafa que está proliferando en la que se insinúa que has ganado una freidora de aire. Gracias a algunos de sus clientes que han preguntado a Lidl España directamente a través de redes sociales como Instagram o Twitter, el supermercado ha respondido que efectivamente se trata de una estafa que se hace en nombre de Lidl.
 El truco es muy sencillo, y es que se recibe a través del correo electrónico un mensaje en el que se asegura que la persona a la que va dirigida ese correo ha sido elegido para participar en el programa de fidelización del supermercado totalmente gratis, y aseguran que solo le llevará un minuto recibir el fantástico premio de una Ninja Air Fryer , que es el nuevo modelo de freidoras de aire.
@@ -2431,13 +2418,13 @@
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>https://www.larazon.es/compras/decathlon-arrasa-asics-que-seran-regalo-perfecto-dia-madre_20230419643fa06f1036390001d60233.html</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>Somos fans absolutos de Decathlon, en sus tiendas físicas o en su página web podemos encontrar cualquier producto que necesitemos para poder practicar cualquier deporte. Pero es que, además, de vez en cuando, podemos encontrar auténticos chollos en marcas que no son las suyas propias, lo que hace que haya que estar atento para no perderse estas oportunidades.
 Esto es lo pasa ahora mismo con unas zapatillas de correr de la marca Asics para mujer, cuyo precio ha desplomado Decathlon dejándolas por debajo de 40 euros, lo que es un auténtico chollo. Si no tiene regalo para el Día de la Madre seguro que con este no va a fallar, puesto que las zapatillas Asics son consideradas entre las más cómodas del mercado.
@@ -2450,6 +2437,32 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://www.larazon.es/espana/juez-autoriza-nuevo-examen-psiquiatrico-asesino-sacristan-algeciras_2023042164427e1a89b71c0001708a63.html</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Yassin Kanjaa, el supuesto yihadista imputado por el asesinato de un sacristán en Algeciras el pasado 25 de enero, será sometido a un nuevo examen psiquiátrico. El juez de la Audiencia Nacional Joaquín Gadea ha aceptado la petición de la defensa del investigado y en una providencia a la que ha tenido acceso LA RAZÓN ha dado su visto bueno a que dos psiquiatras designados por los abogados del joven marroquí se desplacen el próximo jueves al hospital psiquiátrico penitenciario de Sevilla, donde se encuentra ingresado, para realizar un informe pericial sobre su salud mental.
+Todo con el objetivo de determinar si Yassin Kanjaa estaba o no en el pleno uso de sus facultades mentales, lo que determinará si es posible imputarle los delitos de asesinato y lesiones con fines terrorista que le atribuye el instructor, y que podrían acarrearle una condena de prisión permanente revisable.
+El pasado enero, Gadea ya ordenó que dos forenses de la Audiencia Nacional examinaran al investigado para realizar un informe psiquiátrico, un dictamen que concluyó que padecía un posible trastorno delirante. A la espera de que ese informe sea ampliado, el magistrado acordó el pasado abril su internamiento en un centro psiquiátrico penitenciario, donde todavía permanece. Con este nuevo informe de parte, la defensa de Yassin Kanjaa pretende acreditar que al supuesto autor del apuñalamiento y decapitación del sacristán, que además también hirió a un párroco, no se le puede atribuir responsabilidad penal por problemas psiquiátricos.
+"Ataque yihadista"
+Tras tomarle declaración, el juez de la Audiencia Nacional acordó el pasado 30 de enero su ingreso en prisión al considerar los hechos como "un ataque yihadista dirigido tanto contra sacerdotes que profesan la fe de la Iglesia Católica como contra musulmanes que para el investigado no siguen los preceptos del Corán". Un comportamiento que el instructor atribuye a "un proceso de radicalización religiosa".
+En respaldo de esa supuesta radicalización de Yassin Kanjaa, Gadea reseñaba en su auto que las declaraciones de varios testigos apuntan a que ese cambio se produjo "en el último mes o mes y medio", pues hasta ese momento llevaba una vida "normal". Sus compañeros de piso explicaron que un tiempo atrás "bebía alcohol y fumaba hachís" hasta que "cambió de hábitos de manera radical, escuchando de manera asidua el Corán a través de audios desde su teléfono móvil".
+El auto de prisión destaca que el detenido "mantenía y mantiene un compromiso implícito con su visión del islam encontrándose plenamente radicalizado en terrorismo yihadista", lo que culminó, tras un "rápido" adoctrinamiento ideológico, con la comisión del ataque en Algeciras, en el que buscaba "consciente e intencionadamente" causar "el mayor daño posible".
+La Audiencia retiene la investigación
+Hace solo unos días, Gadea rechazó de nuevo inhibirse de la investigación y remitir la causa a un Juzgado de Algeciras y reiteró que todos los indicios apuntan a que se trató de un ataque terrorista de carácter yihadista.
+"La identidad de las personas agredidas, el lugar de comisión de los hechos, los datos aportados al procedimiento sobre acceso a páginas de internet y las propias manifestaciones realizadas por el investigado en su declaración permiten deducir que el fin pretendido", -argumentaba- encajan en los parámetros de un delito de terrorismo, cuya competencia corresponde a la Audiencia Nacional.
+Decapitado a machetazos
+Según ha puesto de relieve la investigación, ese 25 de enero Yassine Kanjaa acudió a la iglesia de San Isidro de Algeciras y, tras vociferar en el templo expresiones religiosas sobre la Biblia y el Corán en una «actitud desafiante», protagonizó una disputa tras la cual decidió marcharse. Regresó a su domicilio, mantiene el juez, «con el objetivo claro y definido de ejecutar los hechos» investigados, para lo que cogió «un machete de grandes dimensiones» y lo ocultó bajo la chilaba, apagó su teléfono móvil y lo guardó en un cajón.
+De nuevo en la calle, agredió «con intención de matarle» a la primera de sus víctimas, un español de origen marroquí al que ataca por ser «converso y no practicar la auténtica religión, el islam». Yassine regresa entonces a la iglesia de San Isidro profiriendo gritos en árabe y, cuchillo en mano, golpea en la nuca a un sacerdote que intentaba huir.
+A continuación, se dirige a un segundo templo, la iglesia de Nuestra Señora de la Palma, donde se encuentra el sacristán, Diego Valencia, que intenta huir perseguido por el imputado, «quien no cesa en el ataque, profiriendo continuos golpes con el machete».
+Cuando se encuentra en el centro de la Plaza Alta, la víctima cae al suelo y Yassine Kanjaa le asesta «dos golpes mortales dirigidos a la decapitación» del sacristán. El supuesto terrorista se dirigió a otra parroquia, el Santuario de Nuestra Señora de Europa, «realizando un gesto de victoria apuntando su machete hacia el cielo». Allí empieza a golpear la puerta a patadas, no consiguiendo abrirla, por lo que continúa la marcha por la calle Murillo hasta el conocido como «Mirador del Muro», donde vuelve a realizar el gesto de la victoria y es finalmente detenido.</t>
+        </is>
+      </c>
+    </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
@@ -2470,17 +2483,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.larazon.es/cataluna/consell-laudiovisual-caralunya-califica-libertad-expresion-insultos-burlas-tv3-virgen-rocio_20230421644279b189b71c00017081bf.html</t>
+          <t>https://www.larazon.es/internacional/plan-eeuu-desembarcar-decenas-tanques-abrams-rumbo-guerra-ucrania_2023042164427d907adfa80001c545c1.html</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>El Pleno del Consell de l’Audiovisual de Catalunya (CAC) ha adoptado por unanimidad una resolución en la que considera que la parodia de la Virgen del Rocío que el programa “Està passant”, de TV3, emitió el 4 de abril en su sección “L'entrevista improvisada” se ampara en el derecho a la libertad de expresión.
-“La expresión satírica es una manifestación de la libre opinión de ideas, creencias y juicios de valor, que se utiliza como un instrumento de denuncia y de crítica social”, afirma el CAC.
-Aunque reconoce que dichas expresiones satíricas “pueden resultar desafortunadas, e incluso hirientes, especialmente para las personas que profesan la fe católica”, el CAC no aprecia en ellas ninguna vulneración de la normativa audiovisual.
-La resolución, que se ha elaborado a partir de un informe de contenidos, apunta que “L’Entrevista improvisada” incorpora elementos satíricos e irónicos en el marco de un programa de humor, por lo que no hay posibilidad de confusión respecto al propósito comunicativo del fragmento analizado.
-Además, señala que el conductor del programa, dejando de lado el registro humorístico, expresa su respeto hacia dichas creencias religiosas hasta en tres ocasiones distintas.
-Asimismo, cita diez acuerdos anteriores que el CAC ha elaborado sobre la libertad de expresión, además de diversas resoluciones y sentencias, varias de ellas de organismos internacionales, sobre el tratamiento de la religión y los límites de la libertad de expresión.</t>
+          <t>El M1 Abrams es el tanque de batalla principal de EEUU y es utilizado también por Egipto, Arabia Saudí, Kuwait y Australia. Dentro de poco tiempo llegará a Ucrania para participar en la guerra contra Rusia junto con los tanques Leopard alemanes y Challenger británicos. Pero antes de que la transferencia se haga efectiva, Estados Unidos ha anunciado que comenzará a entrenar en las próximas semana a los soldados ucranianos en la operación y el mantenimiento de los tanques Abrams, informó el viernes Associated Press, citando a funcionarios estadounidenses anónimos.
+La decisión se anunció mientras los ministros de Defensa de unos 40 países se reúnen en la base militar estadounidense Ramstein en Alemania como parte del Grupo de Contacto de Apoyo a la Defensa de Ucrania para coordinar más envíos de armas al país que lucha contra la invasión de Rusia.
+Según la agencia AP, hasta 31 carros de combate Abrams serán llevados a la base de entrenamiento de Grafenwoehr en Alemania a fines de mayo, y el ejército ucraniano comenzará a entrenar unas semanas más tarde en una proceso que durará unas 10 semanas.
+Estos carros de combate, equipados con cañones de 120 mm y ametralladoras de calibre 50, podrían suponer un gran cambio a favor de las aspiraciones de Ucrania para recuperar el territorio perdido desde que comenzó la invasión rusa hace más de un año. Se desconoce a día de hoy cuál será la capacidad tecnológica de las variantes Abrams destinadas a Ucrania, pero los expertos aseguran que si cuentan con sensores de puntería avanzados en alcance y resolución, podrían tener muchos éxitos a la hora de destruir blindados rusos.
+Ingenieros y soldado detrás de la caja de sensores del sistema ATLAS montada en un tanque M1 Abrams el pasado 5 de noviembre. Jenna Mozeyko. DVIDS.
+Los tanques Abrams utilizados para el entrenamiento no serán los únicos que se entregarán a Ucrania para luchar contra Rusia. Otros 31 tanques M1-Abrams se están actualizando en Estados Unidos y se entregarán cuando estén listos para su uso.
+De acuerdo con las intenciones de las autoridades estadounidenses, cuando los tanques actualmente modernizados estén listos, los soldados ucranianos serán entrenados para manejarlos. Alrededor de 250 ucranianos participarán en la capacitación; algunos de ellos aprenderán a operar tanques y otros aprenderán a repararlos y mantenerlos.
+Según la web Global Firepower, Moscú opera más de 12.000 tanques, en contraste con los 1.890 de Ucrania. Aunque Rusia tiene una gran ventaja en términos de número, muchos de sus tanques están anticuados y carecen de mantenimiento y artillería adecuada. Por tanto, la ventaja tecnológica que estos vehículos de EEUU proporcionarán a Ucrania podría tener un impacto importante en el desarrollo del conflicto.
+Desde su introducción, el tanque de batalla principal M1 Abrams ha estado involucrado en las principales operaciones militares de EE UU, incluidas la Operación Tormenta del Desierto y la Guerra de Irak. El M1 Abrams se entregó por primera vez a principios de la década de 1980 y desde entonces se han construido más de 9.000 unidades en EEUU y Egipto. En los últimos años, este carro ha experimentado varias actualizaciones.</t>
         </is>
       </c>
     </row>
@@ -2839,10 +2855,40 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
+          <t>https://www.larazon.es/andalucia/cadiz/grupo-andy-lucas-habla-claro-llama-bildu-voy-etarra_2023042164425ddf50432b000163f8d4.html</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Tras casi una vida juntos, el dúo gaditano Andy y Lucas (Andrés Morales y Lucas González) presenta una recopilación de sus dos décadas encima de los escenarios con el disco '20 años en más de 20 canciones' en el que recogen sus grandes éxitos a lo largo de su trayectoria. Por ello, se subieron a un imponente escenario en la plaza madrileña de Cibeles en la Fiesta de la Resurrección el pasado sábado y se muestran abiertos también a participar en el Orgullo Gay si recibieran la llamada, aunque rechazarían hacerlo si les llama EH Bildu.
+"Si nos llaman en el Orgullo Gay vamos también. Nosotros hacemos música. Otra cosa es que me llame Bildu. Si me llama Bildu no voy, son etarras y han matado gente", contesta de manera tajante Lucas en una entrevista concedida a Europa Press al ser preguntado por el concierto que organizó la Asociación Católica de Propagandistas (ACdP), bajo el título 'La fiesta de la Resurrección'.
+En este contexto, el artista ha querido dejar claro que el grupo musical no es de ningún color político, sino "insípido". "Si la contestación es de qué partido político es Andy y Lucas: insípido", ha contestado el gaditano.
+Al mismo tiempo ha rechazado las etiquetas sobre gustos personales, creencias o sensibilidades asegurando que ellos no son "de nadie". "Si vas con los católicos eres de derecha o ultraderecha. Si vas con los gays eres ultraizquierda. Nosotros no somos de nadie. Nosotros somos nuestra patria. Mi bandera es mi hijo", añade Lucas.
+"Son de amores"
+Han sido numerosos artistas los que se han prestado a colaborar en este disco recopilatorio en varios temas muy conocidos del dúo gaditano como Lérica, Abraham Mateo o Los Rebujitos, y, aunque reconocen que les habrían encantado contar con algunos más, en el disco "están los que tenían que estar".
+"El disco es un homenaje a nosotros, a nuestros fans, a nuestra trayectoria. Y los que han estado... bendita gloria por ellos", manifiesta Andy, quien se muestra ilusionado con el trabajo realizado.
+Según cuenta Lucas, a la hora de escribir los temas "se piensa en la gente" pero él en particular también tiene en cuenta a su compañero y amigo Andy por los diferentes tonos en los que cantan. "Yo pienso en su parte y ahí es donde intento poner la letra más bonita", asegura el cantante poniendo como ejemplo 'Pido la palabra', una canción dedicada a la joven sevillana Marta del Castillo que desapareció el 24 de enero de 2009 a los 17 años.
+"Lo más complicado, más que el tono, es que él baila conmigo", cuenta Lucas orgulloso y halagando a Andy en su facilidad para adaptarse a las improvisaciones encima del escenario sin previo ensayo.
+Con total rotundidad, el dúo gaditano asegura que la mejor canción que han creado es 'Son de amores', aunque también recuerdan con mucho cariño 'Tanto la quería', ambas de su primer disco 'Andy &amp; Lucas' (2003) y se muestran extrañados de que algunos de los artistas que colaboran en el disco eligieran canciones que ellos no pensaban.
+"Salieron canciones que yo no pensaba que querían. Yo no les he dicho a ellos 'a cantar estas', yo les he dejado", dice Lucas.
+Relativizar los problemas
+Desde 2003 Andy y Lucas no se han separado ni han dejado de componer temas, aunque sí admiten que han tenido "altibajos" más en el lado personal que profesional, si bien se consideran gente con "mucha suerte", apunta Andy.
+Por su parte, Lucas explica que con el tiempo ha aprendido a relativizar los "problemas". Eso sí, asegura que hace tiempo sí sufría "penas de verdad". "Hoy en día si tengo un poquito de bajón es porque no he descansado bien o porque un fin de semana me la he pegado y, como tenemos 40 años, la resaca dura cinco días", explica entre risas.
+A pesar de los eventos, conciertos, promociones y vida personal, Lucas asegura que también intenta ponerse al día con lo que sucede en el mundo y le gusta "mucho" leer las noticias y escuchar la radio. "Mi vida es la radio", relata.
+Dicho esto, y sin querer adelantar más información para que "se haga realidad", los artistas cuentan que están ilusionados por futuros proyectos en Latinoamérica que pronto verán la luz.
+"Un rinconcito del sur"
+El dúo le ha cantado al amor, al desamor, a la lacra social del maltrato y, como no, a su tierra Andalucía y a su rinconcito en el Sur que los vio nacer, Cádiz. Pero también reivindican su amor por todas y cada una de las comunidades españolas que han pisado y donde les han tratado "de maravilla siempre".
+Alejándose de polémicas sobre estereotipos que les "pueden traer cola", los gaditanos aseguran que "hay de todo en la viña del señor", pero ponen en valor la calidad humana de las tierras del norte como Asturias, Cantabria, Galicia, Castilla y León o Cataluña, por nombrar algunas, donde les han recibido muy amablemente. "Nosotros disfrutamos de España con todo su esplendor", recalcan</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
           <t>https://www.larazon.es/andalucia/gastronomia-gaditana-cita-sanlucar-reivindicar-singularidad-sus-productos_2023042164422ffa89b71c00016ffc5f.html</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>La riqueza cultural y gastronómica que atesora desde hace siglos la provincia de Cádiz ha hecho que sus productos, de la tierra y el mar, sean cada vez más demandados tanto a nivel nacional como internacional. Una de las claves del éxito recae en los productores agroalimentarios, que aúnan tradición y cultura para conseguir los mejores resultados. La singularidad de estos productos se encuentra en la forma en la que se obtienen, se producen y se consumen. De generación en generación, este enclave situado al sur de la península ha sabido integrar la tradición en los procesos de innovación para cosechar el éxito. Además, la venta en el sector gastronómico es una importante fuente de ingresos y empleo en la provincia, lo que contribuye a su desarrollo económico.
 En este contexto, LA RAZÓN, en su apoyo constante al tejido empresarial andaluz, organizó ayer la jornada gastronómica “Con sabor a Cádiz: Productos con nombre y apellido” en el Hotel Albariza de Sanlúcar de Barrameda. El objetivo de este coloquio fue potenciar y fomentar la gastronomía y toda la cultura que rodea al sector.
@@ -2889,13 +2935,13 @@
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>https://www.larazon.es/economia/complementos-pension-jubilacion-demorada-crecieron-65-2022_2023042164427661fc27300001508d74.html</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>El ministro de Inclusión y Seguridad Social, José Luis Escrivá, ha asegurado este viernes que los complementos de pensión por jubilación demorada crecieron un 65% el pasado año, mientras que el porcentaje que retrasa su edad de jubilación "ha ido aumentando y en 2022 fue del 5,4%".
 "No son grandes cifras, pero vamos mejorando", ha valorado el también el titular de Migraciones. Actualmente, los incentivos a la jubilación demorada pueden percibirse o bien mediante el mencionado complemento o a través de un único pago en el momento de la jubilación, que Escrivá cifra en una media de 13.000 euros por año demorado, aunque ha indicado que se han abonado pagos "de más de 200.000 euros".
@@ -2907,13 +2953,13 @@
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>https://www.larazon.es/economia/asi-como-puede-conducir-forma-eficiente-ahorrar-dinero_202304216442675dfc273000015073a6.html</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>El precio de los combustibles sigue sin dar tregua a los conductores, haciendo que este sea uno de los muchos gastos que sigue asfixiando a las economías familiares un año más. En este sentido, el Boletín Petrolero de la Unión Europea (UE), correspondiente a la semana del 11 al 17 de abril, sitúa el litro de gasolina en España cuesta 1,651 euros, un 0,67% más que la semana anterior, cuando salía a 1,640 euros, acumulando tres subidas consecutivas. En cambio, el diésel vuelve a abaratarse por quinta semana seguida, llegando a costar 1,519 euros el litro, frente a los 1,523 euros de la semana anterior (0,26% menos). Por tanto, actualmente, llenar un depósito medio de 55 litros con gasolina cuesta 90,80 euros, mientras que si lo que se reposta es gasóleo, asciende a 83,54 euros.
 Ante este escenario, muchas personas se preguntan como pueden pagar menos a la hora de repostar, por ello, desde el blog de la Asociación de Usuarios Financieros (Asufin) recogen una serie de claves para la reducción de los costes a través de una conducción más eficiente.
@@ -2930,13 +2976,13 @@
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>https://www.larazon.es/economia/competencia-obstaculo-que-enaire-pueda-participar-nuevo-proceso-liberalizacion-torres-control-filial_20230421644264e689b71c0001705d28.html</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>La Comisión Nacional de los Mercados y la Competencia (CNCM) considera que, desde el punto de vista del impacto en la competencia, no debería haber impedimento en que la compañía pública Enaire participe en el nuevo proceso de liberalización de torres de control que ha lanzado el Ministerio de Transportes, Movilidad y Agenda Urbana (Mitma). Así lo recoge en su respuesta a la consulta realizada por Enaire sobre la posibilidad de crear una filial (EGS-Enaire Globlal Services) que se presente a las licitaciones de las torres de control aéreo que convoquen Aena y otros gestores europeos e internacionales.
 Noticias relacionadas Sector aéreo Las aerolíneas defienden que la liberalización de las torres hace que los precios de los billetes sean más competitivos
@@ -2947,13 +2993,13 @@
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>https://www.larazon.es/sociedad/catedratico-jose-luis-perez-ayala-fallece-92-anos_202304206441ae827f1ecd00019917eb.html</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>La madrugada de este jueves falleció a los 92 años de edad José Luis Pérez de Ayala, catedrático de Economía política y Hacienda pública y rector de la Universidad CEU San Pablo. A lo largo de su trayectoria profesional fue profesor en Icade, Murcia, Navarra, y las universidades Autónoma de Madrid y Complutense. Pérez de Ayala ostentaba además los títulos de XVII conde de Cedillo y de conde de Fuensalida.
 Nació en la localidad andaluza de Bollullos Par del Condado (Huelva) el 21 de enero de 1931, hijo de Pedro Miguel Pérez de Ayala y de María Josefina López de Ayala y Morenés (XVI condesa de Cedillo). Contrajo matrimonio con María de los Ángeles Becerril y Bustamante, y tuvieron cuatro hijos.
@@ -2963,13 +3009,13 @@
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>https://www.larazon.es/sociedad/ponle-freno-15-anos-salvar-vidas-carretera_202304206441ae1750432b0001631191.html</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>La edición de este año de la entrega de los Premios Ponle Freno ha sido muy especial, ya que estos galardones han cumplido 15 años de historia. Esta iniciativa de acción social, la mayor de nuestro país por la Seguridad Vial, y que está promovida por el Grupo Atresmedia junto a Fundación AXA, ha trabajado a lo largo de estos años para reducir el número de víctimas por accidentes de tráfico, y mantiene como objetivo que esta cifra se reduzca a cero. Administraciones públicas, entidades sociales, empresas y la sociedad en su conjunto han respondido durante este tiempo a este llamamiento y se han sumado a la iniciativa.
 Conducida, como en años anteriores, por Matías Prats, y respaldada por el consejero delegado de Atresmedia, Javier Bardají, y la consejera delegada de AXA y presidenta de la Fundación AXA, Olga Sánchez, esta edición ha querido distinguir de nuevo el esfuerzo y la implicación de personas, instituciones públicas y privadas y organismos que han contribuido de manera activa y positiva a combatir las muertes por accidente en nuestro país.
@@ -2983,13 +3029,13 @@
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>https://www.larazon.es/sociedad/maldives-floating-city-asi-sera-primera-ciudad-flotante-mundo-que-construira-maldivas_2023042064419bd7fc273000014f5af7.html</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>El cambio climático es innegable. Las temperaturas suben cada año, el nivel del agua aumenta a pasos agigantados y las ciudades costeras están en riesgo de desaparecer a menos que se intente revertir la tragedia del calentamiento global. Cualquier acción a favor del clima es importante, pero el peligro acecha y hay que buscar alternativas eficaces para que la catástrofe no sea mayor. Por ejemplo, Maldivas, en riesgo de verse afectada por la subida del nivel del mar, ha puesto en marcha Maldives Floating City, la primera ciudad flotante del mundo.
 Maldivas es uno de los países que más sufre las consecuencias del cambio climático, pero esto podría mitigar el riesgo de hundimiento completo. Una idea que se planteó hace más de diez años, para evitar que la isla quede inundada, ante el aumento del riesgo climático. Pero no ha sido hasta 2022 cuando comenzó su construcción. Contará con unas 5000 casas que flotarán en el agua y será la primera ciudad flotante del mundo, situándose muy cerca de la actual capital del país.
@@ -3001,13 +3047,13 @@
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>https://www.larazon.es/sociedad/bruselas-insiste-que-ampliacion-regadios-podria-contravenir-legislacion-comunitaria_2023042064416d797adfa80001c3cb76.html</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>La Comisión Europea ha reiterado este jueves que la proposición de ley que está siendo tramitada en el Parlamento Andaluz para ampliar los regadíos en Doñana “podría contravenir la legislación comunitaria” y que esto obliga al Ejecutivo comunitario a garantizar con “todos los medios disponibles” que la legislación europea se cumpla.
 En esta ocasión, la Comisión Europea ha respondido por escrito a una pregunta parlamentaria realizada por los eurodiputados socialistas César Luena y Javier Lopez. “De aprobarse en los términos anunciados, esta propuesta legislativa podría contravenir la legislación medioambiental comunitaria aplicable”.
@@ -3020,13 +3066,13 @@
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>https://www.larazon.es/sociedad/papa-insta-politicas-vision-futuro-proteger-medio-ambiente_2023042064414a10fc273000014ee34e.html</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>El Papa Francisco instó hoy a estudiar "políticas con una visión de futuro ante la necesidad urgente de proteger el medio ambiente", al recibir en el Vaticano a una delegación británica de líderes interreligiosos del Gran Manchester, de Gran Bretaña.
 El pontífice inició su discurso con una referencia a la Revolución Industrial que comenzó en ese país, que, "con su legado de enorme progreso técnico y económico", supuso también "un indudable impacto negativo sobre el medio humano y natural".
@@ -3038,13 +3084,13 @@
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>https://www.larazon.es/sociedad/guardia-civil-zaragoza-intercepta-venezolano-que-circulaba-184-kmh-tramo-90_2023042064413f11fc273000014ed189.html</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Agentes del Destacamento de Tráfico de la Guardia Civil de Calatayud han investigado a un venezolano, conductor de un vehículo por un presunto delito contra la seguridad vial al circular a más del doble de la velocidad permitida en esa vía.
 Los hechos ocurrieron cuando agentes de dicho destacamento realizaban un control de velocidad con radar móvil en la N-234, término municipal de Bijuesca, y detectaron un vehículo que circulaba a 184 km/h, siendo la permitida en esa vía de 90km/h, sobrepasaba con ello en más de 80km/h la velocidad permitida para esa vía interurbana que conlleva un delito contra la seguridad vial por exceso de velocidad.
@@ -3054,13 +3100,13 @@
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>https://www.larazon.es/sociedad/terrible-crimen-que-supuesto-cadena-perpetua-pablo-ibar_202304206441232efc273000014e9e3e.html</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Casimir Sucharski era dueño del club nocturno "Casey's Nickelodeon" y el 27 de junio de 1994 celebraba un encuentro en su casa de Miramar las bailarinas Sharon Anderson y Marie Rogers. Una cámara de seguridad instalada en la vivienda pocos días antes captó cómo dos hombres encapuchados, armados con pistolas, entraron en la casa por la puerta corredera del salón, y agredieron, ataron y amordazaron a Sucharsky y a las dos mujeres. Durante 20 minutos, los asaltantes revolvieron toda la casa en busca de joyas y dinero. Encontraron el dinero que el empresario guardaba en sus botas y decidieron acabar con la vida de los tres. Antes de abandonar la casa, uno de los asaltantes desenrolla la camiseta que le tapaba la cara y se seca el sudor. La cámara capta el momento, pero la calidad de las imágenes no es buena. La cinta de VHS y la poca luz hace que sea muy complicado identificarle. Pero, a pesar de ello, esa se convierte en la principal prueba contra Pablo Ibar.
 Noticias relacionadas Tribunal de Apelaciones de Florida Confirmada la sentencia a cadena perpetua a Pablo Ibar
@@ -3084,13 +3130,13 @@
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>https://www.larazon.es/lifestyle/moda/vicky-martin-berrocal-pone-flamenca-camisa-lunares-mas-sofisticada-que-hemos-encontrado-muy-parecida-massimo-dutti_202304216442536a50432b000163e846.html</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>"Vámonos pa la Feria, vámonos cariño mío", una animada melodía que describe a la perfección las ganas que tenemos de que la Feria de Abril de el pistoletazo de salida. Durante este mes, esta especial cita que tendrá lugar en Sevilla ha sido monotema, y sobre todo, las mejores ideas de vestidos que ya nos han regalado las referentes de estilo y las influencers de nuestro país para que nos proclamemos las flamencas con el mejor estilo. Estas prendas con efecto tipazo que han elegido nos han enamorado, literalmente, como cuando Rocío Osorno nos mostró en su cuenta de Instagram el vestido asimétrico de Mango. Pero otras, sin embargo, nos han propuesto para la Feria de Abril opciones mucho más originales, como cuando Violeta Mangriñán nos mostró el traje bordado rojo de Mango que ya es el más favorecedor y elegante de toda la temporada primavera 2023. Y a muy pocos días de que la rumba suene por todo lo alto en Sevilla, hay verdaderos iconos de estilo, que nunca se pierden la feria, que han querido regalarnos un último look perfecto para este encuentro. Nos referimos a Vicky Martín Berrocal, que ya se ha puesto flamenca con la camisa de lunares más sofisticada que hemos encontrado muy parecida en Massimo Dutti.
 Porque si hay algo que tendemos a lucir en cada Feria de Abril, además de los vestidos de flamenca, claro está, son los lunares. Un estampado que nunca pasa de moda y que Carmen Lomana ya lució en una camisa de maravilla con un traje muy favorecedor. Una pieza que deberíamos tener ya en nuestro armario, ya que otra de las referentes de estilo más importantes la ha mostrado en su cuenta de Instagram. Nos referimos a Vicky Martín Berrocal, que se ha puesto flamenca frente a su 1,1 millón de seguidores con la camisa de lunares más sofisticada y que hemos encontrado muy parecida en Massimo Dutti. En el caso de la socialité, que se la puso para grabar una receta del gazpacho de remolacha, combinó la pieza en cuestión con unos jeans negros aportándole al look un aire casual. Pero añadiéndole unos pantalones de traje, por ejemplo, podríamos lograr el estilismo rey de la Feria de Abril. Y todo esto sin grandes complicaciones.
@@ -3100,13 +3146,13 @@
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>https://www.larazon.es/lifestyle/moda/azul-electrico-hace-todas-prendas-promete-convertirse-color-temporada_202304216442475550432b000163d471.html</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Si bien con la llegada de la primavera y la nueva colección en tiendas, son muchas las amantes de la moda que ya se han hecho eco de las prendas más icónicas y que prometen convertirse en virales de un momento a otro. Ya lo vimos con el chaleco verde bordado, el cual conquistó a muchas y es que no es para menos, pues es versátil, cómodo y muy elegante, haciendo que el look no pase desapercibido. Además, hay un tejido que parece ser que será un must en nuestra maleta de viaje durante estos meses, el crochet, pues lo hemos visto en todo tipo de prendas, desde en los básicos y clásicos vestidos, como este vestido de crochet de María Pombo en tonos blancos, verdes y negros o el básico en negro de Aitana durante su viaje a República Dominicana, hasta en piezas como camisetas, faldas o bolsos. Se trata de un tejido fresco, versátil y de estilo casual que puede llevarse tanto para el día a día con sneakers hasta para ocasiones más especiales, usando, por ejemplo, unas sandalias de tacón.
 No solo el crochet promete convertirse en el tejido de la temporada, pues, por ejemplo, hemos detectado en tiendas que las prendas con flecos para trajes de invitada y para el día a día se han hecho con gran parte de la colección de primavera y verano de este 2023, y es que aporta volumen, movimiento y es tan elegante que eleva el look, el cual no pasará desapercibido. Pero, si hablamos de colores, todos tenemos claro que el blanco es, sin duda, el color por excelencia año tras año, ya que potencia el moreno y es muy versátil, como el vestido 'cut out' en blanco de Alba Díaz, el cual llevó durante sus vacaciones de Semana Santa en Miami. Pero el blanco no es el único color de la temporada, pues aunque hay otro que queda fenomenal a todo tipo de tonos de piel y que lo hemos visto en distintas prendas, y es el azul eléctrico. Te enseñamos algunas prendas en dicho color que puedes encontrar ya en tus tiendas de moda favorita para ir a la última esta primavera.
@@ -3126,13 +3172,13 @@
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>https://www.larazon.es/lifestyle/moda/nos-hemos-enamorado-top-estilo-corse-lucia-rivera-pieza-mas-rejuvenecedora-que-reduce-talla-sienta-bien-todas_2023042164423f95fc2730000150283c.html</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>Esta vez, ha sido Lucía Rivera la que nos ha regalado una clave estilística infalible que nos permitirá brillar con luz propia esta primavera 2023. Mientras las referentes de estilo más relevantes de nuestro país siguen pensando sin parar en mostrar prendas virales que son totalmente en tendencia esta estación, como los kimonos estampados bonitos, prácticos y favorecedores que ya han conquistado a Ana Boyer o los trajes bordados rojos muy favorecedores de Mango que son perfectos para la Feria de Abril y que ha lucido hasta la mismísima Violeta Mangriñán, hay mujeres que son iconos de estilo que no se conforman con eso y prefieren ir un paso más allá para arriesgar al máximo con sus looks más preciosos. Y eso es justo por lo que ha apostado Lucía Rivera, la hija mayor de Cayetano Rivera, que adoptó cuando se casó con la madre de esta, Blanca Romero, para presentar en Madrid su primer libro, 'Nada es lo que parece'. Una cita muy especial para la modelo madrileña, de 24 años, en la que lució un favorecedor top estilo corsé que, sin duda, se ha convertido en la pieza más rejuvenecedora que reduce una talla y sienta bien a todas. Una pieza que es un básico en nuestro armario de primavera y que consigue ese deseado 'efecto tipazo' que muchas mujeres piensan que solo pueden lograr con una serie de vestidos.
 Porque si tenías alguna duda, los tops más en tendencia seguirán dando mucho de qué hablar esta primavera, ya que están conquistando poco a poco a los rostros conocidos e influencers a lo largo y ancho de nuestro país. Los últimos casos en este terreno estilístico han estado protagonizados por Alba Díaz, la hija de 'El Cordobés' que sucumbió al favorecedor top satinado de Zara que todas querremos ponernos con los pantalones más virales y que le ha robado del armario a su madre, Vicky Martín Berrocal, el top de punto cut out que cuesta menos de 15 euros en Zara y sienta igual de bien a los 20 que a los 50. Pero ella no ha sido la única que ha conquistado al mundo con estas prendas favorecedoras, ya que Lucía Rivera nos ha enamorado a todos, sin excepción, con el top estilo corsé satinado azul marino que ha lucido en la presentación de su primer libro. Se trata de la prenda más rejuvenecedora que reduce una talla y sienta bien a todas, y que la joven modelo madrileña combinó con una espectacular falda de punto y unas botas altas negras.
@@ -3143,13 +3189,13 @@
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>https://www.larazon.es/lifestyle/moda/vestido-midi-mas-bonito-temporada-llegado-brownie-chicas-que-mas-saben-moda-como-sara-baceiredo-llevan-zapatillas_2023042164423ec77f1ecd000199ce84.html</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>Bendita primavera con sabor a verano que estamos teniendo en Madrid, solo podemos pensar en eso y en sacar a pasear por las calles, los vestidos más bonitos de la temporada. Y eso mismo es lo que ha hecho una de nuestras influencers favoritas, Sara Baceiredo, que ahora además de engancharnos a sus vídeos de Youtube, sus Stories de Instagram, también tiene cuenta de TikTok. Y es que la vitoriana, como una madrileña más, ya ha presumido de bronceado con el vestido midi más bonito de la temporada, que es de la firma española Brownie. Porque cuando hablamos de amor a primera vista con una prenda, es lo que nos ha pasado con este vestido y por eso nos vamos a ir de compras este viernes para hacernos con él, antes que nos pase como con la chaqueta acolchada de flores de Mango, y nos quedemos sin él. Porque si el traje de Mango de Violeta Mangriñán es ideal para la Feria de Abril o la falda vaquera de Vicky Martín Berrocal es perfecta para la primavera, este vestido midi de Brownie es todo el verano adelantado que le pedimos a nuestra vida. Y más si hacemos como Sara Baceiredo y lo llevamos con zapatillas por Madrid o con botas cowboy como Amelia Bono.
 Un vestido con estampado de cuadros perfecto que nos recuerda a los colores de un atardecer y que además resalta el bronceado, es cómodo, fluido y además, sienta bien con 20 años como ha demostrado Sara Baceiredo pero también lo podrían llevar las mujeres de 50 años. Un vestido de esos que van a compartir madres e hijas.
@@ -3159,13 +3205,13 @@
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>https://www.larazon.es/lifestyle/moda/todas-nuestras-botas-cowboy-necesitan-esta-falda-pantalon-zara-que-amelia-bono-convertido-toda-colegiala-madrid_20230421644234677adfa80001c4bc95.html</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>De la semana fantástica de El Corte Inglés, a la semana fantástica de Amelia Bono. Eso es lo que pensamos este viernes, porque no hay día de la semana en el que la hija de José Bono no nos haya creado una necesidad de moda, y no lo pensamos solo nosotras, también sus seguidoras de Instagram que no le dejan de preguntar de donde es cada prenda. Primero fue el vestido 'tie dye' de Pull&amp;Bear, después el mono vaquero y ahora esta mini falda pantalón de Zara que no dudamos que se agotará en un abrir y cerrar de ojos porque es perfecta para llevar con botas cowboy esta primavera. No sabemos si Amelia Bono se animará a ir a la Feria de Abril este año, pero nosotras ya estamos contando las horas para el pescaíto y el encendido de El Real, y no porque nosotras vayamos a Sevilla, si no por comentar con vosotras todos los looks de flamenca que nos van a dejar las influencers y las celebrities en esta Feria de Abril 2023. Pero volvamos a la falda pantalón más colegiala de Amelia Bono, que ha sido tendencia en los últimos meses y esta primavera 2023 también se queda con nosotras. Y hablando de tendencias, las botas cowboy metalizadas, no pueden faltar en tu armario.
 Y es que Amelia Bono se ha convertido en una colegiala por un día en Madrid con esta falda de tablas de Zara que es perfecta para nuestros looks de entretiempo y más si la combinamos con unas botas cowboy como ha hecho ella, que podrían estar sacadas directamente de cualquier estilismo de Coachella 2023. Los más buscados son los que aportan ese característico aire colegial ya sea mediante el estampado de cuadros, el corte evasé, el tableado o, por qué no, los tres a la vez, y Amelia Bono nos lo acaba de demostrar.
@@ -3175,13 +3221,13 @@
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>https://www.larazon.es/lifestyle/belleza/5-labiales-rojos-low-cost-que-debes-tener-neceser_20230421644237787f1ecd000199bfd6.html</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Hay ciertos productos de maquillaje que no nos pueden faltar en nuestro neceser, y es que son imprescindibles a la hora de maquillarnos cada mañana o de cara a eventos más especiales. Sin duda, es imprescindible hacernos con una buena base de maquillaje que iguale el tono de nuestra piel, disimulando aquellas imperfecciones o rojeces que tengamos. En el mercado existen muchas bases de maquillaje en polvo o en crema, y es que algo a tener en cuenta para que nuestra piel es que esta debe ser del mismo tono que nuestro rostro, pues evitaremos así que se note el contraste. Otro de los productos que debemos de tener todas en nuestro neceser de maquillaje sería una máscara de pestañas, ya que esta nos permite abrir nuestra mirada y hacer que nuestros ojos se vean más grandes y nuestro rostro esté más iluminado. Pero, sin duda, nuestro maquillaje no está terminado sin el producto de cosmética por excelencia para obtener un efecto 'buena cara', por lo que debes de hacerte con un buen colorete con el que realizar la técnica 'pinky cheeks', que no es más que aplicar el blush en las mejillas para conseguir un efecto de lo más natural.
 Sin embargo, todos estos productos son un must en nuestro neceser pero, uno que no nos puede faltar jamás es el clásico labial rojo, el cual va perfecto con cualquier tono de piel y tiene la capacidad de empoderarnos, sentirnos más seguras con nosotras mismas y vernos más atractivas. Tamara Falcó nos enseñaba hace un par de meses su labial rojo favorito para ocasiones más especiales como una boda o una celebración en el que se requiera llevar un maquillaje más especial. Sea como sea, el labial rojo es, sin duda, ese producto que sí o sí debemos tener y que podemos encontrar en tiendas de cosmética, pues son muchas las marcas que ofrecen labiales en este tono tan peculiar, desde gamas más altas hasta las 'low cost'. Así que te enseñamos 5 labiales rojos de marcas 'low cost' para que escojas el que más vaya acorde a tus gustos y necesidades.
@@ -3199,13 +3245,13 @@
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>https://www.larazon.es/lr-content/trabajando-favor-inclusion-laboral-asi-son-rutas-empleo-clece_20230331642587a51b5f5b000126a029.html</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>La inclusión laboral de personas en situación de vulnerabilidad social y económica es una de las señas de identidad de Clece. El esfuerzo de esta compañía por impulsar este compromiso, le llevó el año pasado a poner en marcha una original iniciativa que acaba de retomar este 2023: las rutas de empleo. El objetivo es acercar oportunidades laborales a las personas que viven en zonas más aisladas, especialmente a quienes están en una situación socioeconómica complicada.
 Superar barreras para conseguir un empleo
@@ -3225,13 +3271,13 @@
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>https://www.larazon.es/lr-content/somos-nexo-comunidad-sistema-persona-sus-familiares_202303216414358e35808d0001d398d3.html</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Este 21 de marzo tiene lugar el Día Mundial del Trabajo Social, una fecha en el calendario que, desde 2009, pretende dar una mayor visibilidad a una profesión que para algunas personas, todavía sigue siendo poco conocida: la de trabajador social.
 A través de la intervención en una realidad que conoce bien de cerca, el trabajador social se encarga de buscar soluciones y establecer métodos para ayudar a las personas en diferentes momentos de su vida.
@@ -3264,13 +3310,13 @@
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>https://www.larazon.es/lr-content/terapeuta-ocupacional-animador-sociocultural-profesiones-esenciales-residencias-mayores_202303096407225d58a09800019934e3.html</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>En una residencia de mayores, encontramos normalmente diferentes perfiles profesionales que funcionan como un engranaje para que la calidad de vida de los usuarios sea la mejor. Personal sanitario, auxiliares, trabajadores sociales, psicólogos, cocina, limpieza y dos perfiles que quizá son menos conocidos: terapeuta ocupacional y técnico de animación sociocultural, dos roles esenciales para potenciar la autonomía, las relaciones sociales y la autoestima de las personas mayores en estos centros.
 Terapia ocupacional y su aplicación en residencias de mayores
@@ -3285,13 +3331,13 @@
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>https://estaticos.larazon.es/suplementoslarazon/LifeStyle/2023-02-25_LifeStyle/index.html</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>2023-02-25_LifeStyle
 MARZO 2023 VIAJES ZZZ Necesitas una ‘sleepcation’ (viajar para conciliar el sueño) PA-TA-TA El renacer de la cámara digital compacta Me voy cansando de todo, salvo de esta profesión PRENDAS GALÁCTICAS Que la moda te acompañe Las sobras migran a tu despensa DESPERDICIO CERO
@@ -3317,13 +3363,13 @@
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>https://www.larazon.es/internacional/barcos-rusos-encubiertos-preparan-sabotaje-mar-norte-aislar-reino-unido-caso-guerra_20230419643fe0422f8deb0001583b0c.html</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>Periodistas de investigación de varias televisiones de Dinamarca, Suecia, Finlandia y Noruega han siguiendo los movimientos de barcos rusos que navegaban por los mares Báltico y del Norte con sus rastreadores de ubicación apagados. No era algo casual. Según se desprende de la investigación periodística, existe un motivo oculto para ello. Los reporteros comprobaron que cuando se acercaron a un barco ruso que supuestamente realizaba una investigación científica, se encontraron con un hombre cubierto con un pasamontañas y un rifle de asalto en las manos.
 Al parecer, los "barcos fantasmas" rusos están rastreando las vulnerabilidades de los cables de datos submarinos, las turbinas eólicas en alta mar y otras piezas de infraestructura crítica de Reino Unido, Noruega, Dinamarca, Finlandia y Suecia, para preparar un futuro sabotaje en caso de guerra con Occidente, dice la citada investigación, que revela que los buques espía camuflados de barcos científicos y de barcos de arrastre pesqueros son parte de un programa militar de reconocimiento ruso en el Mar del Norte.
@@ -3340,25 +3386,25 @@
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>https://tiendaonline.larazon.es/freidoras-sin-aceite/301-freidora-sin-aceite-2l-air-power-v20-negra-8436579953218.html</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Utilizamos cookies propias y de terceros para analizar y mejorar nuestros servicios y mostrarle publicidad relacionada con sus preferencias mediante el análisis de sus hábitos de navegación. Si continúa navegando, consideramos que acepta su uso. Puede configurar o rechazar la configuración u obtener más información aquí.</t>
-        </is>
-      </c>
-    </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
+          <t>https://tiendaonline.larazon.es/freidoras-sin-aceite/301-freidora-sin-aceite-2l-air-power-v20-negra-8436579953218.html</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Utilizamos cookies propias y de terceros para analizar y mejorar nuestros servicios y mostrarle publicidad relacionada con sus preferencias mediante el análisis de sus hábitos de navegación. Si continúa navegando, consideramos que acepta su uso. Puede configurar o rechazar la configuración u obtener más información aquí.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
           <t>https://tiendaonline.larazon.es/aspiradores-verticales/308-aspirador-vertical-2-en-1-infinitypower-v900-8436579953492.html</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>ASPIRADOR ESCOBA CON CABLE 2 EN 1. Limpia de manera eficiente de una sola pasada. La principal ventaja de este potente aspirador es la comodidad que te aportará a la hora de aspirar superficies tanto de baja como elevada altura
 16.5 KPA PARA LIMPIAR HASTA EL ÚLTIMO RINCÓN. Ten el aspirador vertical con cable siempre listo con la máxima potencia gracias a la alimentación directa que permite sacar toda la fuerza bruta de su motor y aspirar hasta la suciedad más pesada. Sin cargas ni esperas innecesarias.
@@ -3367,13 +3413,13 @@
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>https://tiendaonline.larazon.es/aspiradores-verticales/307-aspirador-vertical-2-en-1-infinitypower-v900-8436579953485.html</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>ASPIRADOR ESCOBA CON CABLE 2 EN 1. Limpia de manera eficiente de una sola pasada. La principal ventaja de este potente aspirador es la comodidad que te aportará a la hora de aspirar superficies tanto de baja como elevada altura
 16.5 KPA PARA LIMPIAR HASTA EL ÚLTIMO RINCÓN. Ten el aspirador vertical con cable siempre listo con la máxima potencia gracias a la alimentación directa que permite sacar toda la fuerza bruta de su motor y aspirar hasta la suciedad más pesada. Sin cargas ni esperas innecesarias.
@@ -3382,22 +3428,10 @@
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>https://tiendaonline.larazon.es/aspiradores-verticales/306-aspirador-vertical-2-en-1-infinitypower-v900-8436579953515.html</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Utilizamos cookies propias y de terceros para analizar y mejorar nuestros servicios y mostrarle publicidad relacionada con sus preferencias mediante el análisis de sus hábitos de navegación. Si continúa navegando, consideramos que acepta su uso. Puede configurar o rechazar la configuración u obtener más información aquí.</t>
-        </is>
-      </c>
-    </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://tiendaonline.larazon.es/aspiradores-verticales/305-aspirador-vertical-2-en-1-infinitypower-v900-8436579953508.html</t>
+          <t>https://tiendaonline.larazon.es/aspiradores-verticales/306-aspirador-vertical-2-en-1-infinitypower-v900-8436579953515.html</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3409,7 +3443,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://tiendaonline.larazon.es/freidoras-sin-aceite/304-freidora-sin-aceite-2l-air-power-v20-negra-8436579953232.html</t>
+          <t>https://tiendaonline.larazon.es/aspiradores-verticales/305-aspirador-vertical-2-en-1-infinitypower-v900-8436579953508.html</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3421,7 +3455,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://tiendaonline.larazon.es/freidoras-sin-aceite/303-freidora-sin-aceite-2l-air-power-v20-negra-8436579953249.html</t>
+          <t>https://tiendaonline.larazon.es/freidoras-sin-aceite/304-freidora-sin-aceite-2l-air-power-v20-negra-8436579953232.html</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3433,7 +3467,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://tiendaonline.larazon.es/freidoras-sin-aceite/302-freidora-sin-aceite-2l-air-power-v20-negra-8436579953225.html</t>
+          <t>https://tiendaonline.larazon.es/freidoras-sin-aceite/303-freidora-sin-aceite-2l-air-power-v20-negra-8436579953249.html</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3445,7 +3479,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://tiendaonline.larazon.es/ropa-de-cama/288-604-juego-de-sabanas-y-fundas-de-almohada-atenea-beig-8435544808942.html#/51-tamano-cama_90</t>
+          <t>https://tiendaonline.larazon.es/freidoras-sin-aceite/302-freidora-sin-aceite-2l-air-power-v20-negra-8436579953225.html</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3457,7 +3491,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://tiendaonline.larazon.es/ropa-de-cama/287-598-juego-de-sabanas-y-fundas-de-almohada-atenea-beig-8435544808942.html#/51-tamano-cama_90</t>
+          <t>https://tiendaonline.larazon.es/ropa-de-cama/288-604-juego-de-sabanas-y-fundas-de-almohada-atenea-beig-8435544808942.html#/51-tamano-cama_90</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3469,7 +3503,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://tiendaonline.larazon.es/relojes/231-reloj-hemisphere-union-suiza-8436579951788.html</t>
+          <t>https://tiendaonline.larazon.es/ropa-de-cama/287-598-juego-de-sabanas-y-fundas-de-almohada-atenea-beig-8435544808942.html#/51-tamano-cama_90</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3481,7 +3515,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://tiendaonline.larazon.es/almohadas/91-146-almohada-viscoelastica-lavander-70cm-8435544800083.html#/33-tamano-70_cm</t>
+          <t>https://tiendaonline.larazon.es/relojes/231-reloj-hemisphere-union-suiza-8436579951788.html</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3493,7 +3527,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://tiendaonline.larazon.es/accesorios-cocina/223-sarten-electrica-40cm-nw407-8436579951764.html</t>
+          <t>https://tiendaonline.larazon.es/almohadas/91-146-almohada-viscoelastica-lavander-70cm-8435544800083.html#/33-tamano-70_cm</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3505,7 +3539,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://tiendaonline.larazon.es/robots-de-cocina/161-robot-de-cocina-silver-negro-8436544625935.html</t>
+          <t>https://tiendaonline.larazon.es/accesorios-cocina/223-sarten-electrica-40cm-nw407-8436579951764.html</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3517,7 +3551,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://tiendaonline.larazon.es/accesorios-cocina/154-grill-recubrimiento-de-piedra-8436579951436.html</t>
+          <t>https://tiendaonline.larazon.es/robots-de-cocina/161-robot-de-cocina-silver-negro-8436544625935.html</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3529,7 +3563,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://tiendaonline.larazon.es/juegos-de-maletas/126-set-maletas-20-2412-gris-3-pzs-8436579950552.html</t>
+          <t>https://tiendaonline.larazon.es/accesorios-cocina/154-grill-recubrimiento-de-piedra-8436579951436.html</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3541,19 +3575,19 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://younews.larazon.es/la-misa-de-la-catedral-de-valencia-en-directo?utm_source=younews&amp;utm_medium=menu&amp;utm_campaign=cabecera&amp;utm_term=misa</t>
+          <t>https://tiendaonline.larazon.es/juegos-de-maletas/126-set-maletas-20-2412-gris-3-pzs-8436579950552.html</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Emisión en directo de la Misa de la Catedral de Valencia 26 febrero</t>
+          <t>Utilizamos cookies propias y de terceros para analizar y mejorar nuestros servicios y mostrarle publicidad relacionada con sus preferencias mediante el análisis de sus hábitos de navegación. Si continúa navegando, consideramos que acepta su uso. Puede configurar o rechazar la configuración u obtener más información aquí.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://younews.larazon.es/la-misa-de-la-catedral-de-valencia-en-directo?utm_source=younews&amp;utm_medium=menu&amp;utm_campaign=supermenu&amp;utm_term=misa</t>
+          <t>https://younews.larazon.es/la-misa-de-la-catedral-de-valencia-en-directo?utm_source=younews&amp;utm_medium=menu&amp;utm_campaign=cabecera&amp;utm_term=misa</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3565,10 +3599,22 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
+          <t>https://younews.larazon.es/la-misa-de-la-catedral-de-valencia-en-directo?utm_source=younews&amp;utm_medium=menu&amp;utm_campaign=supermenu&amp;utm_term=misa</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Emisión en directo de la Misa de la Catedral de Valencia 26 febrero</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
           <t>https://younews.larazon.es/condiciones-generales-y-particulares-de-uso-2/</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B164" t="inlineStr">
         <is>
           <t>1. DATOS IDENTIFICATIVOS
 La presente página web, www.younews.es (en adelante LA WEB), es propiedad de Audiovisual Española 2000 S.A., con domicilio en Madrid, Calle Josefa Valcárcel 42, con CIF A-82031329 e inscrita en el Registro Mercantil de Madrid, al tomo 13.277, libro 0, folio 148, sección 8ª, hoja M-215.097, inscripción 1ª. (en adelante AE2000).
@@ -3653,13 +3699,13 @@
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t>https://branded.larazon.es//suez-dia-mundial-de-las-ciudades-2020/</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t>Para contribuir a que nuestras ciudades del mañana sean más inteligentes, sostenibles y resilientes, SUEZ España trabaja cada día en soluciones relacionadas con la sostenibilidad y la salud ambiental. Con el ciudadano en el centro de sus esfuerzos, estas soluciones contribuyen a una gestión más eficiente, segura y sostenible de los servicios urbanos y de las redes.
 Todo lo relacionado con el agua de una ciudad es esencial para sus habitantes, ya que es un servicio básico que abastece, no solo a los individuos, sino a centros sanitarios, cuerpos de seguridad como los bomberos, servicios de limpieza…
@@ -3669,26 +3715,26 @@
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+    <row r="166">
+      <c r="A166" t="inlineStr">
         <is>
           <t>https://branded.larazon.es//suez-un-viaje-al-asombroso-epicentro-del-agua-potable/</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>Un pequeño prodigio ocurre cada día en nuestras vidas. Al abrir el grifo en nuestras casas, un chorro de agua sale a la presión adecuada y con unas garantías sanitarias que, en Barcelona y su área metropolitana, son equiparables a las de cualquier otro producto alimentario. El agua potable es básica en nuestros hogares.¿Sabemos cómo se consigue este pequeño milagro cotidiano?
 El denominado ciclo del agua comprende las actividades de captación y potabilización del agua, su distribución hasta llegar a los consumidores y la depuración de las aguas residuales, para que sean devueltas al medio natural en condiciones óptimas o bien para que sean regeneradas y reutilizadas para otros usos como el riego de parques o la limpieza de calles.</t>
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t>https://branded.larazon.es//alma-fundacion-la-caixa-personas-mayores/</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>Así pues, es necesario establecer nuevos proyectos en la vejez y dotarse de las herramientas necesarias para llevarlos a cabo. “Tenemos en marcha diversos proyectos, desde la digitalización de los contenidos hasta la reconversión de los centros de mayores, y también estamos estableciendo unos modelos de intervención para ayudar a los mayores a superar las pérdidas y la soledad debidas a la COVID-19”.
 El programa también pretende que la vejez se vincule al bien común, especialmente teniendo en cuenta el aumento de este segmento de la población: “No podemos prescindir de la aportación de un colectivo que pronto (hacia el 2030) representará cerca del 25 % de la población”, asegura Yanguas. La sociedad tiende, en efecto, a infravalorar las capacidades de los mayores y a no valorar tantos años de experiencia. “Creo que no ha sido justa ni la infantilización ni la sobreprotección ni el olvido de las personas mayores durante la pandemia. No les hemos tratado como adultos con plenos derechos que son, personas absolutamente capaces (exceptuando situaciones de dependencia severa y deterioro cognitivo, por ejemplo) de llevar las riendas de su vida”. La vulnerabilidad física frente al virus está ahí, pero eso no significa que la vulnerabilidad física sea también vulnerabilidad psicológica o social. “Las personas mayores han seguido siendo, en muchos casos, el centro de gravedad de la solidaridad familiar y nos han dado grandes lecciones de vida”.
@@ -3696,13 +3742,13 @@
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+    <row r="168">
+      <c r="A168" t="inlineStr">
         <is>
           <t>https://branded.larazon.es//alma-fundacion-la-caixa-pobreza-infantil/</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>Cuando uno entra en el Centro de acogida de menores San Juan Bautista de València tiene la sensación de estar entrando en un verdadero hogar. Hay mensajes por todas partes que llaman a la esperanza. “Hoy es un gran día y lo sabes”, reza un cartel en la pared. De fondo, se escucha el sonido de una guitarra española que, como una fuente, riega el silencio que reina en el edificio a la hora de la siesta. Quien la toca es Fernando, uno de los menores residentes, que hoy ha decidido quedarse despierto. “Ha sabido aprovechar el confinamiento y ahora toca de maravilla” dice, mirándolo con una sonrisa, sor Isabel.
 Sor Isabel Bugés, hija de la caridad, es la directora de este centro de acogida de menores valenciano. La Resi, la llaman ellos. En él conviven 24 chicos y chicas de entre 6 y 18 años en situación de vulnerabilidad tras haber padecido diversas problemáticas sociofamiliares. A estos chicos se suman 12 más, pero que vienen solo durante el día. “Este centro –explica sor Isabel– tiene su origen en la donación de los marqueses de San Juan, que tuvieron 3 hijos, 2 murieron de niños y el otro a los 20 años. Esto provocó que dedicaran gran parte de su patrimonio a ayudar a niños con dificultades, en su mayoría huérfanos, creando la Fundación Asilo San Juan Bautista, que se acabó de construir en 1873, y encargaron la atención y educación de los niños a las Hijas de la Caridad de San Vicente de Paúl, nosotras. Su obra la continúan sus descendientes, que son los patronos actuales y nosotras, hijas de la caridad, junto al equipo de profesionales”.
@@ -3710,26 +3756,26 @@
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+    <row r="169">
+      <c r="A169" t="inlineStr">
         <is>
           <t>https://branded.larazon.es//alma-fundacion-la-caixa-ona-carbonell/</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>En mi caso, me gusta cocinar (participé en MasterChef y he abierto como socia un restaurante), estoy a punto de acabar la carrera de Diseño, tengo mi línea de bañadores, ayer saqué mi tercer libro de Elena Sirena para niños y niñas, he hecho de presentadora de Deportes Cuatro junto a Manu Carreño en una pequeña sección… Voy haciendo un poco de todo y viendo qué me gusta y qué no para, dentro de unos años, focalizarme en algo. Ya veremos qué va pasando.
 A lo largo de mi carrera deportiva he asistido a la retirada de muchas compañeras y he aprendido que, cuando tomas la decisión, hay que hacerlo con agradecimiento a tu deporte, a todas las personas que han estado a tu lado y a todo lo que has vivido. Y aunque sea un momento muy difícil, puedes aprovechar todo lo que te ha dado para tus nuevas etapas. Por eso, si tuviera que aconsejar a otros deportistas, les diría que no la vean como algo negativo sino al revés, porque cuando algo acaba, empieza otra cosa. Que el deporte nos ha dado alas para volar y nos ha formado como personas. Que somos muy fuertes porque hemos vivido muchísimas cosas duras y emocionantes, y que están preparados. Que no tengan miedo, solo respeto. Y que adelante.</t>
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+    <row r="170">
+      <c r="A170" t="inlineStr">
         <is>
           <t>https://branded.larazon.es//alma-fundacion-la-caixa-ramon-jimenez-fraile/</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>De los 237 hombres que partieron del puerto de Sanlúcar, tan solo 18 regresaron tres años después; y solo una de las cinco naves, la Nao Victoria, consiguió completar el viaje. ¿La primera vuelta al mundo fue un milagro o existe alguna otra explicación?
 De las cinco embarcaciones que formaban parte de la expedición, solo dos (Trinidad y Victoria) alcanzaron el archipiélago de las Molucas, que era el objetivo fijado porque allá se encontraban las especias más preciadas de la época: el clavo y la nuez moscada, algo que nos puede parecer hoy banal, pero que en su momento era un absoluto tesoro. Sin embargo, la expedición descubrió entretanto que todo el orbe era navegable, gracias a la interconexión entre los océanos Atlántico y Pacífico, y experimentó la inmensidad del océano Pacífico, que representa un tercio de la superficie del planeta. Ahora bien, el jefe de la expedición, Fernando de Magallanes, murió en Filipinas, lo que supuso un vacío de poder. Y es entonces cuando la iniciativa personal, la capacidad de adaptación a las circunstancias y, sobre todo, la manera de enfrentarse a la adversidad y de sacar fuerzas de flaqueza (resiliencia) cobraron toda su importancia.
@@ -3738,13 +3784,13 @@
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t>https://www.larazon.es/salud/20200527/dhfj5d6hzrg4xp7yk4o4gmjrpa.html</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>El gobierno ​afirma que ​el uso de mascarillas será obligatorio​ para mayores de 6 años en la vía pública; sin embargo declara que ​n​o abastecerá a la ciudadanía española de dicho material de protección​, siendo responsabilidad de todo ciudadano y unidad familiar dotarse del material de protección requerido por sí mismo, así como asumir su coste.
 Durante los últimos meses, ha sido tarea ardua e imposible adquirir una mascarilla, además de que cualquier material disponible debía ser destinado a uso sanitario y para grupos de alto riesgo.
@@ -3772,26 +3818,26 @@
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+    <row r="172">
+      <c r="A172" t="inlineStr">
         <is>
           <t>https://branded.larazon.es//suez-dia-mundial-de-las-ciudades/</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>El proyecto europeo H2020 RESCCUE (2016-2020), liderado por SUEZ, analiza el impacto del cambio climático en el funcionamiento de los servicios públicos urbanos como el agua, la energía y las telecomunicaciones. Barcelona, Lisboa y Bristol son las tres ciudades piloto del proyecto, que tiene como objetivo desarrollar modelos y herramientas de resiliencia urbana desde un enfoque multisectorial. El proyecto permitirá a los gestores y operadores de la ciudad escoger las mejores inversiones para lidiar con futuras situaciones y ser así más resilientes ante el cambio climático.
 SUEZ España también participa en otro proyecto europeo (BINGO) que ha permitido proponer al Ayuntamiento de Badalona una serie de medidas para aumentar la capacidad de adaptación de la ciudad ante inundaciones urbanas y proteger sus playas, afectadas por descargas del sistema de alcantarillado durante las precipitaciones intensas, cada vez más frecuentes.</t>
         </is>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t>https://branded.larazon.es//la-caixa-miradas-con-alma-enrique-ballester/</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>La vida alimenta metáforas a base de caminos. Esos caminos tienen principios, bajadas, curvas, encrucijadas y finales. Todo el mundo quiere uno: los que suelen merecer la pena ofrecen la recompensa durante el trayecto, sin que importe tanto la meta y, en los mejores, ni siquiera se necesita meta. En Lleida han encontrado uno de esos caminos privilegiados. Tiene forma de equipo de baloncesto.
 A menudo el futuro no se entiende sin el pasado. A Albert Molias y a Ramon Arqués les mueve una idea quizá del pasado, pero que está alumbrando un proyecto de un empuje imparable hacia el futuro. Consideran que la empresa que conocieron, ”la Caixa” más familiar, les dio mucho en su día, y debían devolverlo de alguna manera. Lo mismo de la empresa en concreto vale con la sociedad en general: al jubilarse se hicieron voluntarios. Ramon lleva más de medio siglo vinculado al baloncesto, y enseguida Albert, delegado de la Asociación de Voluntarios de ”la Caixa” en Lleida, pensó en él para utilizar el deporte como herramienta educativa.
@@ -3799,26 +3845,26 @@
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+    <row r="174">
+      <c r="A174" t="inlineStr">
         <is>
           <t>https://branded.larazon.es//suez-dia-mundial-de-la-alimentacion/</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>El Día Mundial de la Alimentación, que se celebra hoy, lleva este año por lema “Dietas saludables para un mundo sin hambre”. Acabar con la desnutrición y el hambre en el mundo es, precisamente, una de las metas principales de los Objetivos de Desarrollo Sostenible (ODS), la gran hoja de ruta mundial del desarrollo para los próximos años aprobada por Naciones Unidas (ONU).
 El gran reto que afronta la humanidad es cómo producir más alimentos con menos recursos en un contexto de cambio climático. La agricultura, que consume el 70% del agua dulce en el mundo, será uno de los sectores más afectados por las alteraciones climáticas. La superficie de tierras cultivables está en regresión en todo el planeta por la expansión de las ciudades, especialmente en Asia y Latinoamérica, y por la sequía. Se calcula que en 2030 un 47% de la población vivirá en zonas con estrés hídrico (demanda de agua superior a la oferta disponible). Y, sobre todo, cada vez seremos más. Los habitantes de la Tierra aumentarán en 2.000 millones de personas en los próximos 30 años y alcanzará los 9.700 millones en 2050.</t>
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="175">
+      <c r="A175" t="inlineStr">
         <is>
           <t>https://larazonbc.wpengine.com/ferrovial-infraestructuras-sociales-maji-ni-uhai/</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Las mujeres y los niños de estos poblados gastaban tiempo y esfuerzo diariamente en recorrer largas distancias para aproximarse a una fuente de agua. Para conseguir un bien tan básico y necesario, se dejaban de realizar tareas que puedan fomentar y acelerar el desarrollo socioeconómico del país. Por eso, acercar fuentes de agua potable a los hogares de estos poblados tuvo un papel crucial en la vida de las mujeres y los niños. En primer lugar, las mujeres se sintieron empoderadas al desarrollar capacidades que les permitió participar de forma activa en todas las fases del proyecto, que incluso les facilitó la incorporación a roles clave en los gobiernos de los poblados y en los grupos de usuarios de agua. Por otra parte, los niños se han visto muy beneficiados con las nuevas fuentes de suministro de agua no solo en los hogares, sino también en las escuelas, donde además pueden centrarse durante más tiempo a no tener que ayudar a sus madres a conseguir agua potable.</t>
         </is>
